--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/LargeFormat/Large Fromat.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/LargeFormat/Large Fromat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>Data For Large Format Add/Update (Edit)</t>
   </si>
@@ -27,24 +27,6 @@
     <t>Update Data</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Large Format Add</t>
-  </si>
-  <si>
-    <t>Form Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Format Add </t>
-  </si>
-  <si>
-    <t>Message Verification</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -213,9 +195,6 @@
     <t>Default Guillotine</t>
   </si>
   <si>
-    <t>guillotine</t>
-  </si>
-  <si>
     <t>Set As Default Press</t>
   </si>
   <si>
@@ -334,13 +313,16 @@
   </si>
   <si>
     <t>Ink 5</t>
+  </si>
+  <si>
+    <t>Guilotine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,18 +335,6 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -382,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,6 +389,18 @@
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="35"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -432,36 +414,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,703 +738,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="61.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="39">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="12" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="9" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="11" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="A39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="A42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="C38:H42"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C20:H24"/>
-    <mergeCell ref="C40:H44"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C25:C26 IY25:IY26 SU25:SU26 ACQ25:ACQ26 AMM25:AMM26 AWI25:AWI26 BGE25:BGE26 BQA25:BQA26 BZW25:BZW26 CJS25:CJS26 CTO25:CTO26 DDK25:DDK26 DNG25:DNG26 DXC25:DXC26 EGY25:EGY26 EQU25:EQU26 FAQ25:FAQ26 FKM25:FKM26 FUI25:FUI26 GEE25:GEE26 GOA25:GOA26 GXW25:GXW26 HHS25:HHS26 HRO25:HRO26 IBK25:IBK26 ILG25:ILG26 IVC25:IVC26 JEY25:JEY26 JOU25:JOU26 JYQ25:JYQ26 KIM25:KIM26 KSI25:KSI26 LCE25:LCE26 LMA25:LMA26 LVW25:LVW26 MFS25:MFS26 MPO25:MPO26 MZK25:MZK26 NJG25:NJG26 NTC25:NTC26 OCY25:OCY26 OMU25:OMU26 OWQ25:OWQ26 PGM25:PGM26 PQI25:PQI26 QAE25:QAE26 QKA25:QKA26 QTW25:QTW26 RDS25:RDS26 RNO25:RNO26 RXK25:RXK26 SHG25:SHG26 SRC25:SRC26 TAY25:TAY26 TKU25:TKU26 TUQ25:TUQ26 UEM25:UEM26 UOI25:UOI26 UYE25:UYE26 VIA25:VIA26 VRW25:VRW26 WBS25:WBS26 WLO25:WLO26 WVK25:WVK26 C65561:C65562 IY65561:IY65562 SU65561:SU65562 ACQ65561:ACQ65562 AMM65561:AMM65562 AWI65561:AWI65562 BGE65561:BGE65562 BQA65561:BQA65562 BZW65561:BZW65562 CJS65561:CJS65562 CTO65561:CTO65562 DDK65561:DDK65562 DNG65561:DNG65562 DXC65561:DXC65562 EGY65561:EGY65562 EQU65561:EQU65562 FAQ65561:FAQ65562 FKM65561:FKM65562 FUI65561:FUI65562 GEE65561:GEE65562 GOA65561:GOA65562 GXW65561:GXW65562 HHS65561:HHS65562 HRO65561:HRO65562 IBK65561:IBK65562 ILG65561:ILG65562 IVC65561:IVC65562 JEY65561:JEY65562 JOU65561:JOU65562 JYQ65561:JYQ65562 KIM65561:KIM65562 KSI65561:KSI65562 LCE65561:LCE65562 LMA65561:LMA65562 LVW65561:LVW65562 MFS65561:MFS65562 MPO65561:MPO65562 MZK65561:MZK65562 NJG65561:NJG65562 NTC65561:NTC65562 OCY65561:OCY65562 OMU65561:OMU65562 OWQ65561:OWQ65562 PGM65561:PGM65562 PQI65561:PQI65562 QAE65561:QAE65562 QKA65561:QKA65562 QTW65561:QTW65562 RDS65561:RDS65562 RNO65561:RNO65562 RXK65561:RXK65562 SHG65561:SHG65562 SRC65561:SRC65562 TAY65561:TAY65562 TKU65561:TKU65562 TUQ65561:TUQ65562 UEM65561:UEM65562 UOI65561:UOI65562 UYE65561:UYE65562 VIA65561:VIA65562 VRW65561:VRW65562 WBS65561:WBS65562 WLO65561:WLO65562 WVK65561:WVK65562 C131097:C131098 IY131097:IY131098 SU131097:SU131098 ACQ131097:ACQ131098 AMM131097:AMM131098 AWI131097:AWI131098 BGE131097:BGE131098 BQA131097:BQA131098 BZW131097:BZW131098 CJS131097:CJS131098 CTO131097:CTO131098 DDK131097:DDK131098 DNG131097:DNG131098 DXC131097:DXC131098 EGY131097:EGY131098 EQU131097:EQU131098 FAQ131097:FAQ131098 FKM131097:FKM131098 FUI131097:FUI131098 GEE131097:GEE131098 GOA131097:GOA131098 GXW131097:GXW131098 HHS131097:HHS131098 HRO131097:HRO131098 IBK131097:IBK131098 ILG131097:ILG131098 IVC131097:IVC131098 JEY131097:JEY131098 JOU131097:JOU131098 JYQ131097:JYQ131098 KIM131097:KIM131098 KSI131097:KSI131098 LCE131097:LCE131098 LMA131097:LMA131098 LVW131097:LVW131098 MFS131097:MFS131098 MPO131097:MPO131098 MZK131097:MZK131098 NJG131097:NJG131098 NTC131097:NTC131098 OCY131097:OCY131098 OMU131097:OMU131098 OWQ131097:OWQ131098 PGM131097:PGM131098 PQI131097:PQI131098 QAE131097:QAE131098 QKA131097:QKA131098 QTW131097:QTW131098 RDS131097:RDS131098 RNO131097:RNO131098 RXK131097:RXK131098 SHG131097:SHG131098 SRC131097:SRC131098 TAY131097:TAY131098 TKU131097:TKU131098 TUQ131097:TUQ131098 UEM131097:UEM131098 UOI131097:UOI131098 UYE131097:UYE131098 VIA131097:VIA131098 VRW131097:VRW131098 WBS131097:WBS131098 WLO131097:WLO131098 WVK131097:WVK131098 C196633:C196634 IY196633:IY196634 SU196633:SU196634 ACQ196633:ACQ196634 AMM196633:AMM196634 AWI196633:AWI196634 BGE196633:BGE196634 BQA196633:BQA196634 BZW196633:BZW196634 CJS196633:CJS196634 CTO196633:CTO196634 DDK196633:DDK196634 DNG196633:DNG196634 DXC196633:DXC196634 EGY196633:EGY196634 EQU196633:EQU196634 FAQ196633:FAQ196634 FKM196633:FKM196634 FUI196633:FUI196634 GEE196633:GEE196634 GOA196633:GOA196634 GXW196633:GXW196634 HHS196633:HHS196634 HRO196633:HRO196634 IBK196633:IBK196634 ILG196633:ILG196634 IVC196633:IVC196634 JEY196633:JEY196634 JOU196633:JOU196634 JYQ196633:JYQ196634 KIM196633:KIM196634 KSI196633:KSI196634 LCE196633:LCE196634 LMA196633:LMA196634 LVW196633:LVW196634 MFS196633:MFS196634 MPO196633:MPO196634 MZK196633:MZK196634 NJG196633:NJG196634 NTC196633:NTC196634 OCY196633:OCY196634 OMU196633:OMU196634 OWQ196633:OWQ196634 PGM196633:PGM196634 PQI196633:PQI196634 QAE196633:QAE196634 QKA196633:QKA196634 QTW196633:QTW196634 RDS196633:RDS196634 RNO196633:RNO196634 RXK196633:RXK196634 SHG196633:SHG196634 SRC196633:SRC196634 TAY196633:TAY196634 TKU196633:TKU196634 TUQ196633:TUQ196634 UEM196633:UEM196634 UOI196633:UOI196634 UYE196633:UYE196634 VIA196633:VIA196634 VRW196633:VRW196634 WBS196633:WBS196634 WLO196633:WLO196634 WVK196633:WVK196634 C262169:C262170 IY262169:IY262170 SU262169:SU262170 ACQ262169:ACQ262170 AMM262169:AMM262170 AWI262169:AWI262170 BGE262169:BGE262170 BQA262169:BQA262170 BZW262169:BZW262170 CJS262169:CJS262170 CTO262169:CTO262170 DDK262169:DDK262170 DNG262169:DNG262170 DXC262169:DXC262170 EGY262169:EGY262170 EQU262169:EQU262170 FAQ262169:FAQ262170 FKM262169:FKM262170 FUI262169:FUI262170 GEE262169:GEE262170 GOA262169:GOA262170 GXW262169:GXW262170 HHS262169:HHS262170 HRO262169:HRO262170 IBK262169:IBK262170 ILG262169:ILG262170 IVC262169:IVC262170 JEY262169:JEY262170 JOU262169:JOU262170 JYQ262169:JYQ262170 KIM262169:KIM262170 KSI262169:KSI262170 LCE262169:LCE262170 LMA262169:LMA262170 LVW262169:LVW262170 MFS262169:MFS262170 MPO262169:MPO262170 MZK262169:MZK262170 NJG262169:NJG262170 NTC262169:NTC262170 OCY262169:OCY262170 OMU262169:OMU262170 OWQ262169:OWQ262170 PGM262169:PGM262170 PQI262169:PQI262170 QAE262169:QAE262170 QKA262169:QKA262170 QTW262169:QTW262170 RDS262169:RDS262170 RNO262169:RNO262170 RXK262169:RXK262170 SHG262169:SHG262170 SRC262169:SRC262170 TAY262169:TAY262170 TKU262169:TKU262170 TUQ262169:TUQ262170 UEM262169:UEM262170 UOI262169:UOI262170 UYE262169:UYE262170 VIA262169:VIA262170 VRW262169:VRW262170 WBS262169:WBS262170 WLO262169:WLO262170 WVK262169:WVK262170 C327705:C327706 IY327705:IY327706 SU327705:SU327706 ACQ327705:ACQ327706 AMM327705:AMM327706 AWI327705:AWI327706 BGE327705:BGE327706 BQA327705:BQA327706 BZW327705:BZW327706 CJS327705:CJS327706 CTO327705:CTO327706 DDK327705:DDK327706 DNG327705:DNG327706 DXC327705:DXC327706 EGY327705:EGY327706 EQU327705:EQU327706 FAQ327705:FAQ327706 FKM327705:FKM327706 FUI327705:FUI327706 GEE327705:GEE327706 GOA327705:GOA327706 GXW327705:GXW327706 HHS327705:HHS327706 HRO327705:HRO327706 IBK327705:IBK327706 ILG327705:ILG327706 IVC327705:IVC327706 JEY327705:JEY327706 JOU327705:JOU327706 JYQ327705:JYQ327706 KIM327705:KIM327706 KSI327705:KSI327706 LCE327705:LCE327706 LMA327705:LMA327706 LVW327705:LVW327706 MFS327705:MFS327706 MPO327705:MPO327706 MZK327705:MZK327706 NJG327705:NJG327706 NTC327705:NTC327706 OCY327705:OCY327706 OMU327705:OMU327706 OWQ327705:OWQ327706 PGM327705:PGM327706 PQI327705:PQI327706 QAE327705:QAE327706 QKA327705:QKA327706 QTW327705:QTW327706 RDS327705:RDS327706 RNO327705:RNO327706 RXK327705:RXK327706 SHG327705:SHG327706 SRC327705:SRC327706 TAY327705:TAY327706 TKU327705:TKU327706 TUQ327705:TUQ327706 UEM327705:UEM327706 UOI327705:UOI327706 UYE327705:UYE327706 VIA327705:VIA327706 VRW327705:VRW327706 WBS327705:WBS327706 WLO327705:WLO327706 WVK327705:WVK327706 C393241:C393242 IY393241:IY393242 SU393241:SU393242 ACQ393241:ACQ393242 AMM393241:AMM393242 AWI393241:AWI393242 BGE393241:BGE393242 BQA393241:BQA393242 BZW393241:BZW393242 CJS393241:CJS393242 CTO393241:CTO393242 DDK393241:DDK393242 DNG393241:DNG393242 DXC393241:DXC393242 EGY393241:EGY393242 EQU393241:EQU393242 FAQ393241:FAQ393242 FKM393241:FKM393242 FUI393241:FUI393242 GEE393241:GEE393242 GOA393241:GOA393242 GXW393241:GXW393242 HHS393241:HHS393242 HRO393241:HRO393242 IBK393241:IBK393242 ILG393241:ILG393242 IVC393241:IVC393242 JEY393241:JEY393242 JOU393241:JOU393242 JYQ393241:JYQ393242 KIM393241:KIM393242 KSI393241:KSI393242 LCE393241:LCE393242 LMA393241:LMA393242 LVW393241:LVW393242 MFS393241:MFS393242 MPO393241:MPO393242 MZK393241:MZK393242 NJG393241:NJG393242 NTC393241:NTC393242 OCY393241:OCY393242 OMU393241:OMU393242 OWQ393241:OWQ393242 PGM393241:PGM393242 PQI393241:PQI393242 QAE393241:QAE393242 QKA393241:QKA393242 QTW393241:QTW393242 RDS393241:RDS393242 RNO393241:RNO393242 RXK393241:RXK393242 SHG393241:SHG393242 SRC393241:SRC393242 TAY393241:TAY393242 TKU393241:TKU393242 TUQ393241:TUQ393242 UEM393241:UEM393242 UOI393241:UOI393242 UYE393241:UYE393242 VIA393241:VIA393242 VRW393241:VRW393242 WBS393241:WBS393242 WLO393241:WLO393242 WVK393241:WVK393242 C458777:C458778 IY458777:IY458778 SU458777:SU458778 ACQ458777:ACQ458778 AMM458777:AMM458778 AWI458777:AWI458778 BGE458777:BGE458778 BQA458777:BQA458778 BZW458777:BZW458778 CJS458777:CJS458778 CTO458777:CTO458778 DDK458777:DDK458778 DNG458777:DNG458778 DXC458777:DXC458778 EGY458777:EGY458778 EQU458777:EQU458778 FAQ458777:FAQ458778 FKM458777:FKM458778 FUI458777:FUI458778 GEE458777:GEE458778 GOA458777:GOA458778 GXW458777:GXW458778 HHS458777:HHS458778 HRO458777:HRO458778 IBK458777:IBK458778 ILG458777:ILG458778 IVC458777:IVC458778 JEY458777:JEY458778 JOU458777:JOU458778 JYQ458777:JYQ458778 KIM458777:KIM458778 KSI458777:KSI458778 LCE458777:LCE458778 LMA458777:LMA458778 LVW458777:LVW458778 MFS458777:MFS458778 MPO458777:MPO458778 MZK458777:MZK458778 NJG458777:NJG458778 NTC458777:NTC458778 OCY458777:OCY458778 OMU458777:OMU458778 OWQ458777:OWQ458778 PGM458777:PGM458778 PQI458777:PQI458778 QAE458777:QAE458778 QKA458777:QKA458778 QTW458777:QTW458778 RDS458777:RDS458778 RNO458777:RNO458778 RXK458777:RXK458778 SHG458777:SHG458778 SRC458777:SRC458778 TAY458777:TAY458778 TKU458777:TKU458778 TUQ458777:TUQ458778 UEM458777:UEM458778 UOI458777:UOI458778 UYE458777:UYE458778 VIA458777:VIA458778 VRW458777:VRW458778 WBS458777:WBS458778 WLO458777:WLO458778 WVK458777:WVK458778 C524313:C524314 IY524313:IY524314 SU524313:SU524314 ACQ524313:ACQ524314 AMM524313:AMM524314 AWI524313:AWI524314 BGE524313:BGE524314 BQA524313:BQA524314 BZW524313:BZW524314 CJS524313:CJS524314 CTO524313:CTO524314 DDK524313:DDK524314 DNG524313:DNG524314 DXC524313:DXC524314 EGY524313:EGY524314 EQU524313:EQU524314 FAQ524313:FAQ524314 FKM524313:FKM524314 FUI524313:FUI524314 GEE524313:GEE524314 GOA524313:GOA524314 GXW524313:GXW524314 HHS524313:HHS524314 HRO524313:HRO524314 IBK524313:IBK524314 ILG524313:ILG524314 IVC524313:IVC524314 JEY524313:JEY524314 JOU524313:JOU524314 JYQ524313:JYQ524314 KIM524313:KIM524314 KSI524313:KSI524314 LCE524313:LCE524314 LMA524313:LMA524314 LVW524313:LVW524314 MFS524313:MFS524314 MPO524313:MPO524314 MZK524313:MZK524314 NJG524313:NJG524314 NTC524313:NTC524314 OCY524313:OCY524314 OMU524313:OMU524314 OWQ524313:OWQ524314 PGM524313:PGM524314 PQI524313:PQI524314 QAE524313:QAE524314 QKA524313:QKA524314 QTW524313:QTW524314 RDS524313:RDS524314 RNO524313:RNO524314 RXK524313:RXK524314 SHG524313:SHG524314 SRC524313:SRC524314 TAY524313:TAY524314 TKU524313:TKU524314 TUQ524313:TUQ524314 UEM524313:UEM524314 UOI524313:UOI524314 UYE524313:UYE524314 VIA524313:VIA524314 VRW524313:VRW524314 WBS524313:WBS524314 WLO524313:WLO524314 WVK524313:WVK524314 C589849:C589850 IY589849:IY589850 SU589849:SU589850 ACQ589849:ACQ589850 AMM589849:AMM589850 AWI589849:AWI589850 BGE589849:BGE589850 BQA589849:BQA589850 BZW589849:BZW589850 CJS589849:CJS589850 CTO589849:CTO589850 DDK589849:DDK589850 DNG589849:DNG589850 DXC589849:DXC589850 EGY589849:EGY589850 EQU589849:EQU589850 FAQ589849:FAQ589850 FKM589849:FKM589850 FUI589849:FUI589850 GEE589849:GEE589850 GOA589849:GOA589850 GXW589849:GXW589850 HHS589849:HHS589850 HRO589849:HRO589850 IBK589849:IBK589850 ILG589849:ILG589850 IVC589849:IVC589850 JEY589849:JEY589850 JOU589849:JOU589850 JYQ589849:JYQ589850 KIM589849:KIM589850 KSI589849:KSI589850 LCE589849:LCE589850 LMA589849:LMA589850 LVW589849:LVW589850 MFS589849:MFS589850 MPO589849:MPO589850 MZK589849:MZK589850 NJG589849:NJG589850 NTC589849:NTC589850 OCY589849:OCY589850 OMU589849:OMU589850 OWQ589849:OWQ589850 PGM589849:PGM589850 PQI589849:PQI589850 QAE589849:QAE589850 QKA589849:QKA589850 QTW589849:QTW589850 RDS589849:RDS589850 RNO589849:RNO589850 RXK589849:RXK589850 SHG589849:SHG589850 SRC589849:SRC589850 TAY589849:TAY589850 TKU589849:TKU589850 TUQ589849:TUQ589850 UEM589849:UEM589850 UOI589849:UOI589850 UYE589849:UYE589850 VIA589849:VIA589850 VRW589849:VRW589850 WBS589849:WBS589850 WLO589849:WLO589850 WVK589849:WVK589850 C655385:C655386 IY655385:IY655386 SU655385:SU655386 ACQ655385:ACQ655386 AMM655385:AMM655386 AWI655385:AWI655386 BGE655385:BGE655386 BQA655385:BQA655386 BZW655385:BZW655386 CJS655385:CJS655386 CTO655385:CTO655386 DDK655385:DDK655386 DNG655385:DNG655386 DXC655385:DXC655386 EGY655385:EGY655386 EQU655385:EQU655386 FAQ655385:FAQ655386 FKM655385:FKM655386 FUI655385:FUI655386 GEE655385:GEE655386 GOA655385:GOA655386 GXW655385:GXW655386 HHS655385:HHS655386 HRO655385:HRO655386 IBK655385:IBK655386 ILG655385:ILG655386 IVC655385:IVC655386 JEY655385:JEY655386 JOU655385:JOU655386 JYQ655385:JYQ655386 KIM655385:KIM655386 KSI655385:KSI655386 LCE655385:LCE655386 LMA655385:LMA655386 LVW655385:LVW655386 MFS655385:MFS655386 MPO655385:MPO655386 MZK655385:MZK655386 NJG655385:NJG655386 NTC655385:NTC655386 OCY655385:OCY655386 OMU655385:OMU655386 OWQ655385:OWQ655386 PGM655385:PGM655386 PQI655385:PQI655386 QAE655385:QAE655386 QKA655385:QKA655386 QTW655385:QTW655386 RDS655385:RDS655386 RNO655385:RNO655386 RXK655385:RXK655386 SHG655385:SHG655386 SRC655385:SRC655386 TAY655385:TAY655386 TKU655385:TKU655386 TUQ655385:TUQ655386 UEM655385:UEM655386 UOI655385:UOI655386 UYE655385:UYE655386 VIA655385:VIA655386 VRW655385:VRW655386 WBS655385:WBS655386 WLO655385:WLO655386 WVK655385:WVK655386 C720921:C720922 IY720921:IY720922 SU720921:SU720922 ACQ720921:ACQ720922 AMM720921:AMM720922 AWI720921:AWI720922 BGE720921:BGE720922 BQA720921:BQA720922 BZW720921:BZW720922 CJS720921:CJS720922 CTO720921:CTO720922 DDK720921:DDK720922 DNG720921:DNG720922 DXC720921:DXC720922 EGY720921:EGY720922 EQU720921:EQU720922 FAQ720921:FAQ720922 FKM720921:FKM720922 FUI720921:FUI720922 GEE720921:GEE720922 GOA720921:GOA720922 GXW720921:GXW720922 HHS720921:HHS720922 HRO720921:HRO720922 IBK720921:IBK720922 ILG720921:ILG720922 IVC720921:IVC720922 JEY720921:JEY720922 JOU720921:JOU720922 JYQ720921:JYQ720922 KIM720921:KIM720922 KSI720921:KSI720922 LCE720921:LCE720922 LMA720921:LMA720922 LVW720921:LVW720922 MFS720921:MFS720922 MPO720921:MPO720922 MZK720921:MZK720922 NJG720921:NJG720922 NTC720921:NTC720922 OCY720921:OCY720922 OMU720921:OMU720922 OWQ720921:OWQ720922 PGM720921:PGM720922 PQI720921:PQI720922 QAE720921:QAE720922 QKA720921:QKA720922 QTW720921:QTW720922 RDS720921:RDS720922 RNO720921:RNO720922 RXK720921:RXK720922 SHG720921:SHG720922 SRC720921:SRC720922 TAY720921:TAY720922 TKU720921:TKU720922 TUQ720921:TUQ720922 UEM720921:UEM720922 UOI720921:UOI720922 UYE720921:UYE720922 VIA720921:VIA720922 VRW720921:VRW720922 WBS720921:WBS720922 WLO720921:WLO720922 WVK720921:WVK720922 C786457:C786458 IY786457:IY786458 SU786457:SU786458 ACQ786457:ACQ786458 AMM786457:AMM786458 AWI786457:AWI786458 BGE786457:BGE786458 BQA786457:BQA786458 BZW786457:BZW786458 CJS786457:CJS786458 CTO786457:CTO786458 DDK786457:DDK786458 DNG786457:DNG786458 DXC786457:DXC786458 EGY786457:EGY786458 EQU786457:EQU786458 FAQ786457:FAQ786458 FKM786457:FKM786458 FUI786457:FUI786458 GEE786457:GEE786458 GOA786457:GOA786458 GXW786457:GXW786458 HHS786457:HHS786458 HRO786457:HRO786458 IBK786457:IBK786458 ILG786457:ILG786458 IVC786457:IVC786458 JEY786457:JEY786458 JOU786457:JOU786458 JYQ786457:JYQ786458 KIM786457:KIM786458 KSI786457:KSI786458 LCE786457:LCE786458 LMA786457:LMA786458 LVW786457:LVW786458 MFS786457:MFS786458 MPO786457:MPO786458 MZK786457:MZK786458 NJG786457:NJG786458 NTC786457:NTC786458 OCY786457:OCY786458 OMU786457:OMU786458 OWQ786457:OWQ786458 PGM786457:PGM786458 PQI786457:PQI786458 QAE786457:QAE786458 QKA786457:QKA786458 QTW786457:QTW786458 RDS786457:RDS786458 RNO786457:RNO786458 RXK786457:RXK786458 SHG786457:SHG786458 SRC786457:SRC786458 TAY786457:TAY786458 TKU786457:TKU786458 TUQ786457:TUQ786458 UEM786457:UEM786458 UOI786457:UOI786458 UYE786457:UYE786458 VIA786457:VIA786458 VRW786457:VRW786458 WBS786457:WBS786458 WLO786457:WLO786458 WVK786457:WVK786458 C851993:C851994 IY851993:IY851994 SU851993:SU851994 ACQ851993:ACQ851994 AMM851993:AMM851994 AWI851993:AWI851994 BGE851993:BGE851994 BQA851993:BQA851994 BZW851993:BZW851994 CJS851993:CJS851994 CTO851993:CTO851994 DDK851993:DDK851994 DNG851993:DNG851994 DXC851993:DXC851994 EGY851993:EGY851994 EQU851993:EQU851994 FAQ851993:FAQ851994 FKM851993:FKM851994 FUI851993:FUI851994 GEE851993:GEE851994 GOA851993:GOA851994 GXW851993:GXW851994 HHS851993:HHS851994 HRO851993:HRO851994 IBK851993:IBK851994 ILG851993:ILG851994 IVC851993:IVC851994 JEY851993:JEY851994 JOU851993:JOU851994 JYQ851993:JYQ851994 KIM851993:KIM851994 KSI851993:KSI851994 LCE851993:LCE851994 LMA851993:LMA851994 LVW851993:LVW851994 MFS851993:MFS851994 MPO851993:MPO851994 MZK851993:MZK851994 NJG851993:NJG851994 NTC851993:NTC851994 OCY851993:OCY851994 OMU851993:OMU851994 OWQ851993:OWQ851994 PGM851993:PGM851994 PQI851993:PQI851994 QAE851993:QAE851994 QKA851993:QKA851994 QTW851993:QTW851994 RDS851993:RDS851994 RNO851993:RNO851994 RXK851993:RXK851994 SHG851993:SHG851994 SRC851993:SRC851994 TAY851993:TAY851994 TKU851993:TKU851994 TUQ851993:TUQ851994 UEM851993:UEM851994 UOI851993:UOI851994 UYE851993:UYE851994 VIA851993:VIA851994 VRW851993:VRW851994 WBS851993:WBS851994 WLO851993:WLO851994 WVK851993:WVK851994 C917529:C917530 IY917529:IY917530 SU917529:SU917530 ACQ917529:ACQ917530 AMM917529:AMM917530 AWI917529:AWI917530 BGE917529:BGE917530 BQA917529:BQA917530 BZW917529:BZW917530 CJS917529:CJS917530 CTO917529:CTO917530 DDK917529:DDK917530 DNG917529:DNG917530 DXC917529:DXC917530 EGY917529:EGY917530 EQU917529:EQU917530 FAQ917529:FAQ917530 FKM917529:FKM917530 FUI917529:FUI917530 GEE917529:GEE917530 GOA917529:GOA917530 GXW917529:GXW917530 HHS917529:HHS917530 HRO917529:HRO917530 IBK917529:IBK917530 ILG917529:ILG917530 IVC917529:IVC917530 JEY917529:JEY917530 JOU917529:JOU917530 JYQ917529:JYQ917530 KIM917529:KIM917530 KSI917529:KSI917530 LCE917529:LCE917530 LMA917529:LMA917530 LVW917529:LVW917530 MFS917529:MFS917530 MPO917529:MPO917530 MZK917529:MZK917530 NJG917529:NJG917530 NTC917529:NTC917530 OCY917529:OCY917530 OMU917529:OMU917530 OWQ917529:OWQ917530 PGM917529:PGM917530 PQI917529:PQI917530 QAE917529:QAE917530 QKA917529:QKA917530 QTW917529:QTW917530 RDS917529:RDS917530 RNO917529:RNO917530 RXK917529:RXK917530 SHG917529:SHG917530 SRC917529:SRC917530 TAY917529:TAY917530 TKU917529:TKU917530 TUQ917529:TUQ917530 UEM917529:UEM917530 UOI917529:UOI917530 UYE917529:UYE917530 VIA917529:VIA917530 VRW917529:VRW917530 WBS917529:WBS917530 WLO917529:WLO917530 WVK917529:WVK917530 C983065:C983066 IY983065:IY983066 SU983065:SU983066 ACQ983065:ACQ983066 AMM983065:AMM983066 AWI983065:AWI983066 BGE983065:BGE983066 BQA983065:BQA983066 BZW983065:BZW983066 CJS983065:CJS983066 CTO983065:CTO983066 DDK983065:DDK983066 DNG983065:DNG983066 DXC983065:DXC983066 EGY983065:EGY983066 EQU983065:EQU983066 FAQ983065:FAQ983066 FKM983065:FKM983066 FUI983065:FUI983066 GEE983065:GEE983066 GOA983065:GOA983066 GXW983065:GXW983066 HHS983065:HHS983066 HRO983065:HRO983066 IBK983065:IBK983066 ILG983065:ILG983066 IVC983065:IVC983066 JEY983065:JEY983066 JOU983065:JOU983066 JYQ983065:JYQ983066 KIM983065:KIM983066 KSI983065:KSI983066 LCE983065:LCE983066 LMA983065:LMA983066 LVW983065:LVW983066 MFS983065:MFS983066 MPO983065:MPO983066 MZK983065:MZK983066 NJG983065:NJG983066 NTC983065:NTC983066 OCY983065:OCY983066 OMU983065:OMU983066 OWQ983065:OWQ983066 PGM983065:PGM983066 PQI983065:PQI983066 QAE983065:QAE983066 QKA983065:QKA983066 QTW983065:QTW983066 RDS983065:RDS983066 RNO983065:RNO983066 RXK983065:RXK983066 SHG983065:SHG983066 SRC983065:SRC983066 TAY983065:TAY983066 TKU983065:TKU983066 TUQ983065:TUQ983066 UEM983065:UEM983066 UOI983065:UOI983066 UYE983065:UYE983066 VIA983065:VIA983066 VRW983065:VRW983066 WBS983065:WBS983066 WLO983065:WLO983066 WVK983065:WVK983066 F25:F26 JB25:JB26 SX25:SX26 ACT25:ACT26 AMP25:AMP26 AWL25:AWL26 BGH25:BGH26 BQD25:BQD26 BZZ25:BZZ26 CJV25:CJV26 CTR25:CTR26 DDN25:DDN26 DNJ25:DNJ26 DXF25:DXF26 EHB25:EHB26 EQX25:EQX26 FAT25:FAT26 FKP25:FKP26 FUL25:FUL26 GEH25:GEH26 GOD25:GOD26 GXZ25:GXZ26 HHV25:HHV26 HRR25:HRR26 IBN25:IBN26 ILJ25:ILJ26 IVF25:IVF26 JFB25:JFB26 JOX25:JOX26 JYT25:JYT26 KIP25:KIP26 KSL25:KSL26 LCH25:LCH26 LMD25:LMD26 LVZ25:LVZ26 MFV25:MFV26 MPR25:MPR26 MZN25:MZN26 NJJ25:NJJ26 NTF25:NTF26 ODB25:ODB26 OMX25:OMX26 OWT25:OWT26 PGP25:PGP26 PQL25:PQL26 QAH25:QAH26 QKD25:QKD26 QTZ25:QTZ26 RDV25:RDV26 RNR25:RNR26 RXN25:RXN26 SHJ25:SHJ26 SRF25:SRF26 TBB25:TBB26 TKX25:TKX26 TUT25:TUT26 UEP25:UEP26 UOL25:UOL26 UYH25:UYH26 VID25:VID26 VRZ25:VRZ26 WBV25:WBV26 WLR25:WLR26 WVN25:WVN26 F65561:F65562 JB65561:JB65562 SX65561:SX65562 ACT65561:ACT65562 AMP65561:AMP65562 AWL65561:AWL65562 BGH65561:BGH65562 BQD65561:BQD65562 BZZ65561:BZZ65562 CJV65561:CJV65562 CTR65561:CTR65562 DDN65561:DDN65562 DNJ65561:DNJ65562 DXF65561:DXF65562 EHB65561:EHB65562 EQX65561:EQX65562 FAT65561:FAT65562 FKP65561:FKP65562 FUL65561:FUL65562 GEH65561:GEH65562 GOD65561:GOD65562 GXZ65561:GXZ65562 HHV65561:HHV65562 HRR65561:HRR65562 IBN65561:IBN65562 ILJ65561:ILJ65562 IVF65561:IVF65562 JFB65561:JFB65562 JOX65561:JOX65562 JYT65561:JYT65562 KIP65561:KIP65562 KSL65561:KSL65562 LCH65561:LCH65562 LMD65561:LMD65562 LVZ65561:LVZ65562 MFV65561:MFV65562 MPR65561:MPR65562 MZN65561:MZN65562 NJJ65561:NJJ65562 NTF65561:NTF65562 ODB65561:ODB65562 OMX65561:OMX65562 OWT65561:OWT65562 PGP65561:PGP65562 PQL65561:PQL65562 QAH65561:QAH65562 QKD65561:QKD65562 QTZ65561:QTZ65562 RDV65561:RDV65562 RNR65561:RNR65562 RXN65561:RXN65562 SHJ65561:SHJ65562 SRF65561:SRF65562 TBB65561:TBB65562 TKX65561:TKX65562 TUT65561:TUT65562 UEP65561:UEP65562 UOL65561:UOL65562 UYH65561:UYH65562 VID65561:VID65562 VRZ65561:VRZ65562 WBV65561:WBV65562 WLR65561:WLR65562 WVN65561:WVN65562 F131097:F131098 JB131097:JB131098 SX131097:SX131098 ACT131097:ACT131098 AMP131097:AMP131098 AWL131097:AWL131098 BGH131097:BGH131098 BQD131097:BQD131098 BZZ131097:BZZ131098 CJV131097:CJV131098 CTR131097:CTR131098 DDN131097:DDN131098 DNJ131097:DNJ131098 DXF131097:DXF131098 EHB131097:EHB131098 EQX131097:EQX131098 FAT131097:FAT131098 FKP131097:FKP131098 FUL131097:FUL131098 GEH131097:GEH131098 GOD131097:GOD131098 GXZ131097:GXZ131098 HHV131097:HHV131098 HRR131097:HRR131098 IBN131097:IBN131098 ILJ131097:ILJ131098 IVF131097:IVF131098 JFB131097:JFB131098 JOX131097:JOX131098 JYT131097:JYT131098 KIP131097:KIP131098 KSL131097:KSL131098 LCH131097:LCH131098 LMD131097:LMD131098 LVZ131097:LVZ131098 MFV131097:MFV131098 MPR131097:MPR131098 MZN131097:MZN131098 NJJ131097:NJJ131098 NTF131097:NTF131098 ODB131097:ODB131098 OMX131097:OMX131098 OWT131097:OWT131098 PGP131097:PGP131098 PQL131097:PQL131098 QAH131097:QAH131098 QKD131097:QKD131098 QTZ131097:QTZ131098 RDV131097:RDV131098 RNR131097:RNR131098 RXN131097:RXN131098 SHJ131097:SHJ131098 SRF131097:SRF131098 TBB131097:TBB131098 TKX131097:TKX131098 TUT131097:TUT131098 UEP131097:UEP131098 UOL131097:UOL131098 UYH131097:UYH131098 VID131097:VID131098 VRZ131097:VRZ131098 WBV131097:WBV131098 WLR131097:WLR131098 WVN131097:WVN131098 F196633:F196634 JB196633:JB196634 SX196633:SX196634 ACT196633:ACT196634 AMP196633:AMP196634 AWL196633:AWL196634 BGH196633:BGH196634 BQD196633:BQD196634 BZZ196633:BZZ196634 CJV196633:CJV196634 CTR196633:CTR196634 DDN196633:DDN196634 DNJ196633:DNJ196634 DXF196633:DXF196634 EHB196633:EHB196634 EQX196633:EQX196634 FAT196633:FAT196634 FKP196633:FKP196634 FUL196633:FUL196634 GEH196633:GEH196634 GOD196633:GOD196634 GXZ196633:GXZ196634 HHV196633:HHV196634 HRR196633:HRR196634 IBN196633:IBN196634 ILJ196633:ILJ196634 IVF196633:IVF196634 JFB196633:JFB196634 JOX196633:JOX196634 JYT196633:JYT196634 KIP196633:KIP196634 KSL196633:KSL196634 LCH196633:LCH196634 LMD196633:LMD196634 LVZ196633:LVZ196634 MFV196633:MFV196634 MPR196633:MPR196634 MZN196633:MZN196634 NJJ196633:NJJ196634 NTF196633:NTF196634 ODB196633:ODB196634 OMX196633:OMX196634 OWT196633:OWT196634 PGP196633:PGP196634 PQL196633:PQL196634 QAH196633:QAH196634 QKD196633:QKD196634 QTZ196633:QTZ196634 RDV196633:RDV196634 RNR196633:RNR196634 RXN196633:RXN196634 SHJ196633:SHJ196634 SRF196633:SRF196634 TBB196633:TBB196634 TKX196633:TKX196634 TUT196633:TUT196634 UEP196633:UEP196634 UOL196633:UOL196634 UYH196633:UYH196634 VID196633:VID196634 VRZ196633:VRZ196634 WBV196633:WBV196634 WLR196633:WLR196634 WVN196633:WVN196634 F262169:F262170 JB262169:JB262170 SX262169:SX262170 ACT262169:ACT262170 AMP262169:AMP262170 AWL262169:AWL262170 BGH262169:BGH262170 BQD262169:BQD262170 BZZ262169:BZZ262170 CJV262169:CJV262170 CTR262169:CTR262170 DDN262169:DDN262170 DNJ262169:DNJ262170 DXF262169:DXF262170 EHB262169:EHB262170 EQX262169:EQX262170 FAT262169:FAT262170 FKP262169:FKP262170 FUL262169:FUL262170 GEH262169:GEH262170 GOD262169:GOD262170 GXZ262169:GXZ262170 HHV262169:HHV262170 HRR262169:HRR262170 IBN262169:IBN262170 ILJ262169:ILJ262170 IVF262169:IVF262170 JFB262169:JFB262170 JOX262169:JOX262170 JYT262169:JYT262170 KIP262169:KIP262170 KSL262169:KSL262170 LCH262169:LCH262170 LMD262169:LMD262170 LVZ262169:LVZ262170 MFV262169:MFV262170 MPR262169:MPR262170 MZN262169:MZN262170 NJJ262169:NJJ262170 NTF262169:NTF262170 ODB262169:ODB262170 OMX262169:OMX262170 OWT262169:OWT262170 PGP262169:PGP262170 PQL262169:PQL262170 QAH262169:QAH262170 QKD262169:QKD262170 QTZ262169:QTZ262170 RDV262169:RDV262170 RNR262169:RNR262170 RXN262169:RXN262170 SHJ262169:SHJ262170 SRF262169:SRF262170 TBB262169:TBB262170 TKX262169:TKX262170 TUT262169:TUT262170 UEP262169:UEP262170 UOL262169:UOL262170 UYH262169:UYH262170 VID262169:VID262170 VRZ262169:VRZ262170 WBV262169:WBV262170 WLR262169:WLR262170 WVN262169:WVN262170 F327705:F327706 JB327705:JB327706 SX327705:SX327706 ACT327705:ACT327706 AMP327705:AMP327706 AWL327705:AWL327706 BGH327705:BGH327706 BQD327705:BQD327706 BZZ327705:BZZ327706 CJV327705:CJV327706 CTR327705:CTR327706 DDN327705:DDN327706 DNJ327705:DNJ327706 DXF327705:DXF327706 EHB327705:EHB327706 EQX327705:EQX327706 FAT327705:FAT327706 FKP327705:FKP327706 FUL327705:FUL327706 GEH327705:GEH327706 GOD327705:GOD327706 GXZ327705:GXZ327706 HHV327705:HHV327706 HRR327705:HRR327706 IBN327705:IBN327706 ILJ327705:ILJ327706 IVF327705:IVF327706 JFB327705:JFB327706 JOX327705:JOX327706 JYT327705:JYT327706 KIP327705:KIP327706 KSL327705:KSL327706 LCH327705:LCH327706 LMD327705:LMD327706 LVZ327705:LVZ327706 MFV327705:MFV327706 MPR327705:MPR327706 MZN327705:MZN327706 NJJ327705:NJJ327706 NTF327705:NTF327706 ODB327705:ODB327706 OMX327705:OMX327706 OWT327705:OWT327706 PGP327705:PGP327706 PQL327705:PQL327706 QAH327705:QAH327706 QKD327705:QKD327706 QTZ327705:QTZ327706 RDV327705:RDV327706 RNR327705:RNR327706 RXN327705:RXN327706 SHJ327705:SHJ327706 SRF327705:SRF327706 TBB327705:TBB327706 TKX327705:TKX327706 TUT327705:TUT327706 UEP327705:UEP327706 UOL327705:UOL327706 UYH327705:UYH327706 VID327705:VID327706 VRZ327705:VRZ327706 WBV327705:WBV327706 WLR327705:WLR327706 WVN327705:WVN327706 F393241:F393242 JB393241:JB393242 SX393241:SX393242 ACT393241:ACT393242 AMP393241:AMP393242 AWL393241:AWL393242 BGH393241:BGH393242 BQD393241:BQD393242 BZZ393241:BZZ393242 CJV393241:CJV393242 CTR393241:CTR393242 DDN393241:DDN393242 DNJ393241:DNJ393242 DXF393241:DXF393242 EHB393241:EHB393242 EQX393241:EQX393242 FAT393241:FAT393242 FKP393241:FKP393242 FUL393241:FUL393242 GEH393241:GEH393242 GOD393241:GOD393242 GXZ393241:GXZ393242 HHV393241:HHV393242 HRR393241:HRR393242 IBN393241:IBN393242 ILJ393241:ILJ393242 IVF393241:IVF393242 JFB393241:JFB393242 JOX393241:JOX393242 JYT393241:JYT393242 KIP393241:KIP393242 KSL393241:KSL393242 LCH393241:LCH393242 LMD393241:LMD393242 LVZ393241:LVZ393242 MFV393241:MFV393242 MPR393241:MPR393242 MZN393241:MZN393242 NJJ393241:NJJ393242 NTF393241:NTF393242 ODB393241:ODB393242 OMX393241:OMX393242 OWT393241:OWT393242 PGP393241:PGP393242 PQL393241:PQL393242 QAH393241:QAH393242 QKD393241:QKD393242 QTZ393241:QTZ393242 RDV393241:RDV393242 RNR393241:RNR393242 RXN393241:RXN393242 SHJ393241:SHJ393242 SRF393241:SRF393242 TBB393241:TBB393242 TKX393241:TKX393242 TUT393241:TUT393242 UEP393241:UEP393242 UOL393241:UOL393242 UYH393241:UYH393242 VID393241:VID393242 VRZ393241:VRZ393242 WBV393241:WBV393242 WLR393241:WLR393242 WVN393241:WVN393242 F458777:F458778 JB458777:JB458778 SX458777:SX458778 ACT458777:ACT458778 AMP458777:AMP458778 AWL458777:AWL458778 BGH458777:BGH458778 BQD458777:BQD458778 BZZ458777:BZZ458778 CJV458777:CJV458778 CTR458777:CTR458778 DDN458777:DDN458778 DNJ458777:DNJ458778 DXF458777:DXF458778 EHB458777:EHB458778 EQX458777:EQX458778 FAT458777:FAT458778 FKP458777:FKP458778 FUL458777:FUL458778 GEH458777:GEH458778 GOD458777:GOD458778 GXZ458777:GXZ458778 HHV458777:HHV458778 HRR458777:HRR458778 IBN458777:IBN458778 ILJ458777:ILJ458778 IVF458777:IVF458778 JFB458777:JFB458778 JOX458777:JOX458778 JYT458777:JYT458778 KIP458777:KIP458778 KSL458777:KSL458778 LCH458777:LCH458778 LMD458777:LMD458778 LVZ458777:LVZ458778 MFV458777:MFV458778 MPR458777:MPR458778 MZN458777:MZN458778 NJJ458777:NJJ458778 NTF458777:NTF458778 ODB458777:ODB458778 OMX458777:OMX458778 OWT458777:OWT458778 PGP458777:PGP458778 PQL458777:PQL458778 QAH458777:QAH458778 QKD458777:QKD458778 QTZ458777:QTZ458778 RDV458777:RDV458778 RNR458777:RNR458778 RXN458777:RXN458778 SHJ458777:SHJ458778 SRF458777:SRF458778 TBB458777:TBB458778 TKX458777:TKX458778 TUT458777:TUT458778 UEP458777:UEP458778 UOL458777:UOL458778 UYH458777:UYH458778 VID458777:VID458778 VRZ458777:VRZ458778 WBV458777:WBV458778 WLR458777:WLR458778 WVN458777:WVN458778 F524313:F524314 JB524313:JB524314 SX524313:SX524314 ACT524313:ACT524314 AMP524313:AMP524314 AWL524313:AWL524314 BGH524313:BGH524314 BQD524313:BQD524314 BZZ524313:BZZ524314 CJV524313:CJV524314 CTR524313:CTR524314 DDN524313:DDN524314 DNJ524313:DNJ524314 DXF524313:DXF524314 EHB524313:EHB524314 EQX524313:EQX524314 FAT524313:FAT524314 FKP524313:FKP524314 FUL524313:FUL524314 GEH524313:GEH524314 GOD524313:GOD524314 GXZ524313:GXZ524314 HHV524313:HHV524314 HRR524313:HRR524314 IBN524313:IBN524314 ILJ524313:ILJ524314 IVF524313:IVF524314 JFB524313:JFB524314 JOX524313:JOX524314 JYT524313:JYT524314 KIP524313:KIP524314 KSL524313:KSL524314 LCH524313:LCH524314 LMD524313:LMD524314 LVZ524313:LVZ524314 MFV524313:MFV524314 MPR524313:MPR524314 MZN524313:MZN524314 NJJ524313:NJJ524314 NTF524313:NTF524314 ODB524313:ODB524314 OMX524313:OMX524314 OWT524313:OWT524314 PGP524313:PGP524314 PQL524313:PQL524314 QAH524313:QAH524314 QKD524313:QKD524314 QTZ524313:QTZ524314 RDV524313:RDV524314 RNR524313:RNR524314 RXN524313:RXN524314 SHJ524313:SHJ524314 SRF524313:SRF524314 TBB524313:TBB524314 TKX524313:TKX524314 TUT524313:TUT524314 UEP524313:UEP524314 UOL524313:UOL524314 UYH524313:UYH524314 VID524313:VID524314 VRZ524313:VRZ524314 WBV524313:WBV524314 WLR524313:WLR524314 WVN524313:WVN524314 F589849:F589850 JB589849:JB589850 SX589849:SX589850 ACT589849:ACT589850 AMP589849:AMP589850 AWL589849:AWL589850 BGH589849:BGH589850 BQD589849:BQD589850 BZZ589849:BZZ589850 CJV589849:CJV589850 CTR589849:CTR589850 DDN589849:DDN589850 DNJ589849:DNJ589850 DXF589849:DXF589850 EHB589849:EHB589850 EQX589849:EQX589850 FAT589849:FAT589850 FKP589849:FKP589850 FUL589849:FUL589850 GEH589849:GEH589850 GOD589849:GOD589850 GXZ589849:GXZ589850 HHV589849:HHV589850 HRR589849:HRR589850 IBN589849:IBN589850 ILJ589849:ILJ589850 IVF589849:IVF589850 JFB589849:JFB589850 JOX589849:JOX589850 JYT589849:JYT589850 KIP589849:KIP589850 KSL589849:KSL589850 LCH589849:LCH589850 LMD589849:LMD589850 LVZ589849:LVZ589850 MFV589849:MFV589850 MPR589849:MPR589850 MZN589849:MZN589850 NJJ589849:NJJ589850 NTF589849:NTF589850 ODB589849:ODB589850 OMX589849:OMX589850 OWT589849:OWT589850 PGP589849:PGP589850 PQL589849:PQL589850 QAH589849:QAH589850 QKD589849:QKD589850 QTZ589849:QTZ589850 RDV589849:RDV589850 RNR589849:RNR589850 RXN589849:RXN589850 SHJ589849:SHJ589850 SRF589849:SRF589850 TBB589849:TBB589850 TKX589849:TKX589850 TUT589849:TUT589850 UEP589849:UEP589850 UOL589849:UOL589850 UYH589849:UYH589850 VID589849:VID589850 VRZ589849:VRZ589850 WBV589849:WBV589850 WLR589849:WLR589850 WVN589849:WVN589850 F655385:F655386 JB655385:JB655386 SX655385:SX655386 ACT655385:ACT655386 AMP655385:AMP655386 AWL655385:AWL655386 BGH655385:BGH655386 BQD655385:BQD655386 BZZ655385:BZZ655386 CJV655385:CJV655386 CTR655385:CTR655386 DDN655385:DDN655386 DNJ655385:DNJ655386 DXF655385:DXF655386 EHB655385:EHB655386 EQX655385:EQX655386 FAT655385:FAT655386 FKP655385:FKP655386 FUL655385:FUL655386 GEH655385:GEH655386 GOD655385:GOD655386 GXZ655385:GXZ655386 HHV655385:HHV655386 HRR655385:HRR655386 IBN655385:IBN655386 ILJ655385:ILJ655386 IVF655385:IVF655386 JFB655385:JFB655386 JOX655385:JOX655386 JYT655385:JYT655386 KIP655385:KIP655386 KSL655385:KSL655386 LCH655385:LCH655386 LMD655385:LMD655386 LVZ655385:LVZ655386 MFV655385:MFV655386 MPR655385:MPR655386 MZN655385:MZN655386 NJJ655385:NJJ655386 NTF655385:NTF655386 ODB655385:ODB655386 OMX655385:OMX655386 OWT655385:OWT655386 PGP655385:PGP655386 PQL655385:PQL655386 QAH655385:QAH655386 QKD655385:QKD655386 QTZ655385:QTZ655386 RDV655385:RDV655386 RNR655385:RNR655386 RXN655385:RXN655386 SHJ655385:SHJ655386 SRF655385:SRF655386 TBB655385:TBB655386 TKX655385:TKX655386 TUT655385:TUT655386 UEP655385:UEP655386 UOL655385:UOL655386 UYH655385:UYH655386 VID655385:VID655386 VRZ655385:VRZ655386 WBV655385:WBV655386 WLR655385:WLR655386 WVN655385:WVN655386 F720921:F720922 JB720921:JB720922 SX720921:SX720922 ACT720921:ACT720922 AMP720921:AMP720922 AWL720921:AWL720922 BGH720921:BGH720922 BQD720921:BQD720922 BZZ720921:BZZ720922 CJV720921:CJV720922 CTR720921:CTR720922 DDN720921:DDN720922 DNJ720921:DNJ720922 DXF720921:DXF720922 EHB720921:EHB720922 EQX720921:EQX720922 FAT720921:FAT720922 FKP720921:FKP720922 FUL720921:FUL720922 GEH720921:GEH720922 GOD720921:GOD720922 GXZ720921:GXZ720922 HHV720921:HHV720922 HRR720921:HRR720922 IBN720921:IBN720922 ILJ720921:ILJ720922 IVF720921:IVF720922 JFB720921:JFB720922 JOX720921:JOX720922 JYT720921:JYT720922 KIP720921:KIP720922 KSL720921:KSL720922 LCH720921:LCH720922 LMD720921:LMD720922 LVZ720921:LVZ720922 MFV720921:MFV720922 MPR720921:MPR720922 MZN720921:MZN720922 NJJ720921:NJJ720922 NTF720921:NTF720922 ODB720921:ODB720922 OMX720921:OMX720922 OWT720921:OWT720922 PGP720921:PGP720922 PQL720921:PQL720922 QAH720921:QAH720922 QKD720921:QKD720922 QTZ720921:QTZ720922 RDV720921:RDV720922 RNR720921:RNR720922 RXN720921:RXN720922 SHJ720921:SHJ720922 SRF720921:SRF720922 TBB720921:TBB720922 TKX720921:TKX720922 TUT720921:TUT720922 UEP720921:UEP720922 UOL720921:UOL720922 UYH720921:UYH720922 VID720921:VID720922 VRZ720921:VRZ720922 WBV720921:WBV720922 WLR720921:WLR720922 WVN720921:WVN720922 F786457:F786458 JB786457:JB786458 SX786457:SX786458 ACT786457:ACT786458 AMP786457:AMP786458 AWL786457:AWL786458 BGH786457:BGH786458 BQD786457:BQD786458 BZZ786457:BZZ786458 CJV786457:CJV786458 CTR786457:CTR786458 DDN786457:DDN786458 DNJ786457:DNJ786458 DXF786457:DXF786458 EHB786457:EHB786458 EQX786457:EQX786458 FAT786457:FAT786458 FKP786457:FKP786458 FUL786457:FUL786458 GEH786457:GEH786458 GOD786457:GOD786458 GXZ786457:GXZ786458 HHV786457:HHV786458 HRR786457:HRR786458 IBN786457:IBN786458 ILJ786457:ILJ786458 IVF786457:IVF786458 JFB786457:JFB786458 JOX786457:JOX786458 JYT786457:JYT786458 KIP786457:KIP786458 KSL786457:KSL786458 LCH786457:LCH786458 LMD786457:LMD786458 LVZ786457:LVZ786458 MFV786457:MFV786458 MPR786457:MPR786458 MZN786457:MZN786458 NJJ786457:NJJ786458 NTF786457:NTF786458 ODB786457:ODB786458 OMX786457:OMX786458 OWT786457:OWT786458 PGP786457:PGP786458 PQL786457:PQL786458 QAH786457:QAH786458 QKD786457:QKD786458 QTZ786457:QTZ786458 RDV786457:RDV786458 RNR786457:RNR786458 RXN786457:RXN786458 SHJ786457:SHJ786458 SRF786457:SRF786458 TBB786457:TBB786458 TKX786457:TKX786458 TUT786457:TUT786458 UEP786457:UEP786458 UOL786457:UOL786458 UYH786457:UYH786458 VID786457:VID786458 VRZ786457:VRZ786458 WBV786457:WBV786458 WLR786457:WLR786458 WVN786457:WVN786458 F851993:F851994 JB851993:JB851994 SX851993:SX851994 ACT851993:ACT851994 AMP851993:AMP851994 AWL851993:AWL851994 BGH851993:BGH851994 BQD851993:BQD851994 BZZ851993:BZZ851994 CJV851993:CJV851994 CTR851993:CTR851994 DDN851993:DDN851994 DNJ851993:DNJ851994 DXF851993:DXF851994 EHB851993:EHB851994 EQX851993:EQX851994 FAT851993:FAT851994 FKP851993:FKP851994 FUL851993:FUL851994 GEH851993:GEH851994 GOD851993:GOD851994 GXZ851993:GXZ851994 HHV851993:HHV851994 HRR851993:HRR851994 IBN851993:IBN851994 ILJ851993:ILJ851994 IVF851993:IVF851994 JFB851993:JFB851994 JOX851993:JOX851994 JYT851993:JYT851994 KIP851993:KIP851994 KSL851993:KSL851994 LCH851993:LCH851994 LMD851993:LMD851994 LVZ851993:LVZ851994 MFV851993:MFV851994 MPR851993:MPR851994 MZN851993:MZN851994 NJJ851993:NJJ851994 NTF851993:NTF851994 ODB851993:ODB851994 OMX851993:OMX851994 OWT851993:OWT851994 PGP851993:PGP851994 PQL851993:PQL851994 QAH851993:QAH851994 QKD851993:QKD851994 QTZ851993:QTZ851994 RDV851993:RDV851994 RNR851993:RNR851994 RXN851993:RXN851994 SHJ851993:SHJ851994 SRF851993:SRF851994 TBB851993:TBB851994 TKX851993:TKX851994 TUT851993:TUT851994 UEP851993:UEP851994 UOL851993:UOL851994 UYH851993:UYH851994 VID851993:VID851994 VRZ851993:VRZ851994 WBV851993:WBV851994 WLR851993:WLR851994 WVN851993:WVN851994 F917529:F917530 JB917529:JB917530 SX917529:SX917530 ACT917529:ACT917530 AMP917529:AMP917530 AWL917529:AWL917530 BGH917529:BGH917530 BQD917529:BQD917530 BZZ917529:BZZ917530 CJV917529:CJV917530 CTR917529:CTR917530 DDN917529:DDN917530 DNJ917529:DNJ917530 DXF917529:DXF917530 EHB917529:EHB917530 EQX917529:EQX917530 FAT917529:FAT917530 FKP917529:FKP917530 FUL917529:FUL917530 GEH917529:GEH917530 GOD917529:GOD917530 GXZ917529:GXZ917530 HHV917529:HHV917530 HRR917529:HRR917530 IBN917529:IBN917530 ILJ917529:ILJ917530 IVF917529:IVF917530 JFB917529:JFB917530 JOX917529:JOX917530 JYT917529:JYT917530 KIP917529:KIP917530 KSL917529:KSL917530 LCH917529:LCH917530 LMD917529:LMD917530 LVZ917529:LVZ917530 MFV917529:MFV917530 MPR917529:MPR917530 MZN917529:MZN917530 NJJ917529:NJJ917530 NTF917529:NTF917530 ODB917529:ODB917530 OMX917529:OMX917530 OWT917529:OWT917530 PGP917529:PGP917530 PQL917529:PQL917530 QAH917529:QAH917530 QKD917529:QKD917530 QTZ917529:QTZ917530 RDV917529:RDV917530 RNR917529:RNR917530 RXN917529:RXN917530 SHJ917529:SHJ917530 SRF917529:SRF917530 TBB917529:TBB917530 TKX917529:TKX917530 TUT917529:TUT917530 UEP917529:UEP917530 UOL917529:UOL917530 UYH917529:UYH917530 VID917529:VID917530 VRZ917529:VRZ917530 WBV917529:WBV917530 WLR917529:WLR917530 WVN917529:WVN917530 F983065:F983066 JB983065:JB983066 SX983065:SX983066 ACT983065:ACT983066 AMP983065:AMP983066 AWL983065:AWL983066 BGH983065:BGH983066 BQD983065:BQD983066 BZZ983065:BZZ983066 CJV983065:CJV983066 CTR983065:CTR983066 DDN983065:DDN983066 DNJ983065:DNJ983066 DXF983065:DXF983066 EHB983065:EHB983066 EQX983065:EQX983066 FAT983065:FAT983066 FKP983065:FKP983066 FUL983065:FUL983066 GEH983065:GEH983066 GOD983065:GOD983066 GXZ983065:GXZ983066 HHV983065:HHV983066 HRR983065:HRR983066 IBN983065:IBN983066 ILJ983065:ILJ983066 IVF983065:IVF983066 JFB983065:JFB983066 JOX983065:JOX983066 JYT983065:JYT983066 KIP983065:KIP983066 KSL983065:KSL983066 LCH983065:LCH983066 LMD983065:LMD983066 LVZ983065:LVZ983066 MFV983065:MFV983066 MPR983065:MPR983066 MZN983065:MZN983066 NJJ983065:NJJ983066 NTF983065:NTF983066 ODB983065:ODB983066 OMX983065:OMX983066 OWT983065:OWT983066 PGP983065:PGP983066 PQL983065:PQL983066 QAH983065:QAH983066 QKD983065:QKD983066 QTZ983065:QTZ983066 RDV983065:RDV983066 RNR983065:RNR983066 RXN983065:RXN983066 SHJ983065:SHJ983066 SRF983065:SRF983066 TBB983065:TBB983066 TKX983065:TKX983066 TUT983065:TUT983066 UEP983065:UEP983066 UOL983065:UOL983066 UYH983065:UYH983066 VID983065:VID983066 VRZ983065:VRZ983066 WBV983065:WBV983066 WLR983065:WLR983066 WVN983065:WVN983066">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C23:C24 F23:F24 IY25:IY26 SU25:SU26 ACQ25:ACQ26 AMM25:AMM26 AWI25:AWI26 BGE25:BGE26 BQA25:BQA26 BZW25:BZW26 CJS25:CJS26 CTO25:CTO26 DDK25:DDK26 DNG25:DNG26 DXC25:DXC26 EGY25:EGY26 EQU25:EQU26 FAQ25:FAQ26 FKM25:FKM26 FUI25:FUI26 GEE25:GEE26 GOA25:GOA26 GXW25:GXW26 HHS25:HHS26 HRO25:HRO26 IBK25:IBK26 ILG25:ILG26 IVC25:IVC26 JEY25:JEY26 JOU25:JOU26 JYQ25:JYQ26 KIM25:KIM26 KSI25:KSI26 LCE25:LCE26 LMA25:LMA26 LVW25:LVW26 MFS25:MFS26 MPO25:MPO26 MZK25:MZK26 NJG25:NJG26 NTC25:NTC26 OCY25:OCY26 OMU25:OMU26 OWQ25:OWQ26 PGM25:PGM26 PQI25:PQI26 QAE25:QAE26 QKA25:QKA26 QTW25:QTW26 RDS25:RDS26 RNO25:RNO26 RXK25:RXK26 SHG25:SHG26 SRC25:SRC26 TAY25:TAY26 TKU25:TKU26 TUQ25:TUQ26 UEM25:UEM26 UOI25:UOI26 UYE25:UYE26 VIA25:VIA26 VRW25:VRW26 WBS25:WBS26 WLO25:WLO26 WVK25:WVK26 IY65561:IY65562 SU65561:SU65562 ACQ65561:ACQ65562 AMM65561:AMM65562 AWI65561:AWI65562 BGE65561:BGE65562 BQA65561:BQA65562 BZW65561:BZW65562 CJS65561:CJS65562 CTO65561:CTO65562 DDK65561:DDK65562 DNG65561:DNG65562 DXC65561:DXC65562 EGY65561:EGY65562 EQU65561:EQU65562 FAQ65561:FAQ65562 FKM65561:FKM65562 FUI65561:FUI65562 GEE65561:GEE65562 GOA65561:GOA65562 GXW65561:GXW65562 HHS65561:HHS65562 HRO65561:HRO65562 IBK65561:IBK65562 ILG65561:ILG65562 IVC65561:IVC65562 JEY65561:JEY65562 JOU65561:JOU65562 JYQ65561:JYQ65562 KIM65561:KIM65562 KSI65561:KSI65562 LCE65561:LCE65562 LMA65561:LMA65562 LVW65561:LVW65562 MFS65561:MFS65562 MPO65561:MPO65562 MZK65561:MZK65562 NJG65561:NJG65562 NTC65561:NTC65562 OCY65561:OCY65562 OMU65561:OMU65562 OWQ65561:OWQ65562 PGM65561:PGM65562 PQI65561:PQI65562 QAE65561:QAE65562 QKA65561:QKA65562 QTW65561:QTW65562 RDS65561:RDS65562 RNO65561:RNO65562 RXK65561:RXK65562 SHG65561:SHG65562 SRC65561:SRC65562 TAY65561:TAY65562 TKU65561:TKU65562 TUQ65561:TUQ65562 UEM65561:UEM65562 UOI65561:UOI65562 UYE65561:UYE65562 VIA65561:VIA65562 VRW65561:VRW65562 WBS65561:WBS65562 WLO65561:WLO65562 WVK65561:WVK65562 IY131097:IY131098 SU131097:SU131098 ACQ131097:ACQ131098 AMM131097:AMM131098 AWI131097:AWI131098 BGE131097:BGE131098 BQA131097:BQA131098 BZW131097:BZW131098 CJS131097:CJS131098 CTO131097:CTO131098 DDK131097:DDK131098 DNG131097:DNG131098 DXC131097:DXC131098 EGY131097:EGY131098 EQU131097:EQU131098 FAQ131097:FAQ131098 FKM131097:FKM131098 FUI131097:FUI131098 GEE131097:GEE131098 GOA131097:GOA131098 GXW131097:GXW131098 HHS131097:HHS131098 HRO131097:HRO131098 IBK131097:IBK131098 ILG131097:ILG131098 IVC131097:IVC131098 JEY131097:JEY131098 JOU131097:JOU131098 JYQ131097:JYQ131098 KIM131097:KIM131098 KSI131097:KSI131098 LCE131097:LCE131098 LMA131097:LMA131098 LVW131097:LVW131098 MFS131097:MFS131098 MPO131097:MPO131098 MZK131097:MZK131098 NJG131097:NJG131098 NTC131097:NTC131098 OCY131097:OCY131098 OMU131097:OMU131098 OWQ131097:OWQ131098 PGM131097:PGM131098 PQI131097:PQI131098 QAE131097:QAE131098 QKA131097:QKA131098 QTW131097:QTW131098 RDS131097:RDS131098 RNO131097:RNO131098 RXK131097:RXK131098 SHG131097:SHG131098 SRC131097:SRC131098 TAY131097:TAY131098 TKU131097:TKU131098 TUQ131097:TUQ131098 UEM131097:UEM131098 UOI131097:UOI131098 UYE131097:UYE131098 VIA131097:VIA131098 VRW131097:VRW131098 WBS131097:WBS131098 WLO131097:WLO131098 WVK131097:WVK131098 IY196633:IY196634 SU196633:SU196634 ACQ196633:ACQ196634 AMM196633:AMM196634 AWI196633:AWI196634 BGE196633:BGE196634 BQA196633:BQA196634 BZW196633:BZW196634 CJS196633:CJS196634 CTO196633:CTO196634 DDK196633:DDK196634 DNG196633:DNG196634 DXC196633:DXC196634 EGY196633:EGY196634 EQU196633:EQU196634 FAQ196633:FAQ196634 FKM196633:FKM196634 FUI196633:FUI196634 GEE196633:GEE196634 GOA196633:GOA196634 GXW196633:GXW196634 HHS196633:HHS196634 HRO196633:HRO196634 IBK196633:IBK196634 ILG196633:ILG196634 IVC196633:IVC196634 JEY196633:JEY196634 JOU196633:JOU196634 JYQ196633:JYQ196634 KIM196633:KIM196634 KSI196633:KSI196634 LCE196633:LCE196634 LMA196633:LMA196634 LVW196633:LVW196634 MFS196633:MFS196634 MPO196633:MPO196634 MZK196633:MZK196634 NJG196633:NJG196634 NTC196633:NTC196634 OCY196633:OCY196634 OMU196633:OMU196634 OWQ196633:OWQ196634 PGM196633:PGM196634 PQI196633:PQI196634 QAE196633:QAE196634 QKA196633:QKA196634 QTW196633:QTW196634 RDS196633:RDS196634 RNO196633:RNO196634 RXK196633:RXK196634 SHG196633:SHG196634 SRC196633:SRC196634 TAY196633:TAY196634 TKU196633:TKU196634 TUQ196633:TUQ196634 UEM196633:UEM196634 UOI196633:UOI196634 UYE196633:UYE196634 VIA196633:VIA196634 VRW196633:VRW196634 WBS196633:WBS196634 WLO196633:WLO196634 WVK196633:WVK196634 IY262169:IY262170 SU262169:SU262170 ACQ262169:ACQ262170 AMM262169:AMM262170 AWI262169:AWI262170 BGE262169:BGE262170 BQA262169:BQA262170 BZW262169:BZW262170 CJS262169:CJS262170 CTO262169:CTO262170 DDK262169:DDK262170 DNG262169:DNG262170 DXC262169:DXC262170 EGY262169:EGY262170 EQU262169:EQU262170 FAQ262169:FAQ262170 FKM262169:FKM262170 FUI262169:FUI262170 GEE262169:GEE262170 GOA262169:GOA262170 GXW262169:GXW262170 HHS262169:HHS262170 HRO262169:HRO262170 IBK262169:IBK262170 ILG262169:ILG262170 IVC262169:IVC262170 JEY262169:JEY262170 JOU262169:JOU262170 JYQ262169:JYQ262170 KIM262169:KIM262170 KSI262169:KSI262170 LCE262169:LCE262170 LMA262169:LMA262170 LVW262169:LVW262170 MFS262169:MFS262170 MPO262169:MPO262170 MZK262169:MZK262170 NJG262169:NJG262170 NTC262169:NTC262170 OCY262169:OCY262170 OMU262169:OMU262170 OWQ262169:OWQ262170 PGM262169:PGM262170 PQI262169:PQI262170 QAE262169:QAE262170 QKA262169:QKA262170 QTW262169:QTW262170 RDS262169:RDS262170 RNO262169:RNO262170 RXK262169:RXK262170 SHG262169:SHG262170 SRC262169:SRC262170 TAY262169:TAY262170 TKU262169:TKU262170 TUQ262169:TUQ262170 UEM262169:UEM262170 UOI262169:UOI262170 UYE262169:UYE262170 VIA262169:VIA262170 VRW262169:VRW262170 WBS262169:WBS262170 WLO262169:WLO262170 WVK262169:WVK262170 IY327705:IY327706 SU327705:SU327706 ACQ327705:ACQ327706 AMM327705:AMM327706 AWI327705:AWI327706 BGE327705:BGE327706 BQA327705:BQA327706 BZW327705:BZW327706 CJS327705:CJS327706 CTO327705:CTO327706 DDK327705:DDK327706 DNG327705:DNG327706 DXC327705:DXC327706 EGY327705:EGY327706 EQU327705:EQU327706 FAQ327705:FAQ327706 FKM327705:FKM327706 FUI327705:FUI327706 GEE327705:GEE327706 GOA327705:GOA327706 GXW327705:GXW327706 HHS327705:HHS327706 HRO327705:HRO327706 IBK327705:IBK327706 ILG327705:ILG327706 IVC327705:IVC327706 JEY327705:JEY327706 JOU327705:JOU327706 JYQ327705:JYQ327706 KIM327705:KIM327706 KSI327705:KSI327706 LCE327705:LCE327706 LMA327705:LMA327706 LVW327705:LVW327706 MFS327705:MFS327706 MPO327705:MPO327706 MZK327705:MZK327706 NJG327705:NJG327706 NTC327705:NTC327706 OCY327705:OCY327706 OMU327705:OMU327706 OWQ327705:OWQ327706 PGM327705:PGM327706 PQI327705:PQI327706 QAE327705:QAE327706 QKA327705:QKA327706 QTW327705:QTW327706 RDS327705:RDS327706 RNO327705:RNO327706 RXK327705:RXK327706 SHG327705:SHG327706 SRC327705:SRC327706 TAY327705:TAY327706 TKU327705:TKU327706 TUQ327705:TUQ327706 UEM327705:UEM327706 UOI327705:UOI327706 UYE327705:UYE327706 VIA327705:VIA327706 VRW327705:VRW327706 WBS327705:WBS327706 WLO327705:WLO327706 WVK327705:WVK327706 IY393241:IY393242 SU393241:SU393242 ACQ393241:ACQ393242 AMM393241:AMM393242 AWI393241:AWI393242 BGE393241:BGE393242 BQA393241:BQA393242 BZW393241:BZW393242 CJS393241:CJS393242 CTO393241:CTO393242 DDK393241:DDK393242 DNG393241:DNG393242 DXC393241:DXC393242 EGY393241:EGY393242 EQU393241:EQU393242 FAQ393241:FAQ393242 FKM393241:FKM393242 FUI393241:FUI393242 GEE393241:GEE393242 GOA393241:GOA393242 GXW393241:GXW393242 HHS393241:HHS393242 HRO393241:HRO393242 IBK393241:IBK393242 ILG393241:ILG393242 IVC393241:IVC393242 JEY393241:JEY393242 JOU393241:JOU393242 JYQ393241:JYQ393242 KIM393241:KIM393242 KSI393241:KSI393242 LCE393241:LCE393242 LMA393241:LMA393242 LVW393241:LVW393242 MFS393241:MFS393242 MPO393241:MPO393242 MZK393241:MZK393242 NJG393241:NJG393242 NTC393241:NTC393242 OCY393241:OCY393242 OMU393241:OMU393242 OWQ393241:OWQ393242 PGM393241:PGM393242 PQI393241:PQI393242 QAE393241:QAE393242 QKA393241:QKA393242 QTW393241:QTW393242 RDS393241:RDS393242 RNO393241:RNO393242 RXK393241:RXK393242 SHG393241:SHG393242 SRC393241:SRC393242 TAY393241:TAY393242 TKU393241:TKU393242 TUQ393241:TUQ393242 UEM393241:UEM393242 UOI393241:UOI393242 UYE393241:UYE393242 VIA393241:VIA393242 VRW393241:VRW393242 WBS393241:WBS393242 WLO393241:WLO393242 WVK393241:WVK393242 IY458777:IY458778 SU458777:SU458778 ACQ458777:ACQ458778 AMM458777:AMM458778 AWI458777:AWI458778 BGE458777:BGE458778 BQA458777:BQA458778 BZW458777:BZW458778 CJS458777:CJS458778 CTO458777:CTO458778 DDK458777:DDK458778 DNG458777:DNG458778 DXC458777:DXC458778 EGY458777:EGY458778 EQU458777:EQU458778 FAQ458777:FAQ458778 FKM458777:FKM458778 FUI458777:FUI458778 GEE458777:GEE458778 GOA458777:GOA458778 GXW458777:GXW458778 HHS458777:HHS458778 HRO458777:HRO458778 IBK458777:IBK458778 ILG458777:ILG458778 IVC458777:IVC458778 JEY458777:JEY458778 JOU458777:JOU458778 JYQ458777:JYQ458778 KIM458777:KIM458778 KSI458777:KSI458778 LCE458777:LCE458778 LMA458777:LMA458778 LVW458777:LVW458778 MFS458777:MFS458778 MPO458777:MPO458778 MZK458777:MZK458778 NJG458777:NJG458778 NTC458777:NTC458778 OCY458777:OCY458778 OMU458777:OMU458778 OWQ458777:OWQ458778 PGM458777:PGM458778 PQI458777:PQI458778 QAE458777:QAE458778 QKA458777:QKA458778 QTW458777:QTW458778 RDS458777:RDS458778 RNO458777:RNO458778 RXK458777:RXK458778 SHG458777:SHG458778 SRC458777:SRC458778 TAY458777:TAY458778 TKU458777:TKU458778 TUQ458777:TUQ458778 UEM458777:UEM458778 UOI458777:UOI458778 UYE458777:UYE458778 VIA458777:VIA458778 VRW458777:VRW458778 WBS458777:WBS458778 WLO458777:WLO458778 WVK458777:WVK458778 IY524313:IY524314 SU524313:SU524314 ACQ524313:ACQ524314 AMM524313:AMM524314 AWI524313:AWI524314 BGE524313:BGE524314 BQA524313:BQA524314 BZW524313:BZW524314 CJS524313:CJS524314 CTO524313:CTO524314 DDK524313:DDK524314 DNG524313:DNG524314 DXC524313:DXC524314 EGY524313:EGY524314 EQU524313:EQU524314 FAQ524313:FAQ524314 FKM524313:FKM524314 FUI524313:FUI524314 GEE524313:GEE524314 GOA524313:GOA524314 GXW524313:GXW524314 HHS524313:HHS524314 HRO524313:HRO524314 IBK524313:IBK524314 ILG524313:ILG524314 IVC524313:IVC524314 JEY524313:JEY524314 JOU524313:JOU524314 JYQ524313:JYQ524314 KIM524313:KIM524314 KSI524313:KSI524314 LCE524313:LCE524314 LMA524313:LMA524314 LVW524313:LVW524314 MFS524313:MFS524314 MPO524313:MPO524314 MZK524313:MZK524314 NJG524313:NJG524314 NTC524313:NTC524314 OCY524313:OCY524314 OMU524313:OMU524314 OWQ524313:OWQ524314 PGM524313:PGM524314 PQI524313:PQI524314 QAE524313:QAE524314 QKA524313:QKA524314 QTW524313:QTW524314 RDS524313:RDS524314 RNO524313:RNO524314 RXK524313:RXK524314 SHG524313:SHG524314 SRC524313:SRC524314 TAY524313:TAY524314 TKU524313:TKU524314 TUQ524313:TUQ524314 UEM524313:UEM524314 UOI524313:UOI524314 UYE524313:UYE524314 VIA524313:VIA524314 VRW524313:VRW524314 WBS524313:WBS524314 WLO524313:WLO524314 WVK524313:WVK524314 IY589849:IY589850 SU589849:SU589850 ACQ589849:ACQ589850 AMM589849:AMM589850 AWI589849:AWI589850 BGE589849:BGE589850 BQA589849:BQA589850 BZW589849:BZW589850 CJS589849:CJS589850 CTO589849:CTO589850 DDK589849:DDK589850 DNG589849:DNG589850 DXC589849:DXC589850 EGY589849:EGY589850 EQU589849:EQU589850 FAQ589849:FAQ589850 FKM589849:FKM589850 FUI589849:FUI589850 GEE589849:GEE589850 GOA589849:GOA589850 GXW589849:GXW589850 HHS589849:HHS589850 HRO589849:HRO589850 IBK589849:IBK589850 ILG589849:ILG589850 IVC589849:IVC589850 JEY589849:JEY589850 JOU589849:JOU589850 JYQ589849:JYQ589850 KIM589849:KIM589850 KSI589849:KSI589850 LCE589849:LCE589850 LMA589849:LMA589850 LVW589849:LVW589850 MFS589849:MFS589850 MPO589849:MPO589850 MZK589849:MZK589850 NJG589849:NJG589850 NTC589849:NTC589850 OCY589849:OCY589850 OMU589849:OMU589850 OWQ589849:OWQ589850 PGM589849:PGM589850 PQI589849:PQI589850 QAE589849:QAE589850 QKA589849:QKA589850 QTW589849:QTW589850 RDS589849:RDS589850 RNO589849:RNO589850 RXK589849:RXK589850 SHG589849:SHG589850 SRC589849:SRC589850 TAY589849:TAY589850 TKU589849:TKU589850 TUQ589849:TUQ589850 UEM589849:UEM589850 UOI589849:UOI589850 UYE589849:UYE589850 VIA589849:VIA589850 VRW589849:VRW589850 WBS589849:WBS589850 WLO589849:WLO589850 WVK589849:WVK589850 IY655385:IY655386 SU655385:SU655386 ACQ655385:ACQ655386 AMM655385:AMM655386 AWI655385:AWI655386 BGE655385:BGE655386 BQA655385:BQA655386 BZW655385:BZW655386 CJS655385:CJS655386 CTO655385:CTO655386 DDK655385:DDK655386 DNG655385:DNG655386 DXC655385:DXC655386 EGY655385:EGY655386 EQU655385:EQU655386 FAQ655385:FAQ655386 FKM655385:FKM655386 FUI655385:FUI655386 GEE655385:GEE655386 GOA655385:GOA655386 GXW655385:GXW655386 HHS655385:HHS655386 HRO655385:HRO655386 IBK655385:IBK655386 ILG655385:ILG655386 IVC655385:IVC655386 JEY655385:JEY655386 JOU655385:JOU655386 JYQ655385:JYQ655386 KIM655385:KIM655386 KSI655385:KSI655386 LCE655385:LCE655386 LMA655385:LMA655386 LVW655385:LVW655386 MFS655385:MFS655386 MPO655385:MPO655386 MZK655385:MZK655386 NJG655385:NJG655386 NTC655385:NTC655386 OCY655385:OCY655386 OMU655385:OMU655386 OWQ655385:OWQ655386 PGM655385:PGM655386 PQI655385:PQI655386 QAE655385:QAE655386 QKA655385:QKA655386 QTW655385:QTW655386 RDS655385:RDS655386 RNO655385:RNO655386 RXK655385:RXK655386 SHG655385:SHG655386 SRC655385:SRC655386 TAY655385:TAY655386 TKU655385:TKU655386 TUQ655385:TUQ655386 UEM655385:UEM655386 UOI655385:UOI655386 UYE655385:UYE655386 VIA655385:VIA655386 VRW655385:VRW655386 WBS655385:WBS655386 WLO655385:WLO655386 WVK655385:WVK655386 IY720921:IY720922 SU720921:SU720922 ACQ720921:ACQ720922 AMM720921:AMM720922 AWI720921:AWI720922 BGE720921:BGE720922 BQA720921:BQA720922 BZW720921:BZW720922 CJS720921:CJS720922 CTO720921:CTO720922 DDK720921:DDK720922 DNG720921:DNG720922 DXC720921:DXC720922 EGY720921:EGY720922 EQU720921:EQU720922 FAQ720921:FAQ720922 FKM720921:FKM720922 FUI720921:FUI720922 GEE720921:GEE720922 GOA720921:GOA720922 GXW720921:GXW720922 HHS720921:HHS720922 HRO720921:HRO720922 IBK720921:IBK720922 ILG720921:ILG720922 IVC720921:IVC720922 JEY720921:JEY720922 JOU720921:JOU720922 JYQ720921:JYQ720922 KIM720921:KIM720922 KSI720921:KSI720922 LCE720921:LCE720922 LMA720921:LMA720922 LVW720921:LVW720922 MFS720921:MFS720922 MPO720921:MPO720922 MZK720921:MZK720922 NJG720921:NJG720922 NTC720921:NTC720922 OCY720921:OCY720922 OMU720921:OMU720922 OWQ720921:OWQ720922 PGM720921:PGM720922 PQI720921:PQI720922 QAE720921:QAE720922 QKA720921:QKA720922 QTW720921:QTW720922 RDS720921:RDS720922 RNO720921:RNO720922 RXK720921:RXK720922 SHG720921:SHG720922 SRC720921:SRC720922 TAY720921:TAY720922 TKU720921:TKU720922 TUQ720921:TUQ720922 UEM720921:UEM720922 UOI720921:UOI720922 UYE720921:UYE720922 VIA720921:VIA720922 VRW720921:VRW720922 WBS720921:WBS720922 WLO720921:WLO720922 WVK720921:WVK720922 IY786457:IY786458 SU786457:SU786458 ACQ786457:ACQ786458 AMM786457:AMM786458 AWI786457:AWI786458 BGE786457:BGE786458 BQA786457:BQA786458 BZW786457:BZW786458 CJS786457:CJS786458 CTO786457:CTO786458 DDK786457:DDK786458 DNG786457:DNG786458 DXC786457:DXC786458 EGY786457:EGY786458 EQU786457:EQU786458 FAQ786457:FAQ786458 FKM786457:FKM786458 FUI786457:FUI786458 GEE786457:GEE786458 GOA786457:GOA786458 GXW786457:GXW786458 HHS786457:HHS786458 HRO786457:HRO786458 IBK786457:IBK786458 ILG786457:ILG786458 IVC786457:IVC786458 JEY786457:JEY786458 JOU786457:JOU786458 JYQ786457:JYQ786458 KIM786457:KIM786458 KSI786457:KSI786458 LCE786457:LCE786458 LMA786457:LMA786458 LVW786457:LVW786458 MFS786457:MFS786458 MPO786457:MPO786458 MZK786457:MZK786458 NJG786457:NJG786458 NTC786457:NTC786458 OCY786457:OCY786458 OMU786457:OMU786458 OWQ786457:OWQ786458 PGM786457:PGM786458 PQI786457:PQI786458 QAE786457:QAE786458 QKA786457:QKA786458 QTW786457:QTW786458 RDS786457:RDS786458 RNO786457:RNO786458 RXK786457:RXK786458 SHG786457:SHG786458 SRC786457:SRC786458 TAY786457:TAY786458 TKU786457:TKU786458 TUQ786457:TUQ786458 UEM786457:UEM786458 UOI786457:UOI786458 UYE786457:UYE786458 VIA786457:VIA786458 VRW786457:VRW786458 WBS786457:WBS786458 WLO786457:WLO786458 WVK786457:WVK786458 IY851993:IY851994 SU851993:SU851994 ACQ851993:ACQ851994 AMM851993:AMM851994 AWI851993:AWI851994 BGE851993:BGE851994 BQA851993:BQA851994 BZW851993:BZW851994 CJS851993:CJS851994 CTO851993:CTO851994 DDK851993:DDK851994 DNG851993:DNG851994 DXC851993:DXC851994 EGY851993:EGY851994 EQU851993:EQU851994 FAQ851993:FAQ851994 FKM851993:FKM851994 FUI851993:FUI851994 GEE851993:GEE851994 GOA851993:GOA851994 GXW851993:GXW851994 HHS851993:HHS851994 HRO851993:HRO851994 IBK851993:IBK851994 ILG851993:ILG851994 IVC851993:IVC851994 JEY851993:JEY851994 JOU851993:JOU851994 JYQ851993:JYQ851994 KIM851993:KIM851994 KSI851993:KSI851994 LCE851993:LCE851994 LMA851993:LMA851994 LVW851993:LVW851994 MFS851993:MFS851994 MPO851993:MPO851994 MZK851993:MZK851994 NJG851993:NJG851994 NTC851993:NTC851994 OCY851993:OCY851994 OMU851993:OMU851994 OWQ851993:OWQ851994 PGM851993:PGM851994 PQI851993:PQI851994 QAE851993:QAE851994 QKA851993:QKA851994 QTW851993:QTW851994 RDS851993:RDS851994 RNO851993:RNO851994 RXK851993:RXK851994 SHG851993:SHG851994 SRC851993:SRC851994 TAY851993:TAY851994 TKU851993:TKU851994 TUQ851993:TUQ851994 UEM851993:UEM851994 UOI851993:UOI851994 UYE851993:UYE851994 VIA851993:VIA851994 VRW851993:VRW851994 WBS851993:WBS851994 WLO851993:WLO851994 WVK851993:WVK851994 IY917529:IY917530 SU917529:SU917530 ACQ917529:ACQ917530 AMM917529:AMM917530 AWI917529:AWI917530 BGE917529:BGE917530 BQA917529:BQA917530 BZW917529:BZW917530 CJS917529:CJS917530 CTO917529:CTO917530 DDK917529:DDK917530 DNG917529:DNG917530 DXC917529:DXC917530 EGY917529:EGY917530 EQU917529:EQU917530 FAQ917529:FAQ917530 FKM917529:FKM917530 FUI917529:FUI917530 GEE917529:GEE917530 GOA917529:GOA917530 GXW917529:GXW917530 HHS917529:HHS917530 HRO917529:HRO917530 IBK917529:IBK917530 ILG917529:ILG917530 IVC917529:IVC917530 JEY917529:JEY917530 JOU917529:JOU917530 JYQ917529:JYQ917530 KIM917529:KIM917530 KSI917529:KSI917530 LCE917529:LCE917530 LMA917529:LMA917530 LVW917529:LVW917530 MFS917529:MFS917530 MPO917529:MPO917530 MZK917529:MZK917530 NJG917529:NJG917530 NTC917529:NTC917530 OCY917529:OCY917530 OMU917529:OMU917530 OWQ917529:OWQ917530 PGM917529:PGM917530 PQI917529:PQI917530 QAE917529:QAE917530 QKA917529:QKA917530 QTW917529:QTW917530 RDS917529:RDS917530 RNO917529:RNO917530 RXK917529:RXK917530 SHG917529:SHG917530 SRC917529:SRC917530 TAY917529:TAY917530 TKU917529:TKU917530 TUQ917529:TUQ917530 UEM917529:UEM917530 UOI917529:UOI917530 UYE917529:UYE917530 VIA917529:VIA917530 VRW917529:VRW917530 WBS917529:WBS917530 WLO917529:WLO917530 WVK917529:WVK917530 IY983065:IY983066 SU983065:SU983066 ACQ983065:ACQ983066 AMM983065:AMM983066 AWI983065:AWI983066 BGE983065:BGE983066 BQA983065:BQA983066 BZW983065:BZW983066 CJS983065:CJS983066 CTO983065:CTO983066 DDK983065:DDK983066 DNG983065:DNG983066 DXC983065:DXC983066 EGY983065:EGY983066 EQU983065:EQU983066 FAQ983065:FAQ983066 FKM983065:FKM983066 FUI983065:FUI983066 GEE983065:GEE983066 GOA983065:GOA983066 GXW983065:GXW983066 HHS983065:HHS983066 HRO983065:HRO983066 IBK983065:IBK983066 ILG983065:ILG983066 IVC983065:IVC983066 JEY983065:JEY983066 JOU983065:JOU983066 JYQ983065:JYQ983066 KIM983065:KIM983066 KSI983065:KSI983066 LCE983065:LCE983066 LMA983065:LMA983066 LVW983065:LVW983066 MFS983065:MFS983066 MPO983065:MPO983066 MZK983065:MZK983066 NJG983065:NJG983066 NTC983065:NTC983066 OCY983065:OCY983066 OMU983065:OMU983066 OWQ983065:OWQ983066 PGM983065:PGM983066 PQI983065:PQI983066 QAE983065:QAE983066 QKA983065:QKA983066 QTW983065:QTW983066 RDS983065:RDS983066 RNO983065:RNO983066 RXK983065:RXK983066 SHG983065:SHG983066 SRC983065:SRC983066 TAY983065:TAY983066 TKU983065:TKU983066 TUQ983065:TUQ983066 UEM983065:UEM983066 UOI983065:UOI983066 UYE983065:UYE983066 VIA983065:VIA983066 VRW983065:VRW983066 WBS983065:WBS983066 WLO983065:WLO983066 WVK983065:WVK983066 JB25:JB26 SX25:SX26 ACT25:ACT26 AMP25:AMP26 AWL25:AWL26 BGH25:BGH26 BQD25:BQD26 BZZ25:BZZ26 CJV25:CJV26 CTR25:CTR26 DDN25:DDN26 DNJ25:DNJ26 DXF25:DXF26 EHB25:EHB26 EQX25:EQX26 FAT25:FAT26 FKP25:FKP26 FUL25:FUL26 GEH25:GEH26 GOD25:GOD26 GXZ25:GXZ26 HHV25:HHV26 HRR25:HRR26 IBN25:IBN26 ILJ25:ILJ26 IVF25:IVF26 JFB25:JFB26 JOX25:JOX26 JYT25:JYT26 KIP25:KIP26 KSL25:KSL26 LCH25:LCH26 LMD25:LMD26 LVZ25:LVZ26 MFV25:MFV26 MPR25:MPR26 MZN25:MZN26 NJJ25:NJJ26 NTF25:NTF26 ODB25:ODB26 OMX25:OMX26 OWT25:OWT26 PGP25:PGP26 PQL25:PQL26 QAH25:QAH26 QKD25:QKD26 QTZ25:QTZ26 RDV25:RDV26 RNR25:RNR26 RXN25:RXN26 SHJ25:SHJ26 SRF25:SRF26 TBB25:TBB26 TKX25:TKX26 TUT25:TUT26 UEP25:UEP26 UOL25:UOL26 UYH25:UYH26 VID25:VID26 VRZ25:VRZ26 WBV25:WBV26 WLR25:WLR26 WVN25:WVN26 JB65561:JB65562 SX65561:SX65562 ACT65561:ACT65562 AMP65561:AMP65562 AWL65561:AWL65562 BGH65561:BGH65562 BQD65561:BQD65562 BZZ65561:BZZ65562 CJV65561:CJV65562 CTR65561:CTR65562 DDN65561:DDN65562 DNJ65561:DNJ65562 DXF65561:DXF65562 EHB65561:EHB65562 EQX65561:EQX65562 FAT65561:FAT65562 FKP65561:FKP65562 FUL65561:FUL65562 GEH65561:GEH65562 GOD65561:GOD65562 GXZ65561:GXZ65562 HHV65561:HHV65562 HRR65561:HRR65562 IBN65561:IBN65562 ILJ65561:ILJ65562 IVF65561:IVF65562 JFB65561:JFB65562 JOX65561:JOX65562 JYT65561:JYT65562 KIP65561:KIP65562 KSL65561:KSL65562 LCH65561:LCH65562 LMD65561:LMD65562 LVZ65561:LVZ65562 MFV65561:MFV65562 MPR65561:MPR65562 MZN65561:MZN65562 NJJ65561:NJJ65562 NTF65561:NTF65562 ODB65561:ODB65562 OMX65561:OMX65562 OWT65561:OWT65562 PGP65561:PGP65562 PQL65561:PQL65562 QAH65561:QAH65562 QKD65561:QKD65562 QTZ65561:QTZ65562 RDV65561:RDV65562 RNR65561:RNR65562 RXN65561:RXN65562 SHJ65561:SHJ65562 SRF65561:SRF65562 TBB65561:TBB65562 TKX65561:TKX65562 TUT65561:TUT65562 UEP65561:UEP65562 UOL65561:UOL65562 UYH65561:UYH65562 VID65561:VID65562 VRZ65561:VRZ65562 WBV65561:WBV65562 WLR65561:WLR65562 WVN65561:WVN65562 JB131097:JB131098 SX131097:SX131098 ACT131097:ACT131098 AMP131097:AMP131098 AWL131097:AWL131098 BGH131097:BGH131098 BQD131097:BQD131098 BZZ131097:BZZ131098 CJV131097:CJV131098 CTR131097:CTR131098 DDN131097:DDN131098 DNJ131097:DNJ131098 DXF131097:DXF131098 EHB131097:EHB131098 EQX131097:EQX131098 FAT131097:FAT131098 FKP131097:FKP131098 FUL131097:FUL131098 GEH131097:GEH131098 GOD131097:GOD131098 GXZ131097:GXZ131098 HHV131097:HHV131098 HRR131097:HRR131098 IBN131097:IBN131098 ILJ131097:ILJ131098 IVF131097:IVF131098 JFB131097:JFB131098 JOX131097:JOX131098 JYT131097:JYT131098 KIP131097:KIP131098 KSL131097:KSL131098 LCH131097:LCH131098 LMD131097:LMD131098 LVZ131097:LVZ131098 MFV131097:MFV131098 MPR131097:MPR131098 MZN131097:MZN131098 NJJ131097:NJJ131098 NTF131097:NTF131098 ODB131097:ODB131098 OMX131097:OMX131098 OWT131097:OWT131098 PGP131097:PGP131098 PQL131097:PQL131098 QAH131097:QAH131098 QKD131097:QKD131098 QTZ131097:QTZ131098 RDV131097:RDV131098 RNR131097:RNR131098 RXN131097:RXN131098 SHJ131097:SHJ131098 SRF131097:SRF131098 TBB131097:TBB131098 TKX131097:TKX131098 TUT131097:TUT131098 UEP131097:UEP131098 UOL131097:UOL131098 UYH131097:UYH131098 VID131097:VID131098 VRZ131097:VRZ131098 WBV131097:WBV131098 WLR131097:WLR131098 WVN131097:WVN131098 JB196633:JB196634 SX196633:SX196634 ACT196633:ACT196634 AMP196633:AMP196634 AWL196633:AWL196634 BGH196633:BGH196634 BQD196633:BQD196634 BZZ196633:BZZ196634 CJV196633:CJV196634 CTR196633:CTR196634 DDN196633:DDN196634 DNJ196633:DNJ196634 DXF196633:DXF196634 EHB196633:EHB196634 EQX196633:EQX196634 FAT196633:FAT196634 FKP196633:FKP196634 FUL196633:FUL196634 GEH196633:GEH196634 GOD196633:GOD196634 GXZ196633:GXZ196634 HHV196633:HHV196634 HRR196633:HRR196634 IBN196633:IBN196634 ILJ196633:ILJ196634 IVF196633:IVF196634 JFB196633:JFB196634 JOX196633:JOX196634 JYT196633:JYT196634 KIP196633:KIP196634 KSL196633:KSL196634 LCH196633:LCH196634 LMD196633:LMD196634 LVZ196633:LVZ196634 MFV196633:MFV196634 MPR196633:MPR196634 MZN196633:MZN196634 NJJ196633:NJJ196634 NTF196633:NTF196634 ODB196633:ODB196634 OMX196633:OMX196634 OWT196633:OWT196634 PGP196633:PGP196634 PQL196633:PQL196634 QAH196633:QAH196634 QKD196633:QKD196634 QTZ196633:QTZ196634 RDV196633:RDV196634 RNR196633:RNR196634 RXN196633:RXN196634 SHJ196633:SHJ196634 SRF196633:SRF196634 TBB196633:TBB196634 TKX196633:TKX196634 TUT196633:TUT196634 UEP196633:UEP196634 UOL196633:UOL196634 UYH196633:UYH196634 VID196633:VID196634 VRZ196633:VRZ196634 WBV196633:WBV196634 WLR196633:WLR196634 WVN196633:WVN196634 JB262169:JB262170 SX262169:SX262170 ACT262169:ACT262170 AMP262169:AMP262170 AWL262169:AWL262170 BGH262169:BGH262170 BQD262169:BQD262170 BZZ262169:BZZ262170 CJV262169:CJV262170 CTR262169:CTR262170 DDN262169:DDN262170 DNJ262169:DNJ262170 DXF262169:DXF262170 EHB262169:EHB262170 EQX262169:EQX262170 FAT262169:FAT262170 FKP262169:FKP262170 FUL262169:FUL262170 GEH262169:GEH262170 GOD262169:GOD262170 GXZ262169:GXZ262170 HHV262169:HHV262170 HRR262169:HRR262170 IBN262169:IBN262170 ILJ262169:ILJ262170 IVF262169:IVF262170 JFB262169:JFB262170 JOX262169:JOX262170 JYT262169:JYT262170 KIP262169:KIP262170 KSL262169:KSL262170 LCH262169:LCH262170 LMD262169:LMD262170 LVZ262169:LVZ262170 MFV262169:MFV262170 MPR262169:MPR262170 MZN262169:MZN262170 NJJ262169:NJJ262170 NTF262169:NTF262170 ODB262169:ODB262170 OMX262169:OMX262170 OWT262169:OWT262170 PGP262169:PGP262170 PQL262169:PQL262170 QAH262169:QAH262170 QKD262169:QKD262170 QTZ262169:QTZ262170 RDV262169:RDV262170 RNR262169:RNR262170 RXN262169:RXN262170 SHJ262169:SHJ262170 SRF262169:SRF262170 TBB262169:TBB262170 TKX262169:TKX262170 TUT262169:TUT262170 UEP262169:UEP262170 UOL262169:UOL262170 UYH262169:UYH262170 VID262169:VID262170 VRZ262169:VRZ262170 WBV262169:WBV262170 WLR262169:WLR262170 WVN262169:WVN262170 JB327705:JB327706 SX327705:SX327706 ACT327705:ACT327706 AMP327705:AMP327706 AWL327705:AWL327706 BGH327705:BGH327706 BQD327705:BQD327706 BZZ327705:BZZ327706 CJV327705:CJV327706 CTR327705:CTR327706 DDN327705:DDN327706 DNJ327705:DNJ327706 DXF327705:DXF327706 EHB327705:EHB327706 EQX327705:EQX327706 FAT327705:FAT327706 FKP327705:FKP327706 FUL327705:FUL327706 GEH327705:GEH327706 GOD327705:GOD327706 GXZ327705:GXZ327706 HHV327705:HHV327706 HRR327705:HRR327706 IBN327705:IBN327706 ILJ327705:ILJ327706 IVF327705:IVF327706 JFB327705:JFB327706 JOX327705:JOX327706 JYT327705:JYT327706 KIP327705:KIP327706 KSL327705:KSL327706 LCH327705:LCH327706 LMD327705:LMD327706 LVZ327705:LVZ327706 MFV327705:MFV327706 MPR327705:MPR327706 MZN327705:MZN327706 NJJ327705:NJJ327706 NTF327705:NTF327706 ODB327705:ODB327706 OMX327705:OMX327706 OWT327705:OWT327706 PGP327705:PGP327706 PQL327705:PQL327706 QAH327705:QAH327706 QKD327705:QKD327706 QTZ327705:QTZ327706 RDV327705:RDV327706 RNR327705:RNR327706 RXN327705:RXN327706 SHJ327705:SHJ327706 SRF327705:SRF327706 TBB327705:TBB327706 TKX327705:TKX327706 TUT327705:TUT327706 UEP327705:UEP327706 UOL327705:UOL327706 UYH327705:UYH327706 VID327705:VID327706 VRZ327705:VRZ327706 WBV327705:WBV327706 WLR327705:WLR327706 WVN327705:WVN327706 JB393241:JB393242 SX393241:SX393242 ACT393241:ACT393242 AMP393241:AMP393242 AWL393241:AWL393242 BGH393241:BGH393242 BQD393241:BQD393242 BZZ393241:BZZ393242 CJV393241:CJV393242 CTR393241:CTR393242 DDN393241:DDN393242 DNJ393241:DNJ393242 DXF393241:DXF393242 EHB393241:EHB393242 EQX393241:EQX393242 FAT393241:FAT393242 FKP393241:FKP393242 FUL393241:FUL393242 GEH393241:GEH393242 GOD393241:GOD393242 GXZ393241:GXZ393242 HHV393241:HHV393242 HRR393241:HRR393242 IBN393241:IBN393242 ILJ393241:ILJ393242 IVF393241:IVF393242 JFB393241:JFB393242 JOX393241:JOX393242 JYT393241:JYT393242 KIP393241:KIP393242 KSL393241:KSL393242 LCH393241:LCH393242 LMD393241:LMD393242 LVZ393241:LVZ393242 MFV393241:MFV393242 MPR393241:MPR393242 MZN393241:MZN393242 NJJ393241:NJJ393242 NTF393241:NTF393242 ODB393241:ODB393242 OMX393241:OMX393242 OWT393241:OWT393242 PGP393241:PGP393242 PQL393241:PQL393242 QAH393241:QAH393242 QKD393241:QKD393242 QTZ393241:QTZ393242 RDV393241:RDV393242 RNR393241:RNR393242 RXN393241:RXN393242 SHJ393241:SHJ393242 SRF393241:SRF393242 TBB393241:TBB393242 TKX393241:TKX393242 TUT393241:TUT393242 UEP393241:UEP393242 UOL393241:UOL393242 UYH393241:UYH393242 VID393241:VID393242 VRZ393241:VRZ393242 WBV393241:WBV393242 WLR393241:WLR393242 WVN393241:WVN393242 JB458777:JB458778 SX458777:SX458778 ACT458777:ACT458778 AMP458777:AMP458778 AWL458777:AWL458778 BGH458777:BGH458778 BQD458777:BQD458778 BZZ458777:BZZ458778 CJV458777:CJV458778 CTR458777:CTR458778 DDN458777:DDN458778 DNJ458777:DNJ458778 DXF458777:DXF458778 EHB458777:EHB458778 EQX458777:EQX458778 FAT458777:FAT458778 FKP458777:FKP458778 FUL458777:FUL458778 GEH458777:GEH458778 GOD458777:GOD458778 GXZ458777:GXZ458778 HHV458777:HHV458778 HRR458777:HRR458778 IBN458777:IBN458778 ILJ458777:ILJ458778 IVF458777:IVF458778 JFB458777:JFB458778 JOX458777:JOX458778 JYT458777:JYT458778 KIP458777:KIP458778 KSL458777:KSL458778 LCH458777:LCH458778 LMD458777:LMD458778 LVZ458777:LVZ458778 MFV458777:MFV458778 MPR458777:MPR458778 MZN458777:MZN458778 NJJ458777:NJJ458778 NTF458777:NTF458778 ODB458777:ODB458778 OMX458777:OMX458778 OWT458777:OWT458778 PGP458777:PGP458778 PQL458777:PQL458778 QAH458777:QAH458778 QKD458777:QKD458778 QTZ458777:QTZ458778 RDV458777:RDV458778 RNR458777:RNR458778 RXN458777:RXN458778 SHJ458777:SHJ458778 SRF458777:SRF458778 TBB458777:TBB458778 TKX458777:TKX458778 TUT458777:TUT458778 UEP458777:UEP458778 UOL458777:UOL458778 UYH458777:UYH458778 VID458777:VID458778 VRZ458777:VRZ458778 WBV458777:WBV458778 WLR458777:WLR458778 WVN458777:WVN458778 JB524313:JB524314 SX524313:SX524314 ACT524313:ACT524314 AMP524313:AMP524314 AWL524313:AWL524314 BGH524313:BGH524314 BQD524313:BQD524314 BZZ524313:BZZ524314 CJV524313:CJV524314 CTR524313:CTR524314 DDN524313:DDN524314 DNJ524313:DNJ524314 DXF524313:DXF524314 EHB524313:EHB524314 EQX524313:EQX524314 FAT524313:FAT524314 FKP524313:FKP524314 FUL524313:FUL524314 GEH524313:GEH524314 GOD524313:GOD524314 GXZ524313:GXZ524314 HHV524313:HHV524314 HRR524313:HRR524314 IBN524313:IBN524314 ILJ524313:ILJ524314 IVF524313:IVF524314 JFB524313:JFB524314 JOX524313:JOX524314 JYT524313:JYT524314 KIP524313:KIP524314 KSL524313:KSL524314 LCH524313:LCH524314 LMD524313:LMD524314 LVZ524313:LVZ524314 MFV524313:MFV524314 MPR524313:MPR524314 MZN524313:MZN524314 NJJ524313:NJJ524314 NTF524313:NTF524314 ODB524313:ODB524314 OMX524313:OMX524314 OWT524313:OWT524314 PGP524313:PGP524314 PQL524313:PQL524314 QAH524313:QAH524314 QKD524313:QKD524314 QTZ524313:QTZ524314 RDV524313:RDV524314 RNR524313:RNR524314 RXN524313:RXN524314 SHJ524313:SHJ524314 SRF524313:SRF524314 TBB524313:TBB524314 TKX524313:TKX524314 TUT524313:TUT524314 UEP524313:UEP524314 UOL524313:UOL524314 UYH524313:UYH524314 VID524313:VID524314 VRZ524313:VRZ524314 WBV524313:WBV524314 WLR524313:WLR524314 WVN524313:WVN524314 JB589849:JB589850 SX589849:SX589850 ACT589849:ACT589850 AMP589849:AMP589850 AWL589849:AWL589850 BGH589849:BGH589850 BQD589849:BQD589850 BZZ589849:BZZ589850 CJV589849:CJV589850 CTR589849:CTR589850 DDN589849:DDN589850 DNJ589849:DNJ589850 DXF589849:DXF589850 EHB589849:EHB589850 EQX589849:EQX589850 FAT589849:FAT589850 FKP589849:FKP589850 FUL589849:FUL589850 GEH589849:GEH589850 GOD589849:GOD589850 GXZ589849:GXZ589850 HHV589849:HHV589850 HRR589849:HRR589850 IBN589849:IBN589850 ILJ589849:ILJ589850 IVF589849:IVF589850 JFB589849:JFB589850 JOX589849:JOX589850 JYT589849:JYT589850 KIP589849:KIP589850 KSL589849:KSL589850 LCH589849:LCH589850 LMD589849:LMD589850 LVZ589849:LVZ589850 MFV589849:MFV589850 MPR589849:MPR589850 MZN589849:MZN589850 NJJ589849:NJJ589850 NTF589849:NTF589850 ODB589849:ODB589850 OMX589849:OMX589850 OWT589849:OWT589850 PGP589849:PGP589850 PQL589849:PQL589850 QAH589849:QAH589850 QKD589849:QKD589850 QTZ589849:QTZ589850 RDV589849:RDV589850 RNR589849:RNR589850 RXN589849:RXN589850 SHJ589849:SHJ589850 SRF589849:SRF589850 TBB589849:TBB589850 TKX589849:TKX589850 TUT589849:TUT589850 UEP589849:UEP589850 UOL589849:UOL589850 UYH589849:UYH589850 VID589849:VID589850 VRZ589849:VRZ589850 WBV589849:WBV589850 WLR589849:WLR589850 WVN589849:WVN589850 JB655385:JB655386 SX655385:SX655386 ACT655385:ACT655386 AMP655385:AMP655386 AWL655385:AWL655386 BGH655385:BGH655386 BQD655385:BQD655386 BZZ655385:BZZ655386 CJV655385:CJV655386 CTR655385:CTR655386 DDN655385:DDN655386 DNJ655385:DNJ655386 DXF655385:DXF655386 EHB655385:EHB655386 EQX655385:EQX655386 FAT655385:FAT655386 FKP655385:FKP655386 FUL655385:FUL655386 GEH655385:GEH655386 GOD655385:GOD655386 GXZ655385:GXZ655386 HHV655385:HHV655386 HRR655385:HRR655386 IBN655385:IBN655386 ILJ655385:ILJ655386 IVF655385:IVF655386 JFB655385:JFB655386 JOX655385:JOX655386 JYT655385:JYT655386 KIP655385:KIP655386 KSL655385:KSL655386 LCH655385:LCH655386 LMD655385:LMD655386 LVZ655385:LVZ655386 MFV655385:MFV655386 MPR655385:MPR655386 MZN655385:MZN655386 NJJ655385:NJJ655386 NTF655385:NTF655386 ODB655385:ODB655386 OMX655385:OMX655386 OWT655385:OWT655386 PGP655385:PGP655386 PQL655385:PQL655386 QAH655385:QAH655386 QKD655385:QKD655386 QTZ655385:QTZ655386 RDV655385:RDV655386 RNR655385:RNR655386 RXN655385:RXN655386 SHJ655385:SHJ655386 SRF655385:SRF655386 TBB655385:TBB655386 TKX655385:TKX655386 TUT655385:TUT655386 UEP655385:UEP655386 UOL655385:UOL655386 UYH655385:UYH655386 VID655385:VID655386 VRZ655385:VRZ655386 WBV655385:WBV655386 WLR655385:WLR655386 WVN655385:WVN655386 JB720921:JB720922 SX720921:SX720922 ACT720921:ACT720922 AMP720921:AMP720922 AWL720921:AWL720922 BGH720921:BGH720922 BQD720921:BQD720922 BZZ720921:BZZ720922 CJV720921:CJV720922 CTR720921:CTR720922 DDN720921:DDN720922 DNJ720921:DNJ720922 DXF720921:DXF720922 EHB720921:EHB720922 EQX720921:EQX720922 FAT720921:FAT720922 FKP720921:FKP720922 FUL720921:FUL720922 GEH720921:GEH720922 GOD720921:GOD720922 GXZ720921:GXZ720922 HHV720921:HHV720922 HRR720921:HRR720922 IBN720921:IBN720922 ILJ720921:ILJ720922 IVF720921:IVF720922 JFB720921:JFB720922 JOX720921:JOX720922 JYT720921:JYT720922 KIP720921:KIP720922 KSL720921:KSL720922 LCH720921:LCH720922 LMD720921:LMD720922 LVZ720921:LVZ720922 MFV720921:MFV720922 MPR720921:MPR720922 MZN720921:MZN720922 NJJ720921:NJJ720922 NTF720921:NTF720922 ODB720921:ODB720922 OMX720921:OMX720922 OWT720921:OWT720922 PGP720921:PGP720922 PQL720921:PQL720922 QAH720921:QAH720922 QKD720921:QKD720922 QTZ720921:QTZ720922 RDV720921:RDV720922 RNR720921:RNR720922 RXN720921:RXN720922 SHJ720921:SHJ720922 SRF720921:SRF720922 TBB720921:TBB720922 TKX720921:TKX720922 TUT720921:TUT720922 UEP720921:UEP720922 UOL720921:UOL720922 UYH720921:UYH720922 VID720921:VID720922 VRZ720921:VRZ720922 WBV720921:WBV720922 WLR720921:WLR720922 WVN720921:WVN720922 JB786457:JB786458 SX786457:SX786458 ACT786457:ACT786458 AMP786457:AMP786458 AWL786457:AWL786458 BGH786457:BGH786458 BQD786457:BQD786458 BZZ786457:BZZ786458 CJV786457:CJV786458 CTR786457:CTR786458 DDN786457:DDN786458 DNJ786457:DNJ786458 DXF786457:DXF786458 EHB786457:EHB786458 EQX786457:EQX786458 FAT786457:FAT786458 FKP786457:FKP786458 FUL786457:FUL786458 GEH786457:GEH786458 GOD786457:GOD786458 GXZ786457:GXZ786458 HHV786457:HHV786458 HRR786457:HRR786458 IBN786457:IBN786458 ILJ786457:ILJ786458 IVF786457:IVF786458 JFB786457:JFB786458 JOX786457:JOX786458 JYT786457:JYT786458 KIP786457:KIP786458 KSL786457:KSL786458 LCH786457:LCH786458 LMD786457:LMD786458 LVZ786457:LVZ786458 MFV786457:MFV786458 MPR786457:MPR786458 MZN786457:MZN786458 NJJ786457:NJJ786458 NTF786457:NTF786458 ODB786457:ODB786458 OMX786457:OMX786458 OWT786457:OWT786458 PGP786457:PGP786458 PQL786457:PQL786458 QAH786457:QAH786458 QKD786457:QKD786458 QTZ786457:QTZ786458 RDV786457:RDV786458 RNR786457:RNR786458 RXN786457:RXN786458 SHJ786457:SHJ786458 SRF786457:SRF786458 TBB786457:TBB786458 TKX786457:TKX786458 TUT786457:TUT786458 UEP786457:UEP786458 UOL786457:UOL786458 UYH786457:UYH786458 VID786457:VID786458 VRZ786457:VRZ786458 WBV786457:WBV786458 WLR786457:WLR786458 WVN786457:WVN786458 JB851993:JB851994 SX851993:SX851994 ACT851993:ACT851994 AMP851993:AMP851994 AWL851993:AWL851994 BGH851993:BGH851994 BQD851993:BQD851994 BZZ851993:BZZ851994 CJV851993:CJV851994 CTR851993:CTR851994 DDN851993:DDN851994 DNJ851993:DNJ851994 DXF851993:DXF851994 EHB851993:EHB851994 EQX851993:EQX851994 FAT851993:FAT851994 FKP851993:FKP851994 FUL851993:FUL851994 GEH851993:GEH851994 GOD851993:GOD851994 GXZ851993:GXZ851994 HHV851993:HHV851994 HRR851993:HRR851994 IBN851993:IBN851994 ILJ851993:ILJ851994 IVF851993:IVF851994 JFB851993:JFB851994 JOX851993:JOX851994 JYT851993:JYT851994 KIP851993:KIP851994 KSL851993:KSL851994 LCH851993:LCH851994 LMD851993:LMD851994 LVZ851993:LVZ851994 MFV851993:MFV851994 MPR851993:MPR851994 MZN851993:MZN851994 NJJ851993:NJJ851994 NTF851993:NTF851994 ODB851993:ODB851994 OMX851993:OMX851994 OWT851993:OWT851994 PGP851993:PGP851994 PQL851993:PQL851994 QAH851993:QAH851994 QKD851993:QKD851994 QTZ851993:QTZ851994 RDV851993:RDV851994 RNR851993:RNR851994 RXN851993:RXN851994 SHJ851993:SHJ851994 SRF851993:SRF851994 TBB851993:TBB851994 TKX851993:TKX851994 TUT851993:TUT851994 UEP851993:UEP851994 UOL851993:UOL851994 UYH851993:UYH851994 VID851993:VID851994 VRZ851993:VRZ851994 WBV851993:WBV851994 WLR851993:WLR851994 WVN851993:WVN851994 JB917529:JB917530 SX917529:SX917530 ACT917529:ACT917530 AMP917529:AMP917530 AWL917529:AWL917530 BGH917529:BGH917530 BQD917529:BQD917530 BZZ917529:BZZ917530 CJV917529:CJV917530 CTR917529:CTR917530 DDN917529:DDN917530 DNJ917529:DNJ917530 DXF917529:DXF917530 EHB917529:EHB917530 EQX917529:EQX917530 FAT917529:FAT917530 FKP917529:FKP917530 FUL917529:FUL917530 GEH917529:GEH917530 GOD917529:GOD917530 GXZ917529:GXZ917530 HHV917529:HHV917530 HRR917529:HRR917530 IBN917529:IBN917530 ILJ917529:ILJ917530 IVF917529:IVF917530 JFB917529:JFB917530 JOX917529:JOX917530 JYT917529:JYT917530 KIP917529:KIP917530 KSL917529:KSL917530 LCH917529:LCH917530 LMD917529:LMD917530 LVZ917529:LVZ917530 MFV917529:MFV917530 MPR917529:MPR917530 MZN917529:MZN917530 NJJ917529:NJJ917530 NTF917529:NTF917530 ODB917529:ODB917530 OMX917529:OMX917530 OWT917529:OWT917530 PGP917529:PGP917530 PQL917529:PQL917530 QAH917529:QAH917530 QKD917529:QKD917530 QTZ917529:QTZ917530 RDV917529:RDV917530 RNR917529:RNR917530 RXN917529:RXN917530 SHJ917529:SHJ917530 SRF917529:SRF917530 TBB917529:TBB917530 TKX917529:TKX917530 TUT917529:TUT917530 UEP917529:UEP917530 UOL917529:UOL917530 UYH917529:UYH917530 VID917529:VID917530 VRZ917529:VRZ917530 WBV917529:WBV917530 WLR917529:WLR917530 WVN917529:WVN917530 JB983065:JB983066 SX983065:SX983066 ACT983065:ACT983066 AMP983065:AMP983066 AWL983065:AWL983066 BGH983065:BGH983066 BQD983065:BQD983066 BZZ983065:BZZ983066 CJV983065:CJV983066 CTR983065:CTR983066 DDN983065:DDN983066 DNJ983065:DNJ983066 DXF983065:DXF983066 EHB983065:EHB983066 EQX983065:EQX983066 FAT983065:FAT983066 FKP983065:FKP983066 FUL983065:FUL983066 GEH983065:GEH983066 GOD983065:GOD983066 GXZ983065:GXZ983066 HHV983065:HHV983066 HRR983065:HRR983066 IBN983065:IBN983066 ILJ983065:ILJ983066 IVF983065:IVF983066 JFB983065:JFB983066 JOX983065:JOX983066 JYT983065:JYT983066 KIP983065:KIP983066 KSL983065:KSL983066 LCH983065:LCH983066 LMD983065:LMD983066 LVZ983065:LVZ983066 MFV983065:MFV983066 MPR983065:MPR983066 MZN983065:MZN983066 NJJ983065:NJJ983066 NTF983065:NTF983066 ODB983065:ODB983066 OMX983065:OMX983066 OWT983065:OWT983066 PGP983065:PGP983066 PQL983065:PQL983066 QAH983065:QAH983066 QKD983065:QKD983066 QTZ983065:QTZ983066 RDV983065:RDV983066 RNR983065:RNR983066 RXN983065:RXN983066 SHJ983065:SHJ983066 SRF983065:SRF983066 TBB983065:TBB983066 TKX983065:TKX983066 TUT983065:TUT983066 UEP983065:UEP983066 UOL983065:UOL983066 UYH983065:UYH983066 VID983065:VID983066 VRZ983065:VRZ983066 WBV983065:WBV983066 WLR983065:WLR983066 WVN983065:WVN983066 F983062:F983063 F917526:F917527 F851990:F851991 F786454:F786455 F720918:F720919 F655382:F655383 F589846:F589847 F524310:F524311 F458774:F458775 F393238:F393239 F327702:F327703 F262166:F262167 F196630:F196631 F131094:F131095 F65558:F65559 C983062:C983063 C917526:C917527 C851990:C851991 C786454:C786455 C720918:C720919 C655382:C655383 C589846:C589847 C524310:C524311 C458774:C458775 C393238:C393239 C327702:C327703 C262166:C262167 C196630:C196631 C131094:C131095 C65558:C65559">
       <formula1>"A0,A1,A3,A4,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" sqref="C28 IY28 SU28 ACQ28 AMM28 AWI28 BGE28 BQA28 BZW28 CJS28 CTO28 DDK28 DNG28 DXC28 EGY28 EQU28 FAQ28 FKM28 FUI28 GEE28 GOA28 GXW28 HHS28 HRO28 IBK28 ILG28 IVC28 JEY28 JOU28 JYQ28 KIM28 KSI28 LCE28 LMA28 LVW28 MFS28 MPO28 MZK28 NJG28 NTC28 OCY28 OMU28 OWQ28 PGM28 PQI28 QAE28 QKA28 QTW28 RDS28 RNO28 RXK28 SHG28 SRC28 TAY28 TKU28 TUQ28 UEM28 UOI28 UYE28 VIA28 VRW28 WBS28 WLO28 WVK28 C65564 IY65564 SU65564 ACQ65564 AMM65564 AWI65564 BGE65564 BQA65564 BZW65564 CJS65564 CTO65564 DDK65564 DNG65564 DXC65564 EGY65564 EQU65564 FAQ65564 FKM65564 FUI65564 GEE65564 GOA65564 GXW65564 HHS65564 HRO65564 IBK65564 ILG65564 IVC65564 JEY65564 JOU65564 JYQ65564 KIM65564 KSI65564 LCE65564 LMA65564 LVW65564 MFS65564 MPO65564 MZK65564 NJG65564 NTC65564 OCY65564 OMU65564 OWQ65564 PGM65564 PQI65564 QAE65564 QKA65564 QTW65564 RDS65564 RNO65564 RXK65564 SHG65564 SRC65564 TAY65564 TKU65564 TUQ65564 UEM65564 UOI65564 UYE65564 VIA65564 VRW65564 WBS65564 WLO65564 WVK65564 C131100 IY131100 SU131100 ACQ131100 AMM131100 AWI131100 BGE131100 BQA131100 BZW131100 CJS131100 CTO131100 DDK131100 DNG131100 DXC131100 EGY131100 EQU131100 FAQ131100 FKM131100 FUI131100 GEE131100 GOA131100 GXW131100 HHS131100 HRO131100 IBK131100 ILG131100 IVC131100 JEY131100 JOU131100 JYQ131100 KIM131100 KSI131100 LCE131100 LMA131100 LVW131100 MFS131100 MPO131100 MZK131100 NJG131100 NTC131100 OCY131100 OMU131100 OWQ131100 PGM131100 PQI131100 QAE131100 QKA131100 QTW131100 RDS131100 RNO131100 RXK131100 SHG131100 SRC131100 TAY131100 TKU131100 TUQ131100 UEM131100 UOI131100 UYE131100 VIA131100 VRW131100 WBS131100 WLO131100 WVK131100 C196636 IY196636 SU196636 ACQ196636 AMM196636 AWI196636 BGE196636 BQA196636 BZW196636 CJS196636 CTO196636 DDK196636 DNG196636 DXC196636 EGY196636 EQU196636 FAQ196636 FKM196636 FUI196636 GEE196636 GOA196636 GXW196636 HHS196636 HRO196636 IBK196636 ILG196636 IVC196636 JEY196636 JOU196636 JYQ196636 KIM196636 KSI196636 LCE196636 LMA196636 LVW196636 MFS196636 MPO196636 MZK196636 NJG196636 NTC196636 OCY196636 OMU196636 OWQ196636 PGM196636 PQI196636 QAE196636 QKA196636 QTW196636 RDS196636 RNO196636 RXK196636 SHG196636 SRC196636 TAY196636 TKU196636 TUQ196636 UEM196636 UOI196636 UYE196636 VIA196636 VRW196636 WBS196636 WLO196636 WVK196636 C262172 IY262172 SU262172 ACQ262172 AMM262172 AWI262172 BGE262172 BQA262172 BZW262172 CJS262172 CTO262172 DDK262172 DNG262172 DXC262172 EGY262172 EQU262172 FAQ262172 FKM262172 FUI262172 GEE262172 GOA262172 GXW262172 HHS262172 HRO262172 IBK262172 ILG262172 IVC262172 JEY262172 JOU262172 JYQ262172 KIM262172 KSI262172 LCE262172 LMA262172 LVW262172 MFS262172 MPO262172 MZK262172 NJG262172 NTC262172 OCY262172 OMU262172 OWQ262172 PGM262172 PQI262172 QAE262172 QKA262172 QTW262172 RDS262172 RNO262172 RXK262172 SHG262172 SRC262172 TAY262172 TKU262172 TUQ262172 UEM262172 UOI262172 UYE262172 VIA262172 VRW262172 WBS262172 WLO262172 WVK262172 C327708 IY327708 SU327708 ACQ327708 AMM327708 AWI327708 BGE327708 BQA327708 BZW327708 CJS327708 CTO327708 DDK327708 DNG327708 DXC327708 EGY327708 EQU327708 FAQ327708 FKM327708 FUI327708 GEE327708 GOA327708 GXW327708 HHS327708 HRO327708 IBK327708 ILG327708 IVC327708 JEY327708 JOU327708 JYQ327708 KIM327708 KSI327708 LCE327708 LMA327708 LVW327708 MFS327708 MPO327708 MZK327708 NJG327708 NTC327708 OCY327708 OMU327708 OWQ327708 PGM327708 PQI327708 QAE327708 QKA327708 QTW327708 RDS327708 RNO327708 RXK327708 SHG327708 SRC327708 TAY327708 TKU327708 TUQ327708 UEM327708 UOI327708 UYE327708 VIA327708 VRW327708 WBS327708 WLO327708 WVK327708 C393244 IY393244 SU393244 ACQ393244 AMM393244 AWI393244 BGE393244 BQA393244 BZW393244 CJS393244 CTO393244 DDK393244 DNG393244 DXC393244 EGY393244 EQU393244 FAQ393244 FKM393244 FUI393244 GEE393244 GOA393244 GXW393244 HHS393244 HRO393244 IBK393244 ILG393244 IVC393244 JEY393244 JOU393244 JYQ393244 KIM393244 KSI393244 LCE393244 LMA393244 LVW393244 MFS393244 MPO393244 MZK393244 NJG393244 NTC393244 OCY393244 OMU393244 OWQ393244 PGM393244 PQI393244 QAE393244 QKA393244 QTW393244 RDS393244 RNO393244 RXK393244 SHG393244 SRC393244 TAY393244 TKU393244 TUQ393244 UEM393244 UOI393244 UYE393244 VIA393244 VRW393244 WBS393244 WLO393244 WVK393244 C458780 IY458780 SU458780 ACQ458780 AMM458780 AWI458780 BGE458780 BQA458780 BZW458780 CJS458780 CTO458780 DDK458780 DNG458780 DXC458780 EGY458780 EQU458780 FAQ458780 FKM458780 FUI458780 GEE458780 GOA458780 GXW458780 HHS458780 HRO458780 IBK458780 ILG458780 IVC458780 JEY458780 JOU458780 JYQ458780 KIM458780 KSI458780 LCE458780 LMA458780 LVW458780 MFS458780 MPO458780 MZK458780 NJG458780 NTC458780 OCY458780 OMU458780 OWQ458780 PGM458780 PQI458780 QAE458780 QKA458780 QTW458780 RDS458780 RNO458780 RXK458780 SHG458780 SRC458780 TAY458780 TKU458780 TUQ458780 UEM458780 UOI458780 UYE458780 VIA458780 VRW458780 WBS458780 WLO458780 WVK458780 C524316 IY524316 SU524316 ACQ524316 AMM524316 AWI524316 BGE524316 BQA524316 BZW524316 CJS524316 CTO524316 DDK524316 DNG524316 DXC524316 EGY524316 EQU524316 FAQ524316 FKM524316 FUI524316 GEE524316 GOA524316 GXW524316 HHS524316 HRO524316 IBK524316 ILG524316 IVC524316 JEY524316 JOU524316 JYQ524316 KIM524316 KSI524316 LCE524316 LMA524316 LVW524316 MFS524316 MPO524316 MZK524316 NJG524316 NTC524316 OCY524316 OMU524316 OWQ524316 PGM524316 PQI524316 QAE524316 QKA524316 QTW524316 RDS524316 RNO524316 RXK524316 SHG524316 SRC524316 TAY524316 TKU524316 TUQ524316 UEM524316 UOI524316 UYE524316 VIA524316 VRW524316 WBS524316 WLO524316 WVK524316 C589852 IY589852 SU589852 ACQ589852 AMM589852 AWI589852 BGE589852 BQA589852 BZW589852 CJS589852 CTO589852 DDK589852 DNG589852 DXC589852 EGY589852 EQU589852 FAQ589852 FKM589852 FUI589852 GEE589852 GOA589852 GXW589852 HHS589852 HRO589852 IBK589852 ILG589852 IVC589852 JEY589852 JOU589852 JYQ589852 KIM589852 KSI589852 LCE589852 LMA589852 LVW589852 MFS589852 MPO589852 MZK589852 NJG589852 NTC589852 OCY589852 OMU589852 OWQ589852 PGM589852 PQI589852 QAE589852 QKA589852 QTW589852 RDS589852 RNO589852 RXK589852 SHG589852 SRC589852 TAY589852 TKU589852 TUQ589852 UEM589852 UOI589852 UYE589852 VIA589852 VRW589852 WBS589852 WLO589852 WVK589852 C655388 IY655388 SU655388 ACQ655388 AMM655388 AWI655388 BGE655388 BQA655388 BZW655388 CJS655388 CTO655388 DDK655388 DNG655388 DXC655388 EGY655388 EQU655388 FAQ655388 FKM655388 FUI655388 GEE655388 GOA655388 GXW655388 HHS655388 HRO655388 IBK655388 ILG655388 IVC655388 JEY655388 JOU655388 JYQ655388 KIM655388 KSI655388 LCE655388 LMA655388 LVW655388 MFS655388 MPO655388 MZK655388 NJG655388 NTC655388 OCY655388 OMU655388 OWQ655388 PGM655388 PQI655388 QAE655388 QKA655388 QTW655388 RDS655388 RNO655388 RXK655388 SHG655388 SRC655388 TAY655388 TKU655388 TUQ655388 UEM655388 UOI655388 UYE655388 VIA655388 VRW655388 WBS655388 WLO655388 WVK655388 C720924 IY720924 SU720924 ACQ720924 AMM720924 AWI720924 BGE720924 BQA720924 BZW720924 CJS720924 CTO720924 DDK720924 DNG720924 DXC720924 EGY720924 EQU720924 FAQ720924 FKM720924 FUI720924 GEE720924 GOA720924 GXW720924 HHS720924 HRO720924 IBK720924 ILG720924 IVC720924 JEY720924 JOU720924 JYQ720924 KIM720924 KSI720924 LCE720924 LMA720924 LVW720924 MFS720924 MPO720924 MZK720924 NJG720924 NTC720924 OCY720924 OMU720924 OWQ720924 PGM720924 PQI720924 QAE720924 QKA720924 QTW720924 RDS720924 RNO720924 RXK720924 SHG720924 SRC720924 TAY720924 TKU720924 TUQ720924 UEM720924 UOI720924 UYE720924 VIA720924 VRW720924 WBS720924 WLO720924 WVK720924 C786460 IY786460 SU786460 ACQ786460 AMM786460 AWI786460 BGE786460 BQA786460 BZW786460 CJS786460 CTO786460 DDK786460 DNG786460 DXC786460 EGY786460 EQU786460 FAQ786460 FKM786460 FUI786460 GEE786460 GOA786460 GXW786460 HHS786460 HRO786460 IBK786460 ILG786460 IVC786460 JEY786460 JOU786460 JYQ786460 KIM786460 KSI786460 LCE786460 LMA786460 LVW786460 MFS786460 MPO786460 MZK786460 NJG786460 NTC786460 OCY786460 OMU786460 OWQ786460 PGM786460 PQI786460 QAE786460 QKA786460 QTW786460 RDS786460 RNO786460 RXK786460 SHG786460 SRC786460 TAY786460 TKU786460 TUQ786460 UEM786460 UOI786460 UYE786460 VIA786460 VRW786460 WBS786460 WLO786460 WVK786460 C851996 IY851996 SU851996 ACQ851996 AMM851996 AWI851996 BGE851996 BQA851996 BZW851996 CJS851996 CTO851996 DDK851996 DNG851996 DXC851996 EGY851996 EQU851996 FAQ851996 FKM851996 FUI851996 GEE851996 GOA851996 GXW851996 HHS851996 HRO851996 IBK851996 ILG851996 IVC851996 JEY851996 JOU851996 JYQ851996 KIM851996 KSI851996 LCE851996 LMA851996 LVW851996 MFS851996 MPO851996 MZK851996 NJG851996 NTC851996 OCY851996 OMU851996 OWQ851996 PGM851996 PQI851996 QAE851996 QKA851996 QTW851996 RDS851996 RNO851996 RXK851996 SHG851996 SRC851996 TAY851996 TKU851996 TUQ851996 UEM851996 UOI851996 UYE851996 VIA851996 VRW851996 WBS851996 WLO851996 WVK851996 C917532 IY917532 SU917532 ACQ917532 AMM917532 AWI917532 BGE917532 BQA917532 BZW917532 CJS917532 CTO917532 DDK917532 DNG917532 DXC917532 EGY917532 EQU917532 FAQ917532 FKM917532 FUI917532 GEE917532 GOA917532 GXW917532 HHS917532 HRO917532 IBK917532 ILG917532 IVC917532 JEY917532 JOU917532 JYQ917532 KIM917532 KSI917532 LCE917532 LMA917532 LVW917532 MFS917532 MPO917532 MZK917532 NJG917532 NTC917532 OCY917532 OMU917532 OWQ917532 PGM917532 PQI917532 QAE917532 QKA917532 QTW917532 RDS917532 RNO917532 RXK917532 SHG917532 SRC917532 TAY917532 TKU917532 TUQ917532 UEM917532 UOI917532 UYE917532 VIA917532 VRW917532 WBS917532 WLO917532 WVK917532 C983068 IY983068 SU983068 ACQ983068 AMM983068 AWI983068 BGE983068 BQA983068 BZW983068 CJS983068 CTO983068 DDK983068 DNG983068 DXC983068 EGY983068 EQU983068 FAQ983068 FKM983068 FUI983068 GEE983068 GOA983068 GXW983068 HHS983068 HRO983068 IBK983068 ILG983068 IVC983068 JEY983068 JOU983068 JYQ983068 KIM983068 KSI983068 LCE983068 LMA983068 LVW983068 MFS983068 MPO983068 MZK983068 NJG983068 NTC983068 OCY983068 OMU983068 OWQ983068 PGM983068 PQI983068 QAE983068 QKA983068 QTW983068 RDS983068 RNO983068 RXK983068 SHG983068 SRC983068 TAY983068 TKU983068 TUQ983068 UEM983068 UOI983068 UYE983068 VIA983068 VRW983068 WBS983068 WLO983068 WVK983068 F28 JB28 SX28 ACT28 AMP28 AWL28 BGH28 BQD28 BZZ28 CJV28 CTR28 DDN28 DNJ28 DXF28 EHB28 EQX28 FAT28 FKP28 FUL28 GEH28 GOD28 GXZ28 HHV28 HRR28 IBN28 ILJ28 IVF28 JFB28 JOX28 JYT28 KIP28 KSL28 LCH28 LMD28 LVZ28 MFV28 MPR28 MZN28 NJJ28 NTF28 ODB28 OMX28 OWT28 PGP28 PQL28 QAH28 QKD28 QTZ28 RDV28 RNR28 RXN28 SHJ28 SRF28 TBB28 TKX28 TUT28 UEP28 UOL28 UYH28 VID28 VRZ28 WBV28 WLR28 WVN28 F65564 JB65564 SX65564 ACT65564 AMP65564 AWL65564 BGH65564 BQD65564 BZZ65564 CJV65564 CTR65564 DDN65564 DNJ65564 DXF65564 EHB65564 EQX65564 FAT65564 FKP65564 FUL65564 GEH65564 GOD65564 GXZ65564 HHV65564 HRR65564 IBN65564 ILJ65564 IVF65564 JFB65564 JOX65564 JYT65564 KIP65564 KSL65564 LCH65564 LMD65564 LVZ65564 MFV65564 MPR65564 MZN65564 NJJ65564 NTF65564 ODB65564 OMX65564 OWT65564 PGP65564 PQL65564 QAH65564 QKD65564 QTZ65564 RDV65564 RNR65564 RXN65564 SHJ65564 SRF65564 TBB65564 TKX65564 TUT65564 UEP65564 UOL65564 UYH65564 VID65564 VRZ65564 WBV65564 WLR65564 WVN65564 F131100 JB131100 SX131100 ACT131100 AMP131100 AWL131100 BGH131100 BQD131100 BZZ131100 CJV131100 CTR131100 DDN131100 DNJ131100 DXF131100 EHB131100 EQX131100 FAT131100 FKP131100 FUL131100 GEH131100 GOD131100 GXZ131100 HHV131100 HRR131100 IBN131100 ILJ131100 IVF131100 JFB131100 JOX131100 JYT131100 KIP131100 KSL131100 LCH131100 LMD131100 LVZ131100 MFV131100 MPR131100 MZN131100 NJJ131100 NTF131100 ODB131100 OMX131100 OWT131100 PGP131100 PQL131100 QAH131100 QKD131100 QTZ131100 RDV131100 RNR131100 RXN131100 SHJ131100 SRF131100 TBB131100 TKX131100 TUT131100 UEP131100 UOL131100 UYH131100 VID131100 VRZ131100 WBV131100 WLR131100 WVN131100 F196636 JB196636 SX196636 ACT196636 AMP196636 AWL196636 BGH196636 BQD196636 BZZ196636 CJV196636 CTR196636 DDN196636 DNJ196636 DXF196636 EHB196636 EQX196636 FAT196636 FKP196636 FUL196636 GEH196636 GOD196636 GXZ196636 HHV196636 HRR196636 IBN196636 ILJ196636 IVF196636 JFB196636 JOX196636 JYT196636 KIP196636 KSL196636 LCH196636 LMD196636 LVZ196636 MFV196636 MPR196636 MZN196636 NJJ196636 NTF196636 ODB196636 OMX196636 OWT196636 PGP196636 PQL196636 QAH196636 QKD196636 QTZ196636 RDV196636 RNR196636 RXN196636 SHJ196636 SRF196636 TBB196636 TKX196636 TUT196636 UEP196636 UOL196636 UYH196636 VID196636 VRZ196636 WBV196636 WLR196636 WVN196636 F262172 JB262172 SX262172 ACT262172 AMP262172 AWL262172 BGH262172 BQD262172 BZZ262172 CJV262172 CTR262172 DDN262172 DNJ262172 DXF262172 EHB262172 EQX262172 FAT262172 FKP262172 FUL262172 GEH262172 GOD262172 GXZ262172 HHV262172 HRR262172 IBN262172 ILJ262172 IVF262172 JFB262172 JOX262172 JYT262172 KIP262172 KSL262172 LCH262172 LMD262172 LVZ262172 MFV262172 MPR262172 MZN262172 NJJ262172 NTF262172 ODB262172 OMX262172 OWT262172 PGP262172 PQL262172 QAH262172 QKD262172 QTZ262172 RDV262172 RNR262172 RXN262172 SHJ262172 SRF262172 TBB262172 TKX262172 TUT262172 UEP262172 UOL262172 UYH262172 VID262172 VRZ262172 WBV262172 WLR262172 WVN262172 F327708 JB327708 SX327708 ACT327708 AMP327708 AWL327708 BGH327708 BQD327708 BZZ327708 CJV327708 CTR327708 DDN327708 DNJ327708 DXF327708 EHB327708 EQX327708 FAT327708 FKP327708 FUL327708 GEH327708 GOD327708 GXZ327708 HHV327708 HRR327708 IBN327708 ILJ327708 IVF327708 JFB327708 JOX327708 JYT327708 KIP327708 KSL327708 LCH327708 LMD327708 LVZ327708 MFV327708 MPR327708 MZN327708 NJJ327708 NTF327708 ODB327708 OMX327708 OWT327708 PGP327708 PQL327708 QAH327708 QKD327708 QTZ327708 RDV327708 RNR327708 RXN327708 SHJ327708 SRF327708 TBB327708 TKX327708 TUT327708 UEP327708 UOL327708 UYH327708 VID327708 VRZ327708 WBV327708 WLR327708 WVN327708 F393244 JB393244 SX393244 ACT393244 AMP393244 AWL393244 BGH393244 BQD393244 BZZ393244 CJV393244 CTR393244 DDN393244 DNJ393244 DXF393244 EHB393244 EQX393244 FAT393244 FKP393244 FUL393244 GEH393244 GOD393244 GXZ393244 HHV393244 HRR393244 IBN393244 ILJ393244 IVF393244 JFB393244 JOX393244 JYT393244 KIP393244 KSL393244 LCH393244 LMD393244 LVZ393244 MFV393244 MPR393244 MZN393244 NJJ393244 NTF393244 ODB393244 OMX393244 OWT393244 PGP393244 PQL393244 QAH393244 QKD393244 QTZ393244 RDV393244 RNR393244 RXN393244 SHJ393244 SRF393244 TBB393244 TKX393244 TUT393244 UEP393244 UOL393244 UYH393244 VID393244 VRZ393244 WBV393244 WLR393244 WVN393244 F458780 JB458780 SX458780 ACT458780 AMP458780 AWL458780 BGH458780 BQD458780 BZZ458780 CJV458780 CTR458780 DDN458780 DNJ458780 DXF458780 EHB458780 EQX458780 FAT458780 FKP458780 FUL458780 GEH458780 GOD458780 GXZ458780 HHV458780 HRR458780 IBN458780 ILJ458780 IVF458780 JFB458780 JOX458780 JYT458780 KIP458780 KSL458780 LCH458780 LMD458780 LVZ458780 MFV458780 MPR458780 MZN458780 NJJ458780 NTF458780 ODB458780 OMX458780 OWT458780 PGP458780 PQL458780 QAH458780 QKD458780 QTZ458780 RDV458780 RNR458780 RXN458780 SHJ458780 SRF458780 TBB458780 TKX458780 TUT458780 UEP458780 UOL458780 UYH458780 VID458780 VRZ458780 WBV458780 WLR458780 WVN458780 F524316 JB524316 SX524316 ACT524316 AMP524316 AWL524316 BGH524316 BQD524316 BZZ524316 CJV524316 CTR524316 DDN524316 DNJ524316 DXF524316 EHB524316 EQX524316 FAT524316 FKP524316 FUL524316 GEH524316 GOD524316 GXZ524316 HHV524316 HRR524316 IBN524316 ILJ524316 IVF524316 JFB524316 JOX524316 JYT524316 KIP524316 KSL524316 LCH524316 LMD524316 LVZ524316 MFV524316 MPR524316 MZN524316 NJJ524316 NTF524316 ODB524316 OMX524316 OWT524316 PGP524316 PQL524316 QAH524316 QKD524316 QTZ524316 RDV524316 RNR524316 RXN524316 SHJ524316 SRF524316 TBB524316 TKX524316 TUT524316 UEP524316 UOL524316 UYH524316 VID524316 VRZ524316 WBV524316 WLR524316 WVN524316 F589852 JB589852 SX589852 ACT589852 AMP589852 AWL589852 BGH589852 BQD589852 BZZ589852 CJV589852 CTR589852 DDN589852 DNJ589852 DXF589852 EHB589852 EQX589852 FAT589852 FKP589852 FUL589852 GEH589852 GOD589852 GXZ589852 HHV589852 HRR589852 IBN589852 ILJ589852 IVF589852 JFB589852 JOX589852 JYT589852 KIP589852 KSL589852 LCH589852 LMD589852 LVZ589852 MFV589852 MPR589852 MZN589852 NJJ589852 NTF589852 ODB589852 OMX589852 OWT589852 PGP589852 PQL589852 QAH589852 QKD589852 QTZ589852 RDV589852 RNR589852 RXN589852 SHJ589852 SRF589852 TBB589852 TKX589852 TUT589852 UEP589852 UOL589852 UYH589852 VID589852 VRZ589852 WBV589852 WLR589852 WVN589852 F655388 JB655388 SX655388 ACT655388 AMP655388 AWL655388 BGH655388 BQD655388 BZZ655388 CJV655388 CTR655388 DDN655388 DNJ655388 DXF655388 EHB655388 EQX655388 FAT655388 FKP655388 FUL655388 GEH655388 GOD655388 GXZ655388 HHV655388 HRR655388 IBN655388 ILJ655388 IVF655388 JFB655388 JOX655388 JYT655388 KIP655388 KSL655388 LCH655388 LMD655388 LVZ655388 MFV655388 MPR655388 MZN655388 NJJ655388 NTF655388 ODB655388 OMX655388 OWT655388 PGP655388 PQL655388 QAH655388 QKD655388 QTZ655388 RDV655388 RNR655388 RXN655388 SHJ655388 SRF655388 TBB655388 TKX655388 TUT655388 UEP655388 UOL655388 UYH655388 VID655388 VRZ655388 WBV655388 WLR655388 WVN655388 F720924 JB720924 SX720924 ACT720924 AMP720924 AWL720924 BGH720924 BQD720924 BZZ720924 CJV720924 CTR720924 DDN720924 DNJ720924 DXF720924 EHB720924 EQX720924 FAT720924 FKP720924 FUL720924 GEH720924 GOD720924 GXZ720924 HHV720924 HRR720924 IBN720924 ILJ720924 IVF720924 JFB720924 JOX720924 JYT720924 KIP720924 KSL720924 LCH720924 LMD720924 LVZ720924 MFV720924 MPR720924 MZN720924 NJJ720924 NTF720924 ODB720924 OMX720924 OWT720924 PGP720924 PQL720924 QAH720924 QKD720924 QTZ720924 RDV720924 RNR720924 RXN720924 SHJ720924 SRF720924 TBB720924 TKX720924 TUT720924 UEP720924 UOL720924 UYH720924 VID720924 VRZ720924 WBV720924 WLR720924 WVN720924 F786460 JB786460 SX786460 ACT786460 AMP786460 AWL786460 BGH786460 BQD786460 BZZ786460 CJV786460 CTR786460 DDN786460 DNJ786460 DXF786460 EHB786460 EQX786460 FAT786460 FKP786460 FUL786460 GEH786460 GOD786460 GXZ786460 HHV786460 HRR786460 IBN786460 ILJ786460 IVF786460 JFB786460 JOX786460 JYT786460 KIP786460 KSL786460 LCH786460 LMD786460 LVZ786460 MFV786460 MPR786460 MZN786460 NJJ786460 NTF786460 ODB786460 OMX786460 OWT786460 PGP786460 PQL786460 QAH786460 QKD786460 QTZ786460 RDV786460 RNR786460 RXN786460 SHJ786460 SRF786460 TBB786460 TKX786460 TUT786460 UEP786460 UOL786460 UYH786460 VID786460 VRZ786460 WBV786460 WLR786460 WVN786460 F851996 JB851996 SX851996 ACT851996 AMP851996 AWL851996 BGH851996 BQD851996 BZZ851996 CJV851996 CTR851996 DDN851996 DNJ851996 DXF851996 EHB851996 EQX851996 FAT851996 FKP851996 FUL851996 GEH851996 GOD851996 GXZ851996 HHV851996 HRR851996 IBN851996 ILJ851996 IVF851996 JFB851996 JOX851996 JYT851996 KIP851996 KSL851996 LCH851996 LMD851996 LVZ851996 MFV851996 MPR851996 MZN851996 NJJ851996 NTF851996 ODB851996 OMX851996 OWT851996 PGP851996 PQL851996 QAH851996 QKD851996 QTZ851996 RDV851996 RNR851996 RXN851996 SHJ851996 SRF851996 TBB851996 TKX851996 TUT851996 UEP851996 UOL851996 UYH851996 VID851996 VRZ851996 WBV851996 WLR851996 WVN851996 F917532 JB917532 SX917532 ACT917532 AMP917532 AWL917532 BGH917532 BQD917532 BZZ917532 CJV917532 CTR917532 DDN917532 DNJ917532 DXF917532 EHB917532 EQX917532 FAT917532 FKP917532 FUL917532 GEH917532 GOD917532 GXZ917532 HHV917532 HRR917532 IBN917532 ILJ917532 IVF917532 JFB917532 JOX917532 JYT917532 KIP917532 KSL917532 LCH917532 LMD917532 LVZ917532 MFV917532 MPR917532 MZN917532 NJJ917532 NTF917532 ODB917532 OMX917532 OWT917532 PGP917532 PQL917532 QAH917532 QKD917532 QTZ917532 RDV917532 RNR917532 RXN917532 SHJ917532 SRF917532 TBB917532 TKX917532 TUT917532 UEP917532 UOL917532 UYH917532 VID917532 VRZ917532 WBV917532 WLR917532 WVN917532 F983068 JB983068 SX983068 ACT983068 AMP983068 AWL983068 BGH983068 BQD983068 BZZ983068 CJV983068 CTR983068 DDN983068 DNJ983068 DXF983068 EHB983068 EQX983068 FAT983068 FKP983068 FUL983068 GEH983068 GOD983068 GXZ983068 HHV983068 HRR983068 IBN983068 ILJ983068 IVF983068 JFB983068 JOX983068 JYT983068 KIP983068 KSL983068 LCH983068 LMD983068 LVZ983068 MFV983068 MPR983068 MZN983068 NJJ983068 NTF983068 ODB983068 OMX983068 OWT983068 PGP983068 PQL983068 QAH983068 QKD983068 QTZ983068 RDV983068 RNR983068 RXN983068 SHJ983068 SRF983068 TBB983068 TKX983068 TUT983068 UEP983068 UOL983068 UYH983068 VID983068 VRZ983068 WBV983068 WLR983068 WVN983068">
+    <dataValidation type="list" operator="equal" sqref="C26 F26 IY28 SU28 ACQ28 AMM28 AWI28 BGE28 BQA28 BZW28 CJS28 CTO28 DDK28 DNG28 DXC28 EGY28 EQU28 FAQ28 FKM28 FUI28 GEE28 GOA28 GXW28 HHS28 HRO28 IBK28 ILG28 IVC28 JEY28 JOU28 JYQ28 KIM28 KSI28 LCE28 LMA28 LVW28 MFS28 MPO28 MZK28 NJG28 NTC28 OCY28 OMU28 OWQ28 PGM28 PQI28 QAE28 QKA28 QTW28 RDS28 RNO28 RXK28 SHG28 SRC28 TAY28 TKU28 TUQ28 UEM28 UOI28 UYE28 VIA28 VRW28 WBS28 WLO28 WVK28 IY65564 SU65564 ACQ65564 AMM65564 AWI65564 BGE65564 BQA65564 BZW65564 CJS65564 CTO65564 DDK65564 DNG65564 DXC65564 EGY65564 EQU65564 FAQ65564 FKM65564 FUI65564 GEE65564 GOA65564 GXW65564 HHS65564 HRO65564 IBK65564 ILG65564 IVC65564 JEY65564 JOU65564 JYQ65564 KIM65564 KSI65564 LCE65564 LMA65564 LVW65564 MFS65564 MPO65564 MZK65564 NJG65564 NTC65564 OCY65564 OMU65564 OWQ65564 PGM65564 PQI65564 QAE65564 QKA65564 QTW65564 RDS65564 RNO65564 RXK65564 SHG65564 SRC65564 TAY65564 TKU65564 TUQ65564 UEM65564 UOI65564 UYE65564 VIA65564 VRW65564 WBS65564 WLO65564 WVK65564 IY131100 SU131100 ACQ131100 AMM131100 AWI131100 BGE131100 BQA131100 BZW131100 CJS131100 CTO131100 DDK131100 DNG131100 DXC131100 EGY131100 EQU131100 FAQ131100 FKM131100 FUI131100 GEE131100 GOA131100 GXW131100 HHS131100 HRO131100 IBK131100 ILG131100 IVC131100 JEY131100 JOU131100 JYQ131100 KIM131100 KSI131100 LCE131100 LMA131100 LVW131100 MFS131100 MPO131100 MZK131100 NJG131100 NTC131100 OCY131100 OMU131100 OWQ131100 PGM131100 PQI131100 QAE131100 QKA131100 QTW131100 RDS131100 RNO131100 RXK131100 SHG131100 SRC131100 TAY131100 TKU131100 TUQ131100 UEM131100 UOI131100 UYE131100 VIA131100 VRW131100 WBS131100 WLO131100 WVK131100 IY196636 SU196636 ACQ196636 AMM196636 AWI196636 BGE196636 BQA196636 BZW196636 CJS196636 CTO196636 DDK196636 DNG196636 DXC196636 EGY196636 EQU196636 FAQ196636 FKM196636 FUI196636 GEE196636 GOA196636 GXW196636 HHS196636 HRO196636 IBK196636 ILG196636 IVC196636 JEY196636 JOU196636 JYQ196636 KIM196636 KSI196636 LCE196636 LMA196636 LVW196636 MFS196636 MPO196636 MZK196636 NJG196636 NTC196636 OCY196636 OMU196636 OWQ196636 PGM196636 PQI196636 QAE196636 QKA196636 QTW196636 RDS196636 RNO196636 RXK196636 SHG196636 SRC196636 TAY196636 TKU196636 TUQ196636 UEM196636 UOI196636 UYE196636 VIA196636 VRW196636 WBS196636 WLO196636 WVK196636 IY262172 SU262172 ACQ262172 AMM262172 AWI262172 BGE262172 BQA262172 BZW262172 CJS262172 CTO262172 DDK262172 DNG262172 DXC262172 EGY262172 EQU262172 FAQ262172 FKM262172 FUI262172 GEE262172 GOA262172 GXW262172 HHS262172 HRO262172 IBK262172 ILG262172 IVC262172 JEY262172 JOU262172 JYQ262172 KIM262172 KSI262172 LCE262172 LMA262172 LVW262172 MFS262172 MPO262172 MZK262172 NJG262172 NTC262172 OCY262172 OMU262172 OWQ262172 PGM262172 PQI262172 QAE262172 QKA262172 QTW262172 RDS262172 RNO262172 RXK262172 SHG262172 SRC262172 TAY262172 TKU262172 TUQ262172 UEM262172 UOI262172 UYE262172 VIA262172 VRW262172 WBS262172 WLO262172 WVK262172 IY327708 SU327708 ACQ327708 AMM327708 AWI327708 BGE327708 BQA327708 BZW327708 CJS327708 CTO327708 DDK327708 DNG327708 DXC327708 EGY327708 EQU327708 FAQ327708 FKM327708 FUI327708 GEE327708 GOA327708 GXW327708 HHS327708 HRO327708 IBK327708 ILG327708 IVC327708 JEY327708 JOU327708 JYQ327708 KIM327708 KSI327708 LCE327708 LMA327708 LVW327708 MFS327708 MPO327708 MZK327708 NJG327708 NTC327708 OCY327708 OMU327708 OWQ327708 PGM327708 PQI327708 QAE327708 QKA327708 QTW327708 RDS327708 RNO327708 RXK327708 SHG327708 SRC327708 TAY327708 TKU327708 TUQ327708 UEM327708 UOI327708 UYE327708 VIA327708 VRW327708 WBS327708 WLO327708 WVK327708 IY393244 SU393244 ACQ393244 AMM393244 AWI393244 BGE393244 BQA393244 BZW393244 CJS393244 CTO393244 DDK393244 DNG393244 DXC393244 EGY393244 EQU393244 FAQ393244 FKM393244 FUI393244 GEE393244 GOA393244 GXW393244 HHS393244 HRO393244 IBK393244 ILG393244 IVC393244 JEY393244 JOU393244 JYQ393244 KIM393244 KSI393244 LCE393244 LMA393244 LVW393244 MFS393244 MPO393244 MZK393244 NJG393244 NTC393244 OCY393244 OMU393244 OWQ393244 PGM393244 PQI393244 QAE393244 QKA393244 QTW393244 RDS393244 RNO393244 RXK393244 SHG393244 SRC393244 TAY393244 TKU393244 TUQ393244 UEM393244 UOI393244 UYE393244 VIA393244 VRW393244 WBS393244 WLO393244 WVK393244 IY458780 SU458780 ACQ458780 AMM458780 AWI458780 BGE458780 BQA458780 BZW458780 CJS458780 CTO458780 DDK458780 DNG458780 DXC458780 EGY458780 EQU458780 FAQ458780 FKM458780 FUI458780 GEE458780 GOA458780 GXW458780 HHS458780 HRO458780 IBK458780 ILG458780 IVC458780 JEY458780 JOU458780 JYQ458780 KIM458780 KSI458780 LCE458780 LMA458780 LVW458780 MFS458780 MPO458780 MZK458780 NJG458780 NTC458780 OCY458780 OMU458780 OWQ458780 PGM458780 PQI458780 QAE458780 QKA458780 QTW458780 RDS458780 RNO458780 RXK458780 SHG458780 SRC458780 TAY458780 TKU458780 TUQ458780 UEM458780 UOI458780 UYE458780 VIA458780 VRW458780 WBS458780 WLO458780 WVK458780 IY524316 SU524316 ACQ524316 AMM524316 AWI524316 BGE524316 BQA524316 BZW524316 CJS524316 CTO524316 DDK524316 DNG524316 DXC524316 EGY524316 EQU524316 FAQ524316 FKM524316 FUI524316 GEE524316 GOA524316 GXW524316 HHS524316 HRO524316 IBK524316 ILG524316 IVC524316 JEY524316 JOU524316 JYQ524316 KIM524316 KSI524316 LCE524316 LMA524316 LVW524316 MFS524316 MPO524316 MZK524316 NJG524316 NTC524316 OCY524316 OMU524316 OWQ524316 PGM524316 PQI524316 QAE524316 QKA524316 QTW524316 RDS524316 RNO524316 RXK524316 SHG524316 SRC524316 TAY524316 TKU524316 TUQ524316 UEM524316 UOI524316 UYE524316 VIA524316 VRW524316 WBS524316 WLO524316 WVK524316 IY589852 SU589852 ACQ589852 AMM589852 AWI589852 BGE589852 BQA589852 BZW589852 CJS589852 CTO589852 DDK589852 DNG589852 DXC589852 EGY589852 EQU589852 FAQ589852 FKM589852 FUI589852 GEE589852 GOA589852 GXW589852 HHS589852 HRO589852 IBK589852 ILG589852 IVC589852 JEY589852 JOU589852 JYQ589852 KIM589852 KSI589852 LCE589852 LMA589852 LVW589852 MFS589852 MPO589852 MZK589852 NJG589852 NTC589852 OCY589852 OMU589852 OWQ589852 PGM589852 PQI589852 QAE589852 QKA589852 QTW589852 RDS589852 RNO589852 RXK589852 SHG589852 SRC589852 TAY589852 TKU589852 TUQ589852 UEM589852 UOI589852 UYE589852 VIA589852 VRW589852 WBS589852 WLO589852 WVK589852 IY655388 SU655388 ACQ655388 AMM655388 AWI655388 BGE655388 BQA655388 BZW655388 CJS655388 CTO655388 DDK655388 DNG655388 DXC655388 EGY655388 EQU655388 FAQ655388 FKM655388 FUI655388 GEE655388 GOA655388 GXW655388 HHS655388 HRO655388 IBK655388 ILG655388 IVC655388 JEY655388 JOU655388 JYQ655388 KIM655388 KSI655388 LCE655388 LMA655388 LVW655388 MFS655388 MPO655388 MZK655388 NJG655388 NTC655388 OCY655388 OMU655388 OWQ655388 PGM655388 PQI655388 QAE655388 QKA655388 QTW655388 RDS655388 RNO655388 RXK655388 SHG655388 SRC655388 TAY655388 TKU655388 TUQ655388 UEM655388 UOI655388 UYE655388 VIA655388 VRW655388 WBS655388 WLO655388 WVK655388 IY720924 SU720924 ACQ720924 AMM720924 AWI720924 BGE720924 BQA720924 BZW720924 CJS720924 CTO720924 DDK720924 DNG720924 DXC720924 EGY720924 EQU720924 FAQ720924 FKM720924 FUI720924 GEE720924 GOA720924 GXW720924 HHS720924 HRO720924 IBK720924 ILG720924 IVC720924 JEY720924 JOU720924 JYQ720924 KIM720924 KSI720924 LCE720924 LMA720924 LVW720924 MFS720924 MPO720924 MZK720924 NJG720924 NTC720924 OCY720924 OMU720924 OWQ720924 PGM720924 PQI720924 QAE720924 QKA720924 QTW720924 RDS720924 RNO720924 RXK720924 SHG720924 SRC720924 TAY720924 TKU720924 TUQ720924 UEM720924 UOI720924 UYE720924 VIA720924 VRW720924 WBS720924 WLO720924 WVK720924 IY786460 SU786460 ACQ786460 AMM786460 AWI786460 BGE786460 BQA786460 BZW786460 CJS786460 CTO786460 DDK786460 DNG786460 DXC786460 EGY786460 EQU786460 FAQ786460 FKM786460 FUI786460 GEE786460 GOA786460 GXW786460 HHS786460 HRO786460 IBK786460 ILG786460 IVC786460 JEY786460 JOU786460 JYQ786460 KIM786460 KSI786460 LCE786460 LMA786460 LVW786460 MFS786460 MPO786460 MZK786460 NJG786460 NTC786460 OCY786460 OMU786460 OWQ786460 PGM786460 PQI786460 QAE786460 QKA786460 QTW786460 RDS786460 RNO786460 RXK786460 SHG786460 SRC786460 TAY786460 TKU786460 TUQ786460 UEM786460 UOI786460 UYE786460 VIA786460 VRW786460 WBS786460 WLO786460 WVK786460 IY851996 SU851996 ACQ851996 AMM851996 AWI851996 BGE851996 BQA851996 BZW851996 CJS851996 CTO851996 DDK851996 DNG851996 DXC851996 EGY851996 EQU851996 FAQ851996 FKM851996 FUI851996 GEE851996 GOA851996 GXW851996 HHS851996 HRO851996 IBK851996 ILG851996 IVC851996 JEY851996 JOU851996 JYQ851996 KIM851996 KSI851996 LCE851996 LMA851996 LVW851996 MFS851996 MPO851996 MZK851996 NJG851996 NTC851996 OCY851996 OMU851996 OWQ851996 PGM851996 PQI851996 QAE851996 QKA851996 QTW851996 RDS851996 RNO851996 RXK851996 SHG851996 SRC851996 TAY851996 TKU851996 TUQ851996 UEM851996 UOI851996 UYE851996 VIA851996 VRW851996 WBS851996 WLO851996 WVK851996 IY917532 SU917532 ACQ917532 AMM917532 AWI917532 BGE917532 BQA917532 BZW917532 CJS917532 CTO917532 DDK917532 DNG917532 DXC917532 EGY917532 EQU917532 FAQ917532 FKM917532 FUI917532 GEE917532 GOA917532 GXW917532 HHS917532 HRO917532 IBK917532 ILG917532 IVC917532 JEY917532 JOU917532 JYQ917532 KIM917532 KSI917532 LCE917532 LMA917532 LVW917532 MFS917532 MPO917532 MZK917532 NJG917532 NTC917532 OCY917532 OMU917532 OWQ917532 PGM917532 PQI917532 QAE917532 QKA917532 QTW917532 RDS917532 RNO917532 RXK917532 SHG917532 SRC917532 TAY917532 TKU917532 TUQ917532 UEM917532 UOI917532 UYE917532 VIA917532 VRW917532 WBS917532 WLO917532 WVK917532 IY983068 SU983068 ACQ983068 AMM983068 AWI983068 BGE983068 BQA983068 BZW983068 CJS983068 CTO983068 DDK983068 DNG983068 DXC983068 EGY983068 EQU983068 FAQ983068 FKM983068 FUI983068 GEE983068 GOA983068 GXW983068 HHS983068 HRO983068 IBK983068 ILG983068 IVC983068 JEY983068 JOU983068 JYQ983068 KIM983068 KSI983068 LCE983068 LMA983068 LVW983068 MFS983068 MPO983068 MZK983068 NJG983068 NTC983068 OCY983068 OMU983068 OWQ983068 PGM983068 PQI983068 QAE983068 QKA983068 QTW983068 RDS983068 RNO983068 RXK983068 SHG983068 SRC983068 TAY983068 TKU983068 TUQ983068 UEM983068 UOI983068 UYE983068 VIA983068 VRW983068 WBS983068 WLO983068 WVK983068 JB28 SX28 ACT28 AMP28 AWL28 BGH28 BQD28 BZZ28 CJV28 CTR28 DDN28 DNJ28 DXF28 EHB28 EQX28 FAT28 FKP28 FUL28 GEH28 GOD28 GXZ28 HHV28 HRR28 IBN28 ILJ28 IVF28 JFB28 JOX28 JYT28 KIP28 KSL28 LCH28 LMD28 LVZ28 MFV28 MPR28 MZN28 NJJ28 NTF28 ODB28 OMX28 OWT28 PGP28 PQL28 QAH28 QKD28 QTZ28 RDV28 RNR28 RXN28 SHJ28 SRF28 TBB28 TKX28 TUT28 UEP28 UOL28 UYH28 VID28 VRZ28 WBV28 WLR28 WVN28 JB65564 SX65564 ACT65564 AMP65564 AWL65564 BGH65564 BQD65564 BZZ65564 CJV65564 CTR65564 DDN65564 DNJ65564 DXF65564 EHB65564 EQX65564 FAT65564 FKP65564 FUL65564 GEH65564 GOD65564 GXZ65564 HHV65564 HRR65564 IBN65564 ILJ65564 IVF65564 JFB65564 JOX65564 JYT65564 KIP65564 KSL65564 LCH65564 LMD65564 LVZ65564 MFV65564 MPR65564 MZN65564 NJJ65564 NTF65564 ODB65564 OMX65564 OWT65564 PGP65564 PQL65564 QAH65564 QKD65564 QTZ65564 RDV65564 RNR65564 RXN65564 SHJ65564 SRF65564 TBB65564 TKX65564 TUT65564 UEP65564 UOL65564 UYH65564 VID65564 VRZ65564 WBV65564 WLR65564 WVN65564 JB131100 SX131100 ACT131100 AMP131100 AWL131100 BGH131100 BQD131100 BZZ131100 CJV131100 CTR131100 DDN131100 DNJ131100 DXF131100 EHB131100 EQX131100 FAT131100 FKP131100 FUL131100 GEH131100 GOD131100 GXZ131100 HHV131100 HRR131100 IBN131100 ILJ131100 IVF131100 JFB131100 JOX131100 JYT131100 KIP131100 KSL131100 LCH131100 LMD131100 LVZ131100 MFV131100 MPR131100 MZN131100 NJJ131100 NTF131100 ODB131100 OMX131100 OWT131100 PGP131100 PQL131100 QAH131100 QKD131100 QTZ131100 RDV131100 RNR131100 RXN131100 SHJ131100 SRF131100 TBB131100 TKX131100 TUT131100 UEP131100 UOL131100 UYH131100 VID131100 VRZ131100 WBV131100 WLR131100 WVN131100 JB196636 SX196636 ACT196636 AMP196636 AWL196636 BGH196636 BQD196636 BZZ196636 CJV196636 CTR196636 DDN196636 DNJ196636 DXF196636 EHB196636 EQX196636 FAT196636 FKP196636 FUL196636 GEH196636 GOD196636 GXZ196636 HHV196636 HRR196636 IBN196636 ILJ196636 IVF196636 JFB196636 JOX196636 JYT196636 KIP196636 KSL196636 LCH196636 LMD196636 LVZ196636 MFV196636 MPR196636 MZN196636 NJJ196636 NTF196636 ODB196636 OMX196636 OWT196636 PGP196636 PQL196636 QAH196636 QKD196636 QTZ196636 RDV196636 RNR196636 RXN196636 SHJ196636 SRF196636 TBB196636 TKX196636 TUT196636 UEP196636 UOL196636 UYH196636 VID196636 VRZ196636 WBV196636 WLR196636 WVN196636 JB262172 SX262172 ACT262172 AMP262172 AWL262172 BGH262172 BQD262172 BZZ262172 CJV262172 CTR262172 DDN262172 DNJ262172 DXF262172 EHB262172 EQX262172 FAT262172 FKP262172 FUL262172 GEH262172 GOD262172 GXZ262172 HHV262172 HRR262172 IBN262172 ILJ262172 IVF262172 JFB262172 JOX262172 JYT262172 KIP262172 KSL262172 LCH262172 LMD262172 LVZ262172 MFV262172 MPR262172 MZN262172 NJJ262172 NTF262172 ODB262172 OMX262172 OWT262172 PGP262172 PQL262172 QAH262172 QKD262172 QTZ262172 RDV262172 RNR262172 RXN262172 SHJ262172 SRF262172 TBB262172 TKX262172 TUT262172 UEP262172 UOL262172 UYH262172 VID262172 VRZ262172 WBV262172 WLR262172 WVN262172 JB327708 SX327708 ACT327708 AMP327708 AWL327708 BGH327708 BQD327708 BZZ327708 CJV327708 CTR327708 DDN327708 DNJ327708 DXF327708 EHB327708 EQX327708 FAT327708 FKP327708 FUL327708 GEH327708 GOD327708 GXZ327708 HHV327708 HRR327708 IBN327708 ILJ327708 IVF327708 JFB327708 JOX327708 JYT327708 KIP327708 KSL327708 LCH327708 LMD327708 LVZ327708 MFV327708 MPR327708 MZN327708 NJJ327708 NTF327708 ODB327708 OMX327708 OWT327708 PGP327708 PQL327708 QAH327708 QKD327708 QTZ327708 RDV327708 RNR327708 RXN327708 SHJ327708 SRF327708 TBB327708 TKX327708 TUT327708 UEP327708 UOL327708 UYH327708 VID327708 VRZ327708 WBV327708 WLR327708 WVN327708 JB393244 SX393244 ACT393244 AMP393244 AWL393244 BGH393244 BQD393244 BZZ393244 CJV393244 CTR393244 DDN393244 DNJ393244 DXF393244 EHB393244 EQX393244 FAT393244 FKP393244 FUL393244 GEH393244 GOD393244 GXZ393244 HHV393244 HRR393244 IBN393244 ILJ393244 IVF393244 JFB393244 JOX393244 JYT393244 KIP393244 KSL393244 LCH393244 LMD393244 LVZ393244 MFV393244 MPR393244 MZN393244 NJJ393244 NTF393244 ODB393244 OMX393244 OWT393244 PGP393244 PQL393244 QAH393244 QKD393244 QTZ393244 RDV393244 RNR393244 RXN393244 SHJ393244 SRF393244 TBB393244 TKX393244 TUT393244 UEP393244 UOL393244 UYH393244 VID393244 VRZ393244 WBV393244 WLR393244 WVN393244 JB458780 SX458780 ACT458780 AMP458780 AWL458780 BGH458780 BQD458780 BZZ458780 CJV458780 CTR458780 DDN458780 DNJ458780 DXF458780 EHB458780 EQX458780 FAT458780 FKP458780 FUL458780 GEH458780 GOD458780 GXZ458780 HHV458780 HRR458780 IBN458780 ILJ458780 IVF458780 JFB458780 JOX458780 JYT458780 KIP458780 KSL458780 LCH458780 LMD458780 LVZ458780 MFV458780 MPR458780 MZN458780 NJJ458780 NTF458780 ODB458780 OMX458780 OWT458780 PGP458780 PQL458780 QAH458780 QKD458780 QTZ458780 RDV458780 RNR458780 RXN458780 SHJ458780 SRF458780 TBB458780 TKX458780 TUT458780 UEP458780 UOL458780 UYH458780 VID458780 VRZ458780 WBV458780 WLR458780 WVN458780 JB524316 SX524316 ACT524316 AMP524316 AWL524316 BGH524316 BQD524316 BZZ524316 CJV524316 CTR524316 DDN524316 DNJ524316 DXF524316 EHB524316 EQX524316 FAT524316 FKP524316 FUL524316 GEH524316 GOD524316 GXZ524316 HHV524316 HRR524316 IBN524316 ILJ524316 IVF524316 JFB524316 JOX524316 JYT524316 KIP524316 KSL524316 LCH524316 LMD524316 LVZ524316 MFV524316 MPR524316 MZN524316 NJJ524316 NTF524316 ODB524316 OMX524316 OWT524316 PGP524316 PQL524316 QAH524316 QKD524316 QTZ524316 RDV524316 RNR524316 RXN524316 SHJ524316 SRF524316 TBB524316 TKX524316 TUT524316 UEP524316 UOL524316 UYH524316 VID524316 VRZ524316 WBV524316 WLR524316 WVN524316 JB589852 SX589852 ACT589852 AMP589852 AWL589852 BGH589852 BQD589852 BZZ589852 CJV589852 CTR589852 DDN589852 DNJ589852 DXF589852 EHB589852 EQX589852 FAT589852 FKP589852 FUL589852 GEH589852 GOD589852 GXZ589852 HHV589852 HRR589852 IBN589852 ILJ589852 IVF589852 JFB589852 JOX589852 JYT589852 KIP589852 KSL589852 LCH589852 LMD589852 LVZ589852 MFV589852 MPR589852 MZN589852 NJJ589852 NTF589852 ODB589852 OMX589852 OWT589852 PGP589852 PQL589852 QAH589852 QKD589852 QTZ589852 RDV589852 RNR589852 RXN589852 SHJ589852 SRF589852 TBB589852 TKX589852 TUT589852 UEP589852 UOL589852 UYH589852 VID589852 VRZ589852 WBV589852 WLR589852 WVN589852 JB655388 SX655388 ACT655388 AMP655388 AWL655388 BGH655388 BQD655388 BZZ655388 CJV655388 CTR655388 DDN655388 DNJ655388 DXF655388 EHB655388 EQX655388 FAT655388 FKP655388 FUL655388 GEH655388 GOD655388 GXZ655388 HHV655388 HRR655388 IBN655388 ILJ655388 IVF655388 JFB655388 JOX655388 JYT655388 KIP655388 KSL655388 LCH655388 LMD655388 LVZ655388 MFV655388 MPR655388 MZN655388 NJJ655388 NTF655388 ODB655388 OMX655388 OWT655388 PGP655388 PQL655388 QAH655388 QKD655388 QTZ655388 RDV655388 RNR655388 RXN655388 SHJ655388 SRF655388 TBB655388 TKX655388 TUT655388 UEP655388 UOL655388 UYH655388 VID655388 VRZ655388 WBV655388 WLR655388 WVN655388 JB720924 SX720924 ACT720924 AMP720924 AWL720924 BGH720924 BQD720924 BZZ720924 CJV720924 CTR720924 DDN720924 DNJ720924 DXF720924 EHB720924 EQX720924 FAT720924 FKP720924 FUL720924 GEH720924 GOD720924 GXZ720924 HHV720924 HRR720924 IBN720924 ILJ720924 IVF720924 JFB720924 JOX720924 JYT720924 KIP720924 KSL720924 LCH720924 LMD720924 LVZ720924 MFV720924 MPR720924 MZN720924 NJJ720924 NTF720924 ODB720924 OMX720924 OWT720924 PGP720924 PQL720924 QAH720924 QKD720924 QTZ720924 RDV720924 RNR720924 RXN720924 SHJ720924 SRF720924 TBB720924 TKX720924 TUT720924 UEP720924 UOL720924 UYH720924 VID720924 VRZ720924 WBV720924 WLR720924 WVN720924 JB786460 SX786460 ACT786460 AMP786460 AWL786460 BGH786460 BQD786460 BZZ786460 CJV786460 CTR786460 DDN786460 DNJ786460 DXF786460 EHB786460 EQX786460 FAT786460 FKP786460 FUL786460 GEH786460 GOD786460 GXZ786460 HHV786460 HRR786460 IBN786460 ILJ786460 IVF786460 JFB786460 JOX786460 JYT786460 KIP786460 KSL786460 LCH786460 LMD786460 LVZ786460 MFV786460 MPR786460 MZN786460 NJJ786460 NTF786460 ODB786460 OMX786460 OWT786460 PGP786460 PQL786460 QAH786460 QKD786460 QTZ786460 RDV786460 RNR786460 RXN786460 SHJ786460 SRF786460 TBB786460 TKX786460 TUT786460 UEP786460 UOL786460 UYH786460 VID786460 VRZ786460 WBV786460 WLR786460 WVN786460 JB851996 SX851996 ACT851996 AMP851996 AWL851996 BGH851996 BQD851996 BZZ851996 CJV851996 CTR851996 DDN851996 DNJ851996 DXF851996 EHB851996 EQX851996 FAT851996 FKP851996 FUL851996 GEH851996 GOD851996 GXZ851996 HHV851996 HRR851996 IBN851996 ILJ851996 IVF851996 JFB851996 JOX851996 JYT851996 KIP851996 KSL851996 LCH851996 LMD851996 LVZ851996 MFV851996 MPR851996 MZN851996 NJJ851996 NTF851996 ODB851996 OMX851996 OWT851996 PGP851996 PQL851996 QAH851996 QKD851996 QTZ851996 RDV851996 RNR851996 RXN851996 SHJ851996 SRF851996 TBB851996 TKX851996 TUT851996 UEP851996 UOL851996 UYH851996 VID851996 VRZ851996 WBV851996 WLR851996 WVN851996 JB917532 SX917532 ACT917532 AMP917532 AWL917532 BGH917532 BQD917532 BZZ917532 CJV917532 CTR917532 DDN917532 DNJ917532 DXF917532 EHB917532 EQX917532 FAT917532 FKP917532 FUL917532 GEH917532 GOD917532 GXZ917532 HHV917532 HRR917532 IBN917532 ILJ917532 IVF917532 JFB917532 JOX917532 JYT917532 KIP917532 KSL917532 LCH917532 LMD917532 LVZ917532 MFV917532 MPR917532 MZN917532 NJJ917532 NTF917532 ODB917532 OMX917532 OWT917532 PGP917532 PQL917532 QAH917532 QKD917532 QTZ917532 RDV917532 RNR917532 RXN917532 SHJ917532 SRF917532 TBB917532 TKX917532 TUT917532 UEP917532 UOL917532 UYH917532 VID917532 VRZ917532 WBV917532 WLR917532 WVN917532 JB983068 SX983068 ACT983068 AMP983068 AWL983068 BGH983068 BQD983068 BZZ983068 CJV983068 CTR983068 DDN983068 DNJ983068 DXF983068 EHB983068 EQX983068 FAT983068 FKP983068 FUL983068 GEH983068 GOD983068 GXZ983068 HHV983068 HRR983068 IBN983068 ILJ983068 IVF983068 JFB983068 JOX983068 JYT983068 KIP983068 KSL983068 LCH983068 LMD983068 LVZ983068 MFV983068 MPR983068 MZN983068 NJJ983068 NTF983068 ODB983068 OMX983068 OWT983068 PGP983068 PQL983068 QAH983068 QKD983068 QTZ983068 RDV983068 RNR983068 RXN983068 SHJ983068 SRF983068 TBB983068 TKX983068 TUT983068 UEP983068 UOL983068 UYH983068 VID983068 VRZ983068 WBV983068 WLR983068 WVN983068 F983065 F917529 F851993 F786457 F720921 F655385 F589849 F524313 F458777 F393241 F327705 F262169 F196633 F131097 F65561 C983065 C917529 C851993 C786457 C720921 C655385 C589849 C524313 C458777 C393241 C327705 C262169 C196633 C131097 C65561">
       <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" sqref="C11 IY11 SU11 ACQ11 AMM11 AWI11 BGE11 BQA11 BZW11 CJS11 CTO11 DDK11 DNG11 DXC11 EGY11 EQU11 FAQ11 FKM11 FUI11 GEE11 GOA11 GXW11 HHS11 HRO11 IBK11 ILG11 IVC11 JEY11 JOU11 JYQ11 KIM11 KSI11 LCE11 LMA11 LVW11 MFS11 MPO11 MZK11 NJG11 NTC11 OCY11 OMU11 OWQ11 PGM11 PQI11 QAE11 QKA11 QTW11 RDS11 RNO11 RXK11 SHG11 SRC11 TAY11 TKU11 TUQ11 UEM11 UOI11 UYE11 VIA11 VRW11 WBS11 WLO11 WVK11 C65547 IY65547 SU65547 ACQ65547 AMM65547 AWI65547 BGE65547 BQA65547 BZW65547 CJS65547 CTO65547 DDK65547 DNG65547 DXC65547 EGY65547 EQU65547 FAQ65547 FKM65547 FUI65547 GEE65547 GOA65547 GXW65547 HHS65547 HRO65547 IBK65547 ILG65547 IVC65547 JEY65547 JOU65547 JYQ65547 KIM65547 KSI65547 LCE65547 LMA65547 LVW65547 MFS65547 MPO65547 MZK65547 NJG65547 NTC65547 OCY65547 OMU65547 OWQ65547 PGM65547 PQI65547 QAE65547 QKA65547 QTW65547 RDS65547 RNO65547 RXK65547 SHG65547 SRC65547 TAY65547 TKU65547 TUQ65547 UEM65547 UOI65547 UYE65547 VIA65547 VRW65547 WBS65547 WLO65547 WVK65547 C131083 IY131083 SU131083 ACQ131083 AMM131083 AWI131083 BGE131083 BQA131083 BZW131083 CJS131083 CTO131083 DDK131083 DNG131083 DXC131083 EGY131083 EQU131083 FAQ131083 FKM131083 FUI131083 GEE131083 GOA131083 GXW131083 HHS131083 HRO131083 IBK131083 ILG131083 IVC131083 JEY131083 JOU131083 JYQ131083 KIM131083 KSI131083 LCE131083 LMA131083 LVW131083 MFS131083 MPO131083 MZK131083 NJG131083 NTC131083 OCY131083 OMU131083 OWQ131083 PGM131083 PQI131083 QAE131083 QKA131083 QTW131083 RDS131083 RNO131083 RXK131083 SHG131083 SRC131083 TAY131083 TKU131083 TUQ131083 UEM131083 UOI131083 UYE131083 VIA131083 VRW131083 WBS131083 WLO131083 WVK131083 C196619 IY196619 SU196619 ACQ196619 AMM196619 AWI196619 BGE196619 BQA196619 BZW196619 CJS196619 CTO196619 DDK196619 DNG196619 DXC196619 EGY196619 EQU196619 FAQ196619 FKM196619 FUI196619 GEE196619 GOA196619 GXW196619 HHS196619 HRO196619 IBK196619 ILG196619 IVC196619 JEY196619 JOU196619 JYQ196619 KIM196619 KSI196619 LCE196619 LMA196619 LVW196619 MFS196619 MPO196619 MZK196619 NJG196619 NTC196619 OCY196619 OMU196619 OWQ196619 PGM196619 PQI196619 QAE196619 QKA196619 QTW196619 RDS196619 RNO196619 RXK196619 SHG196619 SRC196619 TAY196619 TKU196619 TUQ196619 UEM196619 UOI196619 UYE196619 VIA196619 VRW196619 WBS196619 WLO196619 WVK196619 C262155 IY262155 SU262155 ACQ262155 AMM262155 AWI262155 BGE262155 BQA262155 BZW262155 CJS262155 CTO262155 DDK262155 DNG262155 DXC262155 EGY262155 EQU262155 FAQ262155 FKM262155 FUI262155 GEE262155 GOA262155 GXW262155 HHS262155 HRO262155 IBK262155 ILG262155 IVC262155 JEY262155 JOU262155 JYQ262155 KIM262155 KSI262155 LCE262155 LMA262155 LVW262155 MFS262155 MPO262155 MZK262155 NJG262155 NTC262155 OCY262155 OMU262155 OWQ262155 PGM262155 PQI262155 QAE262155 QKA262155 QTW262155 RDS262155 RNO262155 RXK262155 SHG262155 SRC262155 TAY262155 TKU262155 TUQ262155 UEM262155 UOI262155 UYE262155 VIA262155 VRW262155 WBS262155 WLO262155 WVK262155 C327691 IY327691 SU327691 ACQ327691 AMM327691 AWI327691 BGE327691 BQA327691 BZW327691 CJS327691 CTO327691 DDK327691 DNG327691 DXC327691 EGY327691 EQU327691 FAQ327691 FKM327691 FUI327691 GEE327691 GOA327691 GXW327691 HHS327691 HRO327691 IBK327691 ILG327691 IVC327691 JEY327691 JOU327691 JYQ327691 KIM327691 KSI327691 LCE327691 LMA327691 LVW327691 MFS327691 MPO327691 MZK327691 NJG327691 NTC327691 OCY327691 OMU327691 OWQ327691 PGM327691 PQI327691 QAE327691 QKA327691 QTW327691 RDS327691 RNO327691 RXK327691 SHG327691 SRC327691 TAY327691 TKU327691 TUQ327691 UEM327691 UOI327691 UYE327691 VIA327691 VRW327691 WBS327691 WLO327691 WVK327691 C393227 IY393227 SU393227 ACQ393227 AMM393227 AWI393227 BGE393227 BQA393227 BZW393227 CJS393227 CTO393227 DDK393227 DNG393227 DXC393227 EGY393227 EQU393227 FAQ393227 FKM393227 FUI393227 GEE393227 GOA393227 GXW393227 HHS393227 HRO393227 IBK393227 ILG393227 IVC393227 JEY393227 JOU393227 JYQ393227 KIM393227 KSI393227 LCE393227 LMA393227 LVW393227 MFS393227 MPO393227 MZK393227 NJG393227 NTC393227 OCY393227 OMU393227 OWQ393227 PGM393227 PQI393227 QAE393227 QKA393227 QTW393227 RDS393227 RNO393227 RXK393227 SHG393227 SRC393227 TAY393227 TKU393227 TUQ393227 UEM393227 UOI393227 UYE393227 VIA393227 VRW393227 WBS393227 WLO393227 WVK393227 C458763 IY458763 SU458763 ACQ458763 AMM458763 AWI458763 BGE458763 BQA458763 BZW458763 CJS458763 CTO458763 DDK458763 DNG458763 DXC458763 EGY458763 EQU458763 FAQ458763 FKM458763 FUI458763 GEE458763 GOA458763 GXW458763 HHS458763 HRO458763 IBK458763 ILG458763 IVC458763 JEY458763 JOU458763 JYQ458763 KIM458763 KSI458763 LCE458763 LMA458763 LVW458763 MFS458763 MPO458763 MZK458763 NJG458763 NTC458763 OCY458763 OMU458763 OWQ458763 PGM458763 PQI458763 QAE458763 QKA458763 QTW458763 RDS458763 RNO458763 RXK458763 SHG458763 SRC458763 TAY458763 TKU458763 TUQ458763 UEM458763 UOI458763 UYE458763 VIA458763 VRW458763 WBS458763 WLO458763 WVK458763 C524299 IY524299 SU524299 ACQ524299 AMM524299 AWI524299 BGE524299 BQA524299 BZW524299 CJS524299 CTO524299 DDK524299 DNG524299 DXC524299 EGY524299 EQU524299 FAQ524299 FKM524299 FUI524299 GEE524299 GOA524299 GXW524299 HHS524299 HRO524299 IBK524299 ILG524299 IVC524299 JEY524299 JOU524299 JYQ524299 KIM524299 KSI524299 LCE524299 LMA524299 LVW524299 MFS524299 MPO524299 MZK524299 NJG524299 NTC524299 OCY524299 OMU524299 OWQ524299 PGM524299 PQI524299 QAE524299 QKA524299 QTW524299 RDS524299 RNO524299 RXK524299 SHG524299 SRC524299 TAY524299 TKU524299 TUQ524299 UEM524299 UOI524299 UYE524299 VIA524299 VRW524299 WBS524299 WLO524299 WVK524299 C589835 IY589835 SU589835 ACQ589835 AMM589835 AWI589835 BGE589835 BQA589835 BZW589835 CJS589835 CTO589835 DDK589835 DNG589835 DXC589835 EGY589835 EQU589835 FAQ589835 FKM589835 FUI589835 GEE589835 GOA589835 GXW589835 HHS589835 HRO589835 IBK589835 ILG589835 IVC589835 JEY589835 JOU589835 JYQ589835 KIM589835 KSI589835 LCE589835 LMA589835 LVW589835 MFS589835 MPO589835 MZK589835 NJG589835 NTC589835 OCY589835 OMU589835 OWQ589835 PGM589835 PQI589835 QAE589835 QKA589835 QTW589835 RDS589835 RNO589835 RXK589835 SHG589835 SRC589835 TAY589835 TKU589835 TUQ589835 UEM589835 UOI589835 UYE589835 VIA589835 VRW589835 WBS589835 WLO589835 WVK589835 C655371 IY655371 SU655371 ACQ655371 AMM655371 AWI655371 BGE655371 BQA655371 BZW655371 CJS655371 CTO655371 DDK655371 DNG655371 DXC655371 EGY655371 EQU655371 FAQ655371 FKM655371 FUI655371 GEE655371 GOA655371 GXW655371 HHS655371 HRO655371 IBK655371 ILG655371 IVC655371 JEY655371 JOU655371 JYQ655371 KIM655371 KSI655371 LCE655371 LMA655371 LVW655371 MFS655371 MPO655371 MZK655371 NJG655371 NTC655371 OCY655371 OMU655371 OWQ655371 PGM655371 PQI655371 QAE655371 QKA655371 QTW655371 RDS655371 RNO655371 RXK655371 SHG655371 SRC655371 TAY655371 TKU655371 TUQ655371 UEM655371 UOI655371 UYE655371 VIA655371 VRW655371 WBS655371 WLO655371 WVK655371 C720907 IY720907 SU720907 ACQ720907 AMM720907 AWI720907 BGE720907 BQA720907 BZW720907 CJS720907 CTO720907 DDK720907 DNG720907 DXC720907 EGY720907 EQU720907 FAQ720907 FKM720907 FUI720907 GEE720907 GOA720907 GXW720907 HHS720907 HRO720907 IBK720907 ILG720907 IVC720907 JEY720907 JOU720907 JYQ720907 KIM720907 KSI720907 LCE720907 LMA720907 LVW720907 MFS720907 MPO720907 MZK720907 NJG720907 NTC720907 OCY720907 OMU720907 OWQ720907 PGM720907 PQI720907 QAE720907 QKA720907 QTW720907 RDS720907 RNO720907 RXK720907 SHG720907 SRC720907 TAY720907 TKU720907 TUQ720907 UEM720907 UOI720907 UYE720907 VIA720907 VRW720907 WBS720907 WLO720907 WVK720907 C786443 IY786443 SU786443 ACQ786443 AMM786443 AWI786443 BGE786443 BQA786443 BZW786443 CJS786443 CTO786443 DDK786443 DNG786443 DXC786443 EGY786443 EQU786443 FAQ786443 FKM786443 FUI786443 GEE786443 GOA786443 GXW786443 HHS786443 HRO786443 IBK786443 ILG786443 IVC786443 JEY786443 JOU786443 JYQ786443 KIM786443 KSI786443 LCE786443 LMA786443 LVW786443 MFS786443 MPO786443 MZK786443 NJG786443 NTC786443 OCY786443 OMU786443 OWQ786443 PGM786443 PQI786443 QAE786443 QKA786443 QTW786443 RDS786443 RNO786443 RXK786443 SHG786443 SRC786443 TAY786443 TKU786443 TUQ786443 UEM786443 UOI786443 UYE786443 VIA786443 VRW786443 WBS786443 WLO786443 WVK786443 C851979 IY851979 SU851979 ACQ851979 AMM851979 AWI851979 BGE851979 BQA851979 BZW851979 CJS851979 CTO851979 DDK851979 DNG851979 DXC851979 EGY851979 EQU851979 FAQ851979 FKM851979 FUI851979 GEE851979 GOA851979 GXW851979 HHS851979 HRO851979 IBK851979 ILG851979 IVC851979 JEY851979 JOU851979 JYQ851979 KIM851979 KSI851979 LCE851979 LMA851979 LVW851979 MFS851979 MPO851979 MZK851979 NJG851979 NTC851979 OCY851979 OMU851979 OWQ851979 PGM851979 PQI851979 QAE851979 QKA851979 QTW851979 RDS851979 RNO851979 RXK851979 SHG851979 SRC851979 TAY851979 TKU851979 TUQ851979 UEM851979 UOI851979 UYE851979 VIA851979 VRW851979 WBS851979 WLO851979 WVK851979 C917515 IY917515 SU917515 ACQ917515 AMM917515 AWI917515 BGE917515 BQA917515 BZW917515 CJS917515 CTO917515 DDK917515 DNG917515 DXC917515 EGY917515 EQU917515 FAQ917515 FKM917515 FUI917515 GEE917515 GOA917515 GXW917515 HHS917515 HRO917515 IBK917515 ILG917515 IVC917515 JEY917515 JOU917515 JYQ917515 KIM917515 KSI917515 LCE917515 LMA917515 LVW917515 MFS917515 MPO917515 MZK917515 NJG917515 NTC917515 OCY917515 OMU917515 OWQ917515 PGM917515 PQI917515 QAE917515 QKA917515 QTW917515 RDS917515 RNO917515 RXK917515 SHG917515 SRC917515 TAY917515 TKU917515 TUQ917515 UEM917515 UOI917515 UYE917515 VIA917515 VRW917515 WBS917515 WLO917515 WVK917515 C983051 IY983051 SU983051 ACQ983051 AMM983051 AWI983051 BGE983051 BQA983051 BZW983051 CJS983051 CTO983051 DDK983051 DNG983051 DXC983051 EGY983051 EQU983051 FAQ983051 FKM983051 FUI983051 GEE983051 GOA983051 GXW983051 HHS983051 HRO983051 IBK983051 ILG983051 IVC983051 JEY983051 JOU983051 JYQ983051 KIM983051 KSI983051 LCE983051 LMA983051 LVW983051 MFS983051 MPO983051 MZK983051 NJG983051 NTC983051 OCY983051 OMU983051 OWQ983051 PGM983051 PQI983051 QAE983051 QKA983051 QTW983051 RDS983051 RNO983051 RXK983051 SHG983051 SRC983051 TAY983051 TKU983051 TUQ983051 UEM983051 UOI983051 UYE983051 VIA983051 VRW983051 WBS983051 WLO983051 WVK983051 F11 JB11 SX11 ACT11 AMP11 AWL11 BGH11 BQD11 BZZ11 CJV11 CTR11 DDN11 DNJ11 DXF11 EHB11 EQX11 FAT11 FKP11 FUL11 GEH11 GOD11 GXZ11 HHV11 HRR11 IBN11 ILJ11 IVF11 JFB11 JOX11 JYT11 KIP11 KSL11 LCH11 LMD11 LVZ11 MFV11 MPR11 MZN11 NJJ11 NTF11 ODB11 OMX11 OWT11 PGP11 PQL11 QAH11 QKD11 QTZ11 RDV11 RNR11 RXN11 SHJ11 SRF11 TBB11 TKX11 TUT11 UEP11 UOL11 UYH11 VID11 VRZ11 WBV11 WLR11 WVN11 F65547 JB65547 SX65547 ACT65547 AMP65547 AWL65547 BGH65547 BQD65547 BZZ65547 CJV65547 CTR65547 DDN65547 DNJ65547 DXF65547 EHB65547 EQX65547 FAT65547 FKP65547 FUL65547 GEH65547 GOD65547 GXZ65547 HHV65547 HRR65547 IBN65547 ILJ65547 IVF65547 JFB65547 JOX65547 JYT65547 KIP65547 KSL65547 LCH65547 LMD65547 LVZ65547 MFV65547 MPR65547 MZN65547 NJJ65547 NTF65547 ODB65547 OMX65547 OWT65547 PGP65547 PQL65547 QAH65547 QKD65547 QTZ65547 RDV65547 RNR65547 RXN65547 SHJ65547 SRF65547 TBB65547 TKX65547 TUT65547 UEP65547 UOL65547 UYH65547 VID65547 VRZ65547 WBV65547 WLR65547 WVN65547 F131083 JB131083 SX131083 ACT131083 AMP131083 AWL131083 BGH131083 BQD131083 BZZ131083 CJV131083 CTR131083 DDN131083 DNJ131083 DXF131083 EHB131083 EQX131083 FAT131083 FKP131083 FUL131083 GEH131083 GOD131083 GXZ131083 HHV131083 HRR131083 IBN131083 ILJ131083 IVF131083 JFB131083 JOX131083 JYT131083 KIP131083 KSL131083 LCH131083 LMD131083 LVZ131083 MFV131083 MPR131083 MZN131083 NJJ131083 NTF131083 ODB131083 OMX131083 OWT131083 PGP131083 PQL131083 QAH131083 QKD131083 QTZ131083 RDV131083 RNR131083 RXN131083 SHJ131083 SRF131083 TBB131083 TKX131083 TUT131083 UEP131083 UOL131083 UYH131083 VID131083 VRZ131083 WBV131083 WLR131083 WVN131083 F196619 JB196619 SX196619 ACT196619 AMP196619 AWL196619 BGH196619 BQD196619 BZZ196619 CJV196619 CTR196619 DDN196619 DNJ196619 DXF196619 EHB196619 EQX196619 FAT196619 FKP196619 FUL196619 GEH196619 GOD196619 GXZ196619 HHV196619 HRR196619 IBN196619 ILJ196619 IVF196619 JFB196619 JOX196619 JYT196619 KIP196619 KSL196619 LCH196619 LMD196619 LVZ196619 MFV196619 MPR196619 MZN196619 NJJ196619 NTF196619 ODB196619 OMX196619 OWT196619 PGP196619 PQL196619 QAH196619 QKD196619 QTZ196619 RDV196619 RNR196619 RXN196619 SHJ196619 SRF196619 TBB196619 TKX196619 TUT196619 UEP196619 UOL196619 UYH196619 VID196619 VRZ196619 WBV196619 WLR196619 WVN196619 F262155 JB262155 SX262155 ACT262155 AMP262155 AWL262155 BGH262155 BQD262155 BZZ262155 CJV262155 CTR262155 DDN262155 DNJ262155 DXF262155 EHB262155 EQX262155 FAT262155 FKP262155 FUL262155 GEH262155 GOD262155 GXZ262155 HHV262155 HRR262155 IBN262155 ILJ262155 IVF262155 JFB262155 JOX262155 JYT262155 KIP262155 KSL262155 LCH262155 LMD262155 LVZ262155 MFV262155 MPR262155 MZN262155 NJJ262155 NTF262155 ODB262155 OMX262155 OWT262155 PGP262155 PQL262155 QAH262155 QKD262155 QTZ262155 RDV262155 RNR262155 RXN262155 SHJ262155 SRF262155 TBB262155 TKX262155 TUT262155 UEP262155 UOL262155 UYH262155 VID262155 VRZ262155 WBV262155 WLR262155 WVN262155 F327691 JB327691 SX327691 ACT327691 AMP327691 AWL327691 BGH327691 BQD327691 BZZ327691 CJV327691 CTR327691 DDN327691 DNJ327691 DXF327691 EHB327691 EQX327691 FAT327691 FKP327691 FUL327691 GEH327691 GOD327691 GXZ327691 HHV327691 HRR327691 IBN327691 ILJ327691 IVF327691 JFB327691 JOX327691 JYT327691 KIP327691 KSL327691 LCH327691 LMD327691 LVZ327691 MFV327691 MPR327691 MZN327691 NJJ327691 NTF327691 ODB327691 OMX327691 OWT327691 PGP327691 PQL327691 QAH327691 QKD327691 QTZ327691 RDV327691 RNR327691 RXN327691 SHJ327691 SRF327691 TBB327691 TKX327691 TUT327691 UEP327691 UOL327691 UYH327691 VID327691 VRZ327691 WBV327691 WLR327691 WVN327691 F393227 JB393227 SX393227 ACT393227 AMP393227 AWL393227 BGH393227 BQD393227 BZZ393227 CJV393227 CTR393227 DDN393227 DNJ393227 DXF393227 EHB393227 EQX393227 FAT393227 FKP393227 FUL393227 GEH393227 GOD393227 GXZ393227 HHV393227 HRR393227 IBN393227 ILJ393227 IVF393227 JFB393227 JOX393227 JYT393227 KIP393227 KSL393227 LCH393227 LMD393227 LVZ393227 MFV393227 MPR393227 MZN393227 NJJ393227 NTF393227 ODB393227 OMX393227 OWT393227 PGP393227 PQL393227 QAH393227 QKD393227 QTZ393227 RDV393227 RNR393227 RXN393227 SHJ393227 SRF393227 TBB393227 TKX393227 TUT393227 UEP393227 UOL393227 UYH393227 VID393227 VRZ393227 WBV393227 WLR393227 WVN393227 F458763 JB458763 SX458763 ACT458763 AMP458763 AWL458763 BGH458763 BQD458763 BZZ458763 CJV458763 CTR458763 DDN458763 DNJ458763 DXF458763 EHB458763 EQX458763 FAT458763 FKP458763 FUL458763 GEH458763 GOD458763 GXZ458763 HHV458763 HRR458763 IBN458763 ILJ458763 IVF458763 JFB458763 JOX458763 JYT458763 KIP458763 KSL458763 LCH458763 LMD458763 LVZ458763 MFV458763 MPR458763 MZN458763 NJJ458763 NTF458763 ODB458763 OMX458763 OWT458763 PGP458763 PQL458763 QAH458763 QKD458763 QTZ458763 RDV458763 RNR458763 RXN458763 SHJ458763 SRF458763 TBB458763 TKX458763 TUT458763 UEP458763 UOL458763 UYH458763 VID458763 VRZ458763 WBV458763 WLR458763 WVN458763 F524299 JB524299 SX524299 ACT524299 AMP524299 AWL524299 BGH524299 BQD524299 BZZ524299 CJV524299 CTR524299 DDN524299 DNJ524299 DXF524299 EHB524299 EQX524299 FAT524299 FKP524299 FUL524299 GEH524299 GOD524299 GXZ524299 HHV524299 HRR524299 IBN524299 ILJ524299 IVF524299 JFB524299 JOX524299 JYT524299 KIP524299 KSL524299 LCH524299 LMD524299 LVZ524299 MFV524299 MPR524299 MZN524299 NJJ524299 NTF524299 ODB524299 OMX524299 OWT524299 PGP524299 PQL524299 QAH524299 QKD524299 QTZ524299 RDV524299 RNR524299 RXN524299 SHJ524299 SRF524299 TBB524299 TKX524299 TUT524299 UEP524299 UOL524299 UYH524299 VID524299 VRZ524299 WBV524299 WLR524299 WVN524299 F589835 JB589835 SX589835 ACT589835 AMP589835 AWL589835 BGH589835 BQD589835 BZZ589835 CJV589835 CTR589835 DDN589835 DNJ589835 DXF589835 EHB589835 EQX589835 FAT589835 FKP589835 FUL589835 GEH589835 GOD589835 GXZ589835 HHV589835 HRR589835 IBN589835 ILJ589835 IVF589835 JFB589835 JOX589835 JYT589835 KIP589835 KSL589835 LCH589835 LMD589835 LVZ589835 MFV589835 MPR589835 MZN589835 NJJ589835 NTF589835 ODB589835 OMX589835 OWT589835 PGP589835 PQL589835 QAH589835 QKD589835 QTZ589835 RDV589835 RNR589835 RXN589835 SHJ589835 SRF589835 TBB589835 TKX589835 TUT589835 UEP589835 UOL589835 UYH589835 VID589835 VRZ589835 WBV589835 WLR589835 WVN589835 F655371 JB655371 SX655371 ACT655371 AMP655371 AWL655371 BGH655371 BQD655371 BZZ655371 CJV655371 CTR655371 DDN655371 DNJ655371 DXF655371 EHB655371 EQX655371 FAT655371 FKP655371 FUL655371 GEH655371 GOD655371 GXZ655371 HHV655371 HRR655371 IBN655371 ILJ655371 IVF655371 JFB655371 JOX655371 JYT655371 KIP655371 KSL655371 LCH655371 LMD655371 LVZ655371 MFV655371 MPR655371 MZN655371 NJJ655371 NTF655371 ODB655371 OMX655371 OWT655371 PGP655371 PQL655371 QAH655371 QKD655371 QTZ655371 RDV655371 RNR655371 RXN655371 SHJ655371 SRF655371 TBB655371 TKX655371 TUT655371 UEP655371 UOL655371 UYH655371 VID655371 VRZ655371 WBV655371 WLR655371 WVN655371 F720907 JB720907 SX720907 ACT720907 AMP720907 AWL720907 BGH720907 BQD720907 BZZ720907 CJV720907 CTR720907 DDN720907 DNJ720907 DXF720907 EHB720907 EQX720907 FAT720907 FKP720907 FUL720907 GEH720907 GOD720907 GXZ720907 HHV720907 HRR720907 IBN720907 ILJ720907 IVF720907 JFB720907 JOX720907 JYT720907 KIP720907 KSL720907 LCH720907 LMD720907 LVZ720907 MFV720907 MPR720907 MZN720907 NJJ720907 NTF720907 ODB720907 OMX720907 OWT720907 PGP720907 PQL720907 QAH720907 QKD720907 QTZ720907 RDV720907 RNR720907 RXN720907 SHJ720907 SRF720907 TBB720907 TKX720907 TUT720907 UEP720907 UOL720907 UYH720907 VID720907 VRZ720907 WBV720907 WLR720907 WVN720907 F786443 JB786443 SX786443 ACT786443 AMP786443 AWL786443 BGH786443 BQD786443 BZZ786443 CJV786443 CTR786443 DDN786443 DNJ786443 DXF786443 EHB786443 EQX786443 FAT786443 FKP786443 FUL786443 GEH786443 GOD786443 GXZ786443 HHV786443 HRR786443 IBN786443 ILJ786443 IVF786443 JFB786443 JOX786443 JYT786443 KIP786443 KSL786443 LCH786443 LMD786443 LVZ786443 MFV786443 MPR786443 MZN786443 NJJ786443 NTF786443 ODB786443 OMX786443 OWT786443 PGP786443 PQL786443 QAH786443 QKD786443 QTZ786443 RDV786443 RNR786443 RXN786443 SHJ786443 SRF786443 TBB786443 TKX786443 TUT786443 UEP786443 UOL786443 UYH786443 VID786443 VRZ786443 WBV786443 WLR786443 WVN786443 F851979 JB851979 SX851979 ACT851979 AMP851979 AWL851979 BGH851979 BQD851979 BZZ851979 CJV851979 CTR851979 DDN851979 DNJ851979 DXF851979 EHB851979 EQX851979 FAT851979 FKP851979 FUL851979 GEH851979 GOD851979 GXZ851979 HHV851979 HRR851979 IBN851979 ILJ851979 IVF851979 JFB851979 JOX851979 JYT851979 KIP851979 KSL851979 LCH851979 LMD851979 LVZ851979 MFV851979 MPR851979 MZN851979 NJJ851979 NTF851979 ODB851979 OMX851979 OWT851979 PGP851979 PQL851979 QAH851979 QKD851979 QTZ851979 RDV851979 RNR851979 RXN851979 SHJ851979 SRF851979 TBB851979 TKX851979 TUT851979 UEP851979 UOL851979 UYH851979 VID851979 VRZ851979 WBV851979 WLR851979 WVN851979 F917515 JB917515 SX917515 ACT917515 AMP917515 AWL917515 BGH917515 BQD917515 BZZ917515 CJV917515 CTR917515 DDN917515 DNJ917515 DXF917515 EHB917515 EQX917515 FAT917515 FKP917515 FUL917515 GEH917515 GOD917515 GXZ917515 HHV917515 HRR917515 IBN917515 ILJ917515 IVF917515 JFB917515 JOX917515 JYT917515 KIP917515 KSL917515 LCH917515 LMD917515 LVZ917515 MFV917515 MPR917515 MZN917515 NJJ917515 NTF917515 ODB917515 OMX917515 OWT917515 PGP917515 PQL917515 QAH917515 QKD917515 QTZ917515 RDV917515 RNR917515 RXN917515 SHJ917515 SRF917515 TBB917515 TKX917515 TUT917515 UEP917515 UOL917515 UYH917515 VID917515 VRZ917515 WBV917515 WLR917515 WVN917515 F983051 JB983051 SX983051 ACT983051 AMP983051 AWL983051 BGH983051 BQD983051 BZZ983051 CJV983051 CTR983051 DDN983051 DNJ983051 DXF983051 EHB983051 EQX983051 FAT983051 FKP983051 FUL983051 GEH983051 GOD983051 GXZ983051 HHV983051 HRR983051 IBN983051 ILJ983051 IVF983051 JFB983051 JOX983051 JYT983051 KIP983051 KSL983051 LCH983051 LMD983051 LVZ983051 MFV983051 MPR983051 MZN983051 NJJ983051 NTF983051 ODB983051 OMX983051 OWT983051 PGP983051 PQL983051 QAH983051 QKD983051 QTZ983051 RDV983051 RNR983051 RXN983051 SHJ983051 SRF983051 TBB983051 TKX983051 TUT983051 UEP983051 UOL983051 UYH983051 VID983051 VRZ983051 WBV983051 WLR983051 WVN983051">
+    <dataValidation type="list" operator="equal" sqref="C9 F9 IY11 SU11 ACQ11 AMM11 AWI11 BGE11 BQA11 BZW11 CJS11 CTO11 DDK11 DNG11 DXC11 EGY11 EQU11 FAQ11 FKM11 FUI11 GEE11 GOA11 GXW11 HHS11 HRO11 IBK11 ILG11 IVC11 JEY11 JOU11 JYQ11 KIM11 KSI11 LCE11 LMA11 LVW11 MFS11 MPO11 MZK11 NJG11 NTC11 OCY11 OMU11 OWQ11 PGM11 PQI11 QAE11 QKA11 QTW11 RDS11 RNO11 RXK11 SHG11 SRC11 TAY11 TKU11 TUQ11 UEM11 UOI11 UYE11 VIA11 VRW11 WBS11 WLO11 WVK11 IY65547 SU65547 ACQ65547 AMM65547 AWI65547 BGE65547 BQA65547 BZW65547 CJS65547 CTO65547 DDK65547 DNG65547 DXC65547 EGY65547 EQU65547 FAQ65547 FKM65547 FUI65547 GEE65547 GOA65547 GXW65547 HHS65547 HRO65547 IBK65547 ILG65547 IVC65547 JEY65547 JOU65547 JYQ65547 KIM65547 KSI65547 LCE65547 LMA65547 LVW65547 MFS65547 MPO65547 MZK65547 NJG65547 NTC65547 OCY65547 OMU65547 OWQ65547 PGM65547 PQI65547 QAE65547 QKA65547 QTW65547 RDS65547 RNO65547 RXK65547 SHG65547 SRC65547 TAY65547 TKU65547 TUQ65547 UEM65547 UOI65547 UYE65547 VIA65547 VRW65547 WBS65547 WLO65547 WVK65547 IY131083 SU131083 ACQ131083 AMM131083 AWI131083 BGE131083 BQA131083 BZW131083 CJS131083 CTO131083 DDK131083 DNG131083 DXC131083 EGY131083 EQU131083 FAQ131083 FKM131083 FUI131083 GEE131083 GOA131083 GXW131083 HHS131083 HRO131083 IBK131083 ILG131083 IVC131083 JEY131083 JOU131083 JYQ131083 KIM131083 KSI131083 LCE131083 LMA131083 LVW131083 MFS131083 MPO131083 MZK131083 NJG131083 NTC131083 OCY131083 OMU131083 OWQ131083 PGM131083 PQI131083 QAE131083 QKA131083 QTW131083 RDS131083 RNO131083 RXK131083 SHG131083 SRC131083 TAY131083 TKU131083 TUQ131083 UEM131083 UOI131083 UYE131083 VIA131083 VRW131083 WBS131083 WLO131083 WVK131083 IY196619 SU196619 ACQ196619 AMM196619 AWI196619 BGE196619 BQA196619 BZW196619 CJS196619 CTO196619 DDK196619 DNG196619 DXC196619 EGY196619 EQU196619 FAQ196619 FKM196619 FUI196619 GEE196619 GOA196619 GXW196619 HHS196619 HRO196619 IBK196619 ILG196619 IVC196619 JEY196619 JOU196619 JYQ196619 KIM196619 KSI196619 LCE196619 LMA196619 LVW196619 MFS196619 MPO196619 MZK196619 NJG196619 NTC196619 OCY196619 OMU196619 OWQ196619 PGM196619 PQI196619 QAE196619 QKA196619 QTW196619 RDS196619 RNO196619 RXK196619 SHG196619 SRC196619 TAY196619 TKU196619 TUQ196619 UEM196619 UOI196619 UYE196619 VIA196619 VRW196619 WBS196619 WLO196619 WVK196619 IY262155 SU262155 ACQ262155 AMM262155 AWI262155 BGE262155 BQA262155 BZW262155 CJS262155 CTO262155 DDK262155 DNG262155 DXC262155 EGY262155 EQU262155 FAQ262155 FKM262155 FUI262155 GEE262155 GOA262155 GXW262155 HHS262155 HRO262155 IBK262155 ILG262155 IVC262155 JEY262155 JOU262155 JYQ262155 KIM262155 KSI262155 LCE262155 LMA262155 LVW262155 MFS262155 MPO262155 MZK262155 NJG262155 NTC262155 OCY262155 OMU262155 OWQ262155 PGM262155 PQI262155 QAE262155 QKA262155 QTW262155 RDS262155 RNO262155 RXK262155 SHG262155 SRC262155 TAY262155 TKU262155 TUQ262155 UEM262155 UOI262155 UYE262155 VIA262155 VRW262155 WBS262155 WLO262155 WVK262155 IY327691 SU327691 ACQ327691 AMM327691 AWI327691 BGE327691 BQA327691 BZW327691 CJS327691 CTO327691 DDK327691 DNG327691 DXC327691 EGY327691 EQU327691 FAQ327691 FKM327691 FUI327691 GEE327691 GOA327691 GXW327691 HHS327691 HRO327691 IBK327691 ILG327691 IVC327691 JEY327691 JOU327691 JYQ327691 KIM327691 KSI327691 LCE327691 LMA327691 LVW327691 MFS327691 MPO327691 MZK327691 NJG327691 NTC327691 OCY327691 OMU327691 OWQ327691 PGM327691 PQI327691 QAE327691 QKA327691 QTW327691 RDS327691 RNO327691 RXK327691 SHG327691 SRC327691 TAY327691 TKU327691 TUQ327691 UEM327691 UOI327691 UYE327691 VIA327691 VRW327691 WBS327691 WLO327691 WVK327691 IY393227 SU393227 ACQ393227 AMM393227 AWI393227 BGE393227 BQA393227 BZW393227 CJS393227 CTO393227 DDK393227 DNG393227 DXC393227 EGY393227 EQU393227 FAQ393227 FKM393227 FUI393227 GEE393227 GOA393227 GXW393227 HHS393227 HRO393227 IBK393227 ILG393227 IVC393227 JEY393227 JOU393227 JYQ393227 KIM393227 KSI393227 LCE393227 LMA393227 LVW393227 MFS393227 MPO393227 MZK393227 NJG393227 NTC393227 OCY393227 OMU393227 OWQ393227 PGM393227 PQI393227 QAE393227 QKA393227 QTW393227 RDS393227 RNO393227 RXK393227 SHG393227 SRC393227 TAY393227 TKU393227 TUQ393227 UEM393227 UOI393227 UYE393227 VIA393227 VRW393227 WBS393227 WLO393227 WVK393227 IY458763 SU458763 ACQ458763 AMM458763 AWI458763 BGE458763 BQA458763 BZW458763 CJS458763 CTO458763 DDK458763 DNG458763 DXC458763 EGY458763 EQU458763 FAQ458763 FKM458763 FUI458763 GEE458763 GOA458763 GXW458763 HHS458763 HRO458763 IBK458763 ILG458763 IVC458763 JEY458763 JOU458763 JYQ458763 KIM458763 KSI458763 LCE458763 LMA458763 LVW458763 MFS458763 MPO458763 MZK458763 NJG458763 NTC458763 OCY458763 OMU458763 OWQ458763 PGM458763 PQI458763 QAE458763 QKA458763 QTW458763 RDS458763 RNO458763 RXK458763 SHG458763 SRC458763 TAY458763 TKU458763 TUQ458763 UEM458763 UOI458763 UYE458763 VIA458763 VRW458763 WBS458763 WLO458763 WVK458763 IY524299 SU524299 ACQ524299 AMM524299 AWI524299 BGE524299 BQA524299 BZW524299 CJS524299 CTO524299 DDK524299 DNG524299 DXC524299 EGY524299 EQU524299 FAQ524299 FKM524299 FUI524299 GEE524299 GOA524299 GXW524299 HHS524299 HRO524299 IBK524299 ILG524299 IVC524299 JEY524299 JOU524299 JYQ524299 KIM524299 KSI524299 LCE524299 LMA524299 LVW524299 MFS524299 MPO524299 MZK524299 NJG524299 NTC524299 OCY524299 OMU524299 OWQ524299 PGM524299 PQI524299 QAE524299 QKA524299 QTW524299 RDS524299 RNO524299 RXK524299 SHG524299 SRC524299 TAY524299 TKU524299 TUQ524299 UEM524299 UOI524299 UYE524299 VIA524299 VRW524299 WBS524299 WLO524299 WVK524299 IY589835 SU589835 ACQ589835 AMM589835 AWI589835 BGE589835 BQA589835 BZW589835 CJS589835 CTO589835 DDK589835 DNG589835 DXC589835 EGY589835 EQU589835 FAQ589835 FKM589835 FUI589835 GEE589835 GOA589835 GXW589835 HHS589835 HRO589835 IBK589835 ILG589835 IVC589835 JEY589835 JOU589835 JYQ589835 KIM589835 KSI589835 LCE589835 LMA589835 LVW589835 MFS589835 MPO589835 MZK589835 NJG589835 NTC589835 OCY589835 OMU589835 OWQ589835 PGM589835 PQI589835 QAE589835 QKA589835 QTW589835 RDS589835 RNO589835 RXK589835 SHG589835 SRC589835 TAY589835 TKU589835 TUQ589835 UEM589835 UOI589835 UYE589835 VIA589835 VRW589835 WBS589835 WLO589835 WVK589835 IY655371 SU655371 ACQ655371 AMM655371 AWI655371 BGE655371 BQA655371 BZW655371 CJS655371 CTO655371 DDK655371 DNG655371 DXC655371 EGY655371 EQU655371 FAQ655371 FKM655371 FUI655371 GEE655371 GOA655371 GXW655371 HHS655371 HRO655371 IBK655371 ILG655371 IVC655371 JEY655371 JOU655371 JYQ655371 KIM655371 KSI655371 LCE655371 LMA655371 LVW655371 MFS655371 MPO655371 MZK655371 NJG655371 NTC655371 OCY655371 OMU655371 OWQ655371 PGM655371 PQI655371 QAE655371 QKA655371 QTW655371 RDS655371 RNO655371 RXK655371 SHG655371 SRC655371 TAY655371 TKU655371 TUQ655371 UEM655371 UOI655371 UYE655371 VIA655371 VRW655371 WBS655371 WLO655371 WVK655371 IY720907 SU720907 ACQ720907 AMM720907 AWI720907 BGE720907 BQA720907 BZW720907 CJS720907 CTO720907 DDK720907 DNG720907 DXC720907 EGY720907 EQU720907 FAQ720907 FKM720907 FUI720907 GEE720907 GOA720907 GXW720907 HHS720907 HRO720907 IBK720907 ILG720907 IVC720907 JEY720907 JOU720907 JYQ720907 KIM720907 KSI720907 LCE720907 LMA720907 LVW720907 MFS720907 MPO720907 MZK720907 NJG720907 NTC720907 OCY720907 OMU720907 OWQ720907 PGM720907 PQI720907 QAE720907 QKA720907 QTW720907 RDS720907 RNO720907 RXK720907 SHG720907 SRC720907 TAY720907 TKU720907 TUQ720907 UEM720907 UOI720907 UYE720907 VIA720907 VRW720907 WBS720907 WLO720907 WVK720907 IY786443 SU786443 ACQ786443 AMM786443 AWI786443 BGE786443 BQA786443 BZW786443 CJS786443 CTO786443 DDK786443 DNG786443 DXC786443 EGY786443 EQU786443 FAQ786443 FKM786443 FUI786443 GEE786443 GOA786443 GXW786443 HHS786443 HRO786443 IBK786443 ILG786443 IVC786443 JEY786443 JOU786443 JYQ786443 KIM786443 KSI786443 LCE786443 LMA786443 LVW786443 MFS786443 MPO786443 MZK786443 NJG786443 NTC786443 OCY786443 OMU786443 OWQ786443 PGM786443 PQI786443 QAE786443 QKA786443 QTW786443 RDS786443 RNO786443 RXK786443 SHG786443 SRC786443 TAY786443 TKU786443 TUQ786443 UEM786443 UOI786443 UYE786443 VIA786443 VRW786443 WBS786443 WLO786443 WVK786443 IY851979 SU851979 ACQ851979 AMM851979 AWI851979 BGE851979 BQA851979 BZW851979 CJS851979 CTO851979 DDK851979 DNG851979 DXC851979 EGY851979 EQU851979 FAQ851979 FKM851979 FUI851979 GEE851979 GOA851979 GXW851979 HHS851979 HRO851979 IBK851979 ILG851979 IVC851979 JEY851979 JOU851979 JYQ851979 KIM851979 KSI851979 LCE851979 LMA851979 LVW851979 MFS851979 MPO851979 MZK851979 NJG851979 NTC851979 OCY851979 OMU851979 OWQ851979 PGM851979 PQI851979 QAE851979 QKA851979 QTW851979 RDS851979 RNO851979 RXK851979 SHG851979 SRC851979 TAY851979 TKU851979 TUQ851979 UEM851979 UOI851979 UYE851979 VIA851979 VRW851979 WBS851979 WLO851979 WVK851979 IY917515 SU917515 ACQ917515 AMM917515 AWI917515 BGE917515 BQA917515 BZW917515 CJS917515 CTO917515 DDK917515 DNG917515 DXC917515 EGY917515 EQU917515 FAQ917515 FKM917515 FUI917515 GEE917515 GOA917515 GXW917515 HHS917515 HRO917515 IBK917515 ILG917515 IVC917515 JEY917515 JOU917515 JYQ917515 KIM917515 KSI917515 LCE917515 LMA917515 LVW917515 MFS917515 MPO917515 MZK917515 NJG917515 NTC917515 OCY917515 OMU917515 OWQ917515 PGM917515 PQI917515 QAE917515 QKA917515 QTW917515 RDS917515 RNO917515 RXK917515 SHG917515 SRC917515 TAY917515 TKU917515 TUQ917515 UEM917515 UOI917515 UYE917515 VIA917515 VRW917515 WBS917515 WLO917515 WVK917515 IY983051 SU983051 ACQ983051 AMM983051 AWI983051 BGE983051 BQA983051 BZW983051 CJS983051 CTO983051 DDK983051 DNG983051 DXC983051 EGY983051 EQU983051 FAQ983051 FKM983051 FUI983051 GEE983051 GOA983051 GXW983051 HHS983051 HRO983051 IBK983051 ILG983051 IVC983051 JEY983051 JOU983051 JYQ983051 KIM983051 KSI983051 LCE983051 LMA983051 LVW983051 MFS983051 MPO983051 MZK983051 NJG983051 NTC983051 OCY983051 OMU983051 OWQ983051 PGM983051 PQI983051 QAE983051 QKA983051 QTW983051 RDS983051 RNO983051 RXK983051 SHG983051 SRC983051 TAY983051 TKU983051 TUQ983051 UEM983051 UOI983051 UYE983051 VIA983051 VRW983051 WBS983051 WLO983051 WVK983051 JB11 SX11 ACT11 AMP11 AWL11 BGH11 BQD11 BZZ11 CJV11 CTR11 DDN11 DNJ11 DXF11 EHB11 EQX11 FAT11 FKP11 FUL11 GEH11 GOD11 GXZ11 HHV11 HRR11 IBN11 ILJ11 IVF11 JFB11 JOX11 JYT11 KIP11 KSL11 LCH11 LMD11 LVZ11 MFV11 MPR11 MZN11 NJJ11 NTF11 ODB11 OMX11 OWT11 PGP11 PQL11 QAH11 QKD11 QTZ11 RDV11 RNR11 RXN11 SHJ11 SRF11 TBB11 TKX11 TUT11 UEP11 UOL11 UYH11 VID11 VRZ11 WBV11 WLR11 WVN11 JB65547 SX65547 ACT65547 AMP65547 AWL65547 BGH65547 BQD65547 BZZ65547 CJV65547 CTR65547 DDN65547 DNJ65547 DXF65547 EHB65547 EQX65547 FAT65547 FKP65547 FUL65547 GEH65547 GOD65547 GXZ65547 HHV65547 HRR65547 IBN65547 ILJ65547 IVF65547 JFB65547 JOX65547 JYT65547 KIP65547 KSL65547 LCH65547 LMD65547 LVZ65547 MFV65547 MPR65547 MZN65547 NJJ65547 NTF65547 ODB65547 OMX65547 OWT65547 PGP65547 PQL65547 QAH65547 QKD65547 QTZ65547 RDV65547 RNR65547 RXN65547 SHJ65547 SRF65547 TBB65547 TKX65547 TUT65547 UEP65547 UOL65547 UYH65547 VID65547 VRZ65547 WBV65547 WLR65547 WVN65547 JB131083 SX131083 ACT131083 AMP131083 AWL131083 BGH131083 BQD131083 BZZ131083 CJV131083 CTR131083 DDN131083 DNJ131083 DXF131083 EHB131083 EQX131083 FAT131083 FKP131083 FUL131083 GEH131083 GOD131083 GXZ131083 HHV131083 HRR131083 IBN131083 ILJ131083 IVF131083 JFB131083 JOX131083 JYT131083 KIP131083 KSL131083 LCH131083 LMD131083 LVZ131083 MFV131083 MPR131083 MZN131083 NJJ131083 NTF131083 ODB131083 OMX131083 OWT131083 PGP131083 PQL131083 QAH131083 QKD131083 QTZ131083 RDV131083 RNR131083 RXN131083 SHJ131083 SRF131083 TBB131083 TKX131083 TUT131083 UEP131083 UOL131083 UYH131083 VID131083 VRZ131083 WBV131083 WLR131083 WVN131083 JB196619 SX196619 ACT196619 AMP196619 AWL196619 BGH196619 BQD196619 BZZ196619 CJV196619 CTR196619 DDN196619 DNJ196619 DXF196619 EHB196619 EQX196619 FAT196619 FKP196619 FUL196619 GEH196619 GOD196619 GXZ196619 HHV196619 HRR196619 IBN196619 ILJ196619 IVF196619 JFB196619 JOX196619 JYT196619 KIP196619 KSL196619 LCH196619 LMD196619 LVZ196619 MFV196619 MPR196619 MZN196619 NJJ196619 NTF196619 ODB196619 OMX196619 OWT196619 PGP196619 PQL196619 QAH196619 QKD196619 QTZ196619 RDV196619 RNR196619 RXN196619 SHJ196619 SRF196619 TBB196619 TKX196619 TUT196619 UEP196619 UOL196619 UYH196619 VID196619 VRZ196619 WBV196619 WLR196619 WVN196619 JB262155 SX262155 ACT262155 AMP262155 AWL262155 BGH262155 BQD262155 BZZ262155 CJV262155 CTR262155 DDN262155 DNJ262155 DXF262155 EHB262155 EQX262155 FAT262155 FKP262155 FUL262155 GEH262155 GOD262155 GXZ262155 HHV262155 HRR262155 IBN262155 ILJ262155 IVF262155 JFB262155 JOX262155 JYT262155 KIP262155 KSL262155 LCH262155 LMD262155 LVZ262155 MFV262155 MPR262155 MZN262155 NJJ262155 NTF262155 ODB262155 OMX262155 OWT262155 PGP262155 PQL262155 QAH262155 QKD262155 QTZ262155 RDV262155 RNR262155 RXN262155 SHJ262155 SRF262155 TBB262155 TKX262155 TUT262155 UEP262155 UOL262155 UYH262155 VID262155 VRZ262155 WBV262155 WLR262155 WVN262155 JB327691 SX327691 ACT327691 AMP327691 AWL327691 BGH327691 BQD327691 BZZ327691 CJV327691 CTR327691 DDN327691 DNJ327691 DXF327691 EHB327691 EQX327691 FAT327691 FKP327691 FUL327691 GEH327691 GOD327691 GXZ327691 HHV327691 HRR327691 IBN327691 ILJ327691 IVF327691 JFB327691 JOX327691 JYT327691 KIP327691 KSL327691 LCH327691 LMD327691 LVZ327691 MFV327691 MPR327691 MZN327691 NJJ327691 NTF327691 ODB327691 OMX327691 OWT327691 PGP327691 PQL327691 QAH327691 QKD327691 QTZ327691 RDV327691 RNR327691 RXN327691 SHJ327691 SRF327691 TBB327691 TKX327691 TUT327691 UEP327691 UOL327691 UYH327691 VID327691 VRZ327691 WBV327691 WLR327691 WVN327691 JB393227 SX393227 ACT393227 AMP393227 AWL393227 BGH393227 BQD393227 BZZ393227 CJV393227 CTR393227 DDN393227 DNJ393227 DXF393227 EHB393227 EQX393227 FAT393227 FKP393227 FUL393227 GEH393227 GOD393227 GXZ393227 HHV393227 HRR393227 IBN393227 ILJ393227 IVF393227 JFB393227 JOX393227 JYT393227 KIP393227 KSL393227 LCH393227 LMD393227 LVZ393227 MFV393227 MPR393227 MZN393227 NJJ393227 NTF393227 ODB393227 OMX393227 OWT393227 PGP393227 PQL393227 QAH393227 QKD393227 QTZ393227 RDV393227 RNR393227 RXN393227 SHJ393227 SRF393227 TBB393227 TKX393227 TUT393227 UEP393227 UOL393227 UYH393227 VID393227 VRZ393227 WBV393227 WLR393227 WVN393227 JB458763 SX458763 ACT458763 AMP458763 AWL458763 BGH458763 BQD458763 BZZ458763 CJV458763 CTR458763 DDN458763 DNJ458763 DXF458763 EHB458763 EQX458763 FAT458763 FKP458763 FUL458763 GEH458763 GOD458763 GXZ458763 HHV458763 HRR458763 IBN458763 ILJ458763 IVF458763 JFB458763 JOX458763 JYT458763 KIP458763 KSL458763 LCH458763 LMD458763 LVZ458763 MFV458763 MPR458763 MZN458763 NJJ458763 NTF458763 ODB458763 OMX458763 OWT458763 PGP458763 PQL458763 QAH458763 QKD458763 QTZ458763 RDV458763 RNR458763 RXN458763 SHJ458763 SRF458763 TBB458763 TKX458763 TUT458763 UEP458763 UOL458763 UYH458763 VID458763 VRZ458763 WBV458763 WLR458763 WVN458763 JB524299 SX524299 ACT524299 AMP524299 AWL524299 BGH524299 BQD524299 BZZ524299 CJV524299 CTR524299 DDN524299 DNJ524299 DXF524299 EHB524299 EQX524299 FAT524299 FKP524299 FUL524299 GEH524299 GOD524299 GXZ524299 HHV524299 HRR524299 IBN524299 ILJ524299 IVF524299 JFB524299 JOX524299 JYT524299 KIP524299 KSL524299 LCH524299 LMD524299 LVZ524299 MFV524299 MPR524299 MZN524299 NJJ524299 NTF524299 ODB524299 OMX524299 OWT524299 PGP524299 PQL524299 QAH524299 QKD524299 QTZ524299 RDV524299 RNR524299 RXN524299 SHJ524299 SRF524299 TBB524299 TKX524299 TUT524299 UEP524299 UOL524299 UYH524299 VID524299 VRZ524299 WBV524299 WLR524299 WVN524299 JB589835 SX589835 ACT589835 AMP589835 AWL589835 BGH589835 BQD589835 BZZ589835 CJV589835 CTR589835 DDN589835 DNJ589835 DXF589835 EHB589835 EQX589835 FAT589835 FKP589835 FUL589835 GEH589835 GOD589835 GXZ589835 HHV589835 HRR589835 IBN589835 ILJ589835 IVF589835 JFB589835 JOX589835 JYT589835 KIP589835 KSL589835 LCH589835 LMD589835 LVZ589835 MFV589835 MPR589835 MZN589835 NJJ589835 NTF589835 ODB589835 OMX589835 OWT589835 PGP589835 PQL589835 QAH589835 QKD589835 QTZ589835 RDV589835 RNR589835 RXN589835 SHJ589835 SRF589835 TBB589835 TKX589835 TUT589835 UEP589835 UOL589835 UYH589835 VID589835 VRZ589835 WBV589835 WLR589835 WVN589835 JB655371 SX655371 ACT655371 AMP655371 AWL655371 BGH655371 BQD655371 BZZ655371 CJV655371 CTR655371 DDN655371 DNJ655371 DXF655371 EHB655371 EQX655371 FAT655371 FKP655371 FUL655371 GEH655371 GOD655371 GXZ655371 HHV655371 HRR655371 IBN655371 ILJ655371 IVF655371 JFB655371 JOX655371 JYT655371 KIP655371 KSL655371 LCH655371 LMD655371 LVZ655371 MFV655371 MPR655371 MZN655371 NJJ655371 NTF655371 ODB655371 OMX655371 OWT655371 PGP655371 PQL655371 QAH655371 QKD655371 QTZ655371 RDV655371 RNR655371 RXN655371 SHJ655371 SRF655371 TBB655371 TKX655371 TUT655371 UEP655371 UOL655371 UYH655371 VID655371 VRZ655371 WBV655371 WLR655371 WVN655371 JB720907 SX720907 ACT720907 AMP720907 AWL720907 BGH720907 BQD720907 BZZ720907 CJV720907 CTR720907 DDN720907 DNJ720907 DXF720907 EHB720907 EQX720907 FAT720907 FKP720907 FUL720907 GEH720907 GOD720907 GXZ720907 HHV720907 HRR720907 IBN720907 ILJ720907 IVF720907 JFB720907 JOX720907 JYT720907 KIP720907 KSL720907 LCH720907 LMD720907 LVZ720907 MFV720907 MPR720907 MZN720907 NJJ720907 NTF720907 ODB720907 OMX720907 OWT720907 PGP720907 PQL720907 QAH720907 QKD720907 QTZ720907 RDV720907 RNR720907 RXN720907 SHJ720907 SRF720907 TBB720907 TKX720907 TUT720907 UEP720907 UOL720907 UYH720907 VID720907 VRZ720907 WBV720907 WLR720907 WVN720907 JB786443 SX786443 ACT786443 AMP786443 AWL786443 BGH786443 BQD786443 BZZ786443 CJV786443 CTR786443 DDN786443 DNJ786443 DXF786443 EHB786443 EQX786443 FAT786443 FKP786443 FUL786443 GEH786443 GOD786443 GXZ786443 HHV786443 HRR786443 IBN786443 ILJ786443 IVF786443 JFB786443 JOX786443 JYT786443 KIP786443 KSL786443 LCH786443 LMD786443 LVZ786443 MFV786443 MPR786443 MZN786443 NJJ786443 NTF786443 ODB786443 OMX786443 OWT786443 PGP786443 PQL786443 QAH786443 QKD786443 QTZ786443 RDV786443 RNR786443 RXN786443 SHJ786443 SRF786443 TBB786443 TKX786443 TUT786443 UEP786443 UOL786443 UYH786443 VID786443 VRZ786443 WBV786443 WLR786443 WVN786443 JB851979 SX851979 ACT851979 AMP851979 AWL851979 BGH851979 BQD851979 BZZ851979 CJV851979 CTR851979 DDN851979 DNJ851979 DXF851979 EHB851979 EQX851979 FAT851979 FKP851979 FUL851979 GEH851979 GOD851979 GXZ851979 HHV851979 HRR851979 IBN851979 ILJ851979 IVF851979 JFB851979 JOX851979 JYT851979 KIP851979 KSL851979 LCH851979 LMD851979 LVZ851979 MFV851979 MPR851979 MZN851979 NJJ851979 NTF851979 ODB851979 OMX851979 OWT851979 PGP851979 PQL851979 QAH851979 QKD851979 QTZ851979 RDV851979 RNR851979 RXN851979 SHJ851979 SRF851979 TBB851979 TKX851979 TUT851979 UEP851979 UOL851979 UYH851979 VID851979 VRZ851979 WBV851979 WLR851979 WVN851979 JB917515 SX917515 ACT917515 AMP917515 AWL917515 BGH917515 BQD917515 BZZ917515 CJV917515 CTR917515 DDN917515 DNJ917515 DXF917515 EHB917515 EQX917515 FAT917515 FKP917515 FUL917515 GEH917515 GOD917515 GXZ917515 HHV917515 HRR917515 IBN917515 ILJ917515 IVF917515 JFB917515 JOX917515 JYT917515 KIP917515 KSL917515 LCH917515 LMD917515 LVZ917515 MFV917515 MPR917515 MZN917515 NJJ917515 NTF917515 ODB917515 OMX917515 OWT917515 PGP917515 PQL917515 QAH917515 QKD917515 QTZ917515 RDV917515 RNR917515 RXN917515 SHJ917515 SRF917515 TBB917515 TKX917515 TUT917515 UEP917515 UOL917515 UYH917515 VID917515 VRZ917515 WBV917515 WLR917515 WVN917515 JB983051 SX983051 ACT983051 AMP983051 AWL983051 BGH983051 BQD983051 BZZ983051 CJV983051 CTR983051 DDN983051 DNJ983051 DXF983051 EHB983051 EQX983051 FAT983051 FKP983051 FUL983051 GEH983051 GOD983051 GXZ983051 HHV983051 HRR983051 IBN983051 ILJ983051 IVF983051 JFB983051 JOX983051 JYT983051 KIP983051 KSL983051 LCH983051 LMD983051 LVZ983051 MFV983051 MPR983051 MZN983051 NJJ983051 NTF983051 ODB983051 OMX983051 OWT983051 PGP983051 PQL983051 QAH983051 QKD983051 QTZ983051 RDV983051 RNR983051 RXN983051 SHJ983051 SRF983051 TBB983051 TKX983051 TUT983051 UEP983051 UOL983051 UYH983051 VID983051 VRZ983051 WBV983051 WLR983051 WVN983051 F983048 F917512 F851976 F786440 F720904 F655368 F589832 F524296 F458760 F393224 F327688 F262152 F196616 F131080 F65544 C983048 C917512 C851976 C786440 C720904 C655368 C589832 C524296 C458760 C393224 C327688 C262152 C196616 C131080 C65544">
       <formula1>"Long Side,Short Side,None"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/LargeFormat/Large Fromat.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/LargeFormat/Large Fromat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>Data For Large Format Add/Update (Edit)</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Default Paper/Stock 1</t>
   </si>
   <si>
-    <t xml:space="preserve">No need to add anything here </t>
-  </si>
-  <si>
     <t>Default Paper/Stock 2</t>
   </si>
   <si>
@@ -316,13 +313,46 @@
   </si>
   <si>
     <t>Guilotine</t>
+  </si>
+  <si>
+    <t>A1 1000 Bundle</t>
+  </si>
+  <si>
+    <t>A4 10 in pack</t>
+  </si>
+  <si>
+    <t>A4 100 Pack</t>
+  </si>
+  <si>
+    <t>A2 50 in pack</t>
+  </si>
+  <si>
+    <t>A1 50 in pack</t>
+  </si>
+  <si>
+    <t>Yellow Ink Yield</t>
+  </si>
+  <si>
+    <t>Red Ink Yield</t>
+  </si>
+  <si>
+    <t>Magenta Ink Yield</t>
+  </si>
+  <si>
+    <t>Key Ink Yield</t>
+  </si>
+  <si>
+    <t>Cyan Ink Yield</t>
+  </si>
+  <si>
+    <t>Large Format Trimmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,8 +381,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +445,12 @@
         <bgColor indexed="35"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="35"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -411,12 +461,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -426,28 +479,34 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF66CCFF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFFF66"/>
+      <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -740,647 +799,672 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C38:H42"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="C23:C24 F23:F24 IY25:IY26 SU25:SU26 ACQ25:ACQ26 AMM25:AMM26 AWI25:AWI26 BGE25:BGE26 BQA25:BQA26 BZW25:BZW26 CJS25:CJS26 CTO25:CTO26 DDK25:DDK26 DNG25:DNG26 DXC25:DXC26 EGY25:EGY26 EQU25:EQU26 FAQ25:FAQ26 FKM25:FKM26 FUI25:FUI26 GEE25:GEE26 GOA25:GOA26 GXW25:GXW26 HHS25:HHS26 HRO25:HRO26 IBK25:IBK26 ILG25:ILG26 IVC25:IVC26 JEY25:JEY26 JOU25:JOU26 JYQ25:JYQ26 KIM25:KIM26 KSI25:KSI26 LCE25:LCE26 LMA25:LMA26 LVW25:LVW26 MFS25:MFS26 MPO25:MPO26 MZK25:MZK26 NJG25:NJG26 NTC25:NTC26 OCY25:OCY26 OMU25:OMU26 OWQ25:OWQ26 PGM25:PGM26 PQI25:PQI26 QAE25:QAE26 QKA25:QKA26 QTW25:QTW26 RDS25:RDS26 RNO25:RNO26 RXK25:RXK26 SHG25:SHG26 SRC25:SRC26 TAY25:TAY26 TKU25:TKU26 TUQ25:TUQ26 UEM25:UEM26 UOI25:UOI26 UYE25:UYE26 VIA25:VIA26 VRW25:VRW26 WBS25:WBS26 WLO25:WLO26 WVK25:WVK26 IY65561:IY65562 SU65561:SU65562 ACQ65561:ACQ65562 AMM65561:AMM65562 AWI65561:AWI65562 BGE65561:BGE65562 BQA65561:BQA65562 BZW65561:BZW65562 CJS65561:CJS65562 CTO65561:CTO65562 DDK65561:DDK65562 DNG65561:DNG65562 DXC65561:DXC65562 EGY65561:EGY65562 EQU65561:EQU65562 FAQ65561:FAQ65562 FKM65561:FKM65562 FUI65561:FUI65562 GEE65561:GEE65562 GOA65561:GOA65562 GXW65561:GXW65562 HHS65561:HHS65562 HRO65561:HRO65562 IBK65561:IBK65562 ILG65561:ILG65562 IVC65561:IVC65562 JEY65561:JEY65562 JOU65561:JOU65562 JYQ65561:JYQ65562 KIM65561:KIM65562 KSI65561:KSI65562 LCE65561:LCE65562 LMA65561:LMA65562 LVW65561:LVW65562 MFS65561:MFS65562 MPO65561:MPO65562 MZK65561:MZK65562 NJG65561:NJG65562 NTC65561:NTC65562 OCY65561:OCY65562 OMU65561:OMU65562 OWQ65561:OWQ65562 PGM65561:PGM65562 PQI65561:PQI65562 QAE65561:QAE65562 QKA65561:QKA65562 QTW65561:QTW65562 RDS65561:RDS65562 RNO65561:RNO65562 RXK65561:RXK65562 SHG65561:SHG65562 SRC65561:SRC65562 TAY65561:TAY65562 TKU65561:TKU65562 TUQ65561:TUQ65562 UEM65561:UEM65562 UOI65561:UOI65562 UYE65561:UYE65562 VIA65561:VIA65562 VRW65561:VRW65562 WBS65561:WBS65562 WLO65561:WLO65562 WVK65561:WVK65562 IY131097:IY131098 SU131097:SU131098 ACQ131097:ACQ131098 AMM131097:AMM131098 AWI131097:AWI131098 BGE131097:BGE131098 BQA131097:BQA131098 BZW131097:BZW131098 CJS131097:CJS131098 CTO131097:CTO131098 DDK131097:DDK131098 DNG131097:DNG131098 DXC131097:DXC131098 EGY131097:EGY131098 EQU131097:EQU131098 FAQ131097:FAQ131098 FKM131097:FKM131098 FUI131097:FUI131098 GEE131097:GEE131098 GOA131097:GOA131098 GXW131097:GXW131098 HHS131097:HHS131098 HRO131097:HRO131098 IBK131097:IBK131098 ILG131097:ILG131098 IVC131097:IVC131098 JEY131097:JEY131098 JOU131097:JOU131098 JYQ131097:JYQ131098 KIM131097:KIM131098 KSI131097:KSI131098 LCE131097:LCE131098 LMA131097:LMA131098 LVW131097:LVW131098 MFS131097:MFS131098 MPO131097:MPO131098 MZK131097:MZK131098 NJG131097:NJG131098 NTC131097:NTC131098 OCY131097:OCY131098 OMU131097:OMU131098 OWQ131097:OWQ131098 PGM131097:PGM131098 PQI131097:PQI131098 QAE131097:QAE131098 QKA131097:QKA131098 QTW131097:QTW131098 RDS131097:RDS131098 RNO131097:RNO131098 RXK131097:RXK131098 SHG131097:SHG131098 SRC131097:SRC131098 TAY131097:TAY131098 TKU131097:TKU131098 TUQ131097:TUQ131098 UEM131097:UEM131098 UOI131097:UOI131098 UYE131097:UYE131098 VIA131097:VIA131098 VRW131097:VRW131098 WBS131097:WBS131098 WLO131097:WLO131098 WVK131097:WVK131098 IY196633:IY196634 SU196633:SU196634 ACQ196633:ACQ196634 AMM196633:AMM196634 AWI196633:AWI196634 BGE196633:BGE196634 BQA196633:BQA196634 BZW196633:BZW196634 CJS196633:CJS196634 CTO196633:CTO196634 DDK196633:DDK196634 DNG196633:DNG196634 DXC196633:DXC196634 EGY196633:EGY196634 EQU196633:EQU196634 FAQ196633:FAQ196634 FKM196633:FKM196634 FUI196633:FUI196634 GEE196633:GEE196634 GOA196633:GOA196634 GXW196633:GXW196634 HHS196633:HHS196634 HRO196633:HRO196634 IBK196633:IBK196634 ILG196633:ILG196634 IVC196633:IVC196634 JEY196633:JEY196634 JOU196633:JOU196634 JYQ196633:JYQ196634 KIM196633:KIM196634 KSI196633:KSI196634 LCE196633:LCE196634 LMA196633:LMA196634 LVW196633:LVW196634 MFS196633:MFS196634 MPO196633:MPO196634 MZK196633:MZK196634 NJG196633:NJG196634 NTC196633:NTC196634 OCY196633:OCY196634 OMU196633:OMU196634 OWQ196633:OWQ196634 PGM196633:PGM196634 PQI196633:PQI196634 QAE196633:QAE196634 QKA196633:QKA196634 QTW196633:QTW196634 RDS196633:RDS196634 RNO196633:RNO196634 RXK196633:RXK196634 SHG196633:SHG196634 SRC196633:SRC196634 TAY196633:TAY196634 TKU196633:TKU196634 TUQ196633:TUQ196634 UEM196633:UEM196634 UOI196633:UOI196634 UYE196633:UYE196634 VIA196633:VIA196634 VRW196633:VRW196634 WBS196633:WBS196634 WLO196633:WLO196634 WVK196633:WVK196634 IY262169:IY262170 SU262169:SU262170 ACQ262169:ACQ262170 AMM262169:AMM262170 AWI262169:AWI262170 BGE262169:BGE262170 BQA262169:BQA262170 BZW262169:BZW262170 CJS262169:CJS262170 CTO262169:CTO262170 DDK262169:DDK262170 DNG262169:DNG262170 DXC262169:DXC262170 EGY262169:EGY262170 EQU262169:EQU262170 FAQ262169:FAQ262170 FKM262169:FKM262170 FUI262169:FUI262170 GEE262169:GEE262170 GOA262169:GOA262170 GXW262169:GXW262170 HHS262169:HHS262170 HRO262169:HRO262170 IBK262169:IBK262170 ILG262169:ILG262170 IVC262169:IVC262170 JEY262169:JEY262170 JOU262169:JOU262170 JYQ262169:JYQ262170 KIM262169:KIM262170 KSI262169:KSI262170 LCE262169:LCE262170 LMA262169:LMA262170 LVW262169:LVW262170 MFS262169:MFS262170 MPO262169:MPO262170 MZK262169:MZK262170 NJG262169:NJG262170 NTC262169:NTC262170 OCY262169:OCY262170 OMU262169:OMU262170 OWQ262169:OWQ262170 PGM262169:PGM262170 PQI262169:PQI262170 QAE262169:QAE262170 QKA262169:QKA262170 QTW262169:QTW262170 RDS262169:RDS262170 RNO262169:RNO262170 RXK262169:RXK262170 SHG262169:SHG262170 SRC262169:SRC262170 TAY262169:TAY262170 TKU262169:TKU262170 TUQ262169:TUQ262170 UEM262169:UEM262170 UOI262169:UOI262170 UYE262169:UYE262170 VIA262169:VIA262170 VRW262169:VRW262170 WBS262169:WBS262170 WLO262169:WLO262170 WVK262169:WVK262170 IY327705:IY327706 SU327705:SU327706 ACQ327705:ACQ327706 AMM327705:AMM327706 AWI327705:AWI327706 BGE327705:BGE327706 BQA327705:BQA327706 BZW327705:BZW327706 CJS327705:CJS327706 CTO327705:CTO327706 DDK327705:DDK327706 DNG327705:DNG327706 DXC327705:DXC327706 EGY327705:EGY327706 EQU327705:EQU327706 FAQ327705:FAQ327706 FKM327705:FKM327706 FUI327705:FUI327706 GEE327705:GEE327706 GOA327705:GOA327706 GXW327705:GXW327706 HHS327705:HHS327706 HRO327705:HRO327706 IBK327705:IBK327706 ILG327705:ILG327706 IVC327705:IVC327706 JEY327705:JEY327706 JOU327705:JOU327706 JYQ327705:JYQ327706 KIM327705:KIM327706 KSI327705:KSI327706 LCE327705:LCE327706 LMA327705:LMA327706 LVW327705:LVW327706 MFS327705:MFS327706 MPO327705:MPO327706 MZK327705:MZK327706 NJG327705:NJG327706 NTC327705:NTC327706 OCY327705:OCY327706 OMU327705:OMU327706 OWQ327705:OWQ327706 PGM327705:PGM327706 PQI327705:PQI327706 QAE327705:QAE327706 QKA327705:QKA327706 QTW327705:QTW327706 RDS327705:RDS327706 RNO327705:RNO327706 RXK327705:RXK327706 SHG327705:SHG327706 SRC327705:SRC327706 TAY327705:TAY327706 TKU327705:TKU327706 TUQ327705:TUQ327706 UEM327705:UEM327706 UOI327705:UOI327706 UYE327705:UYE327706 VIA327705:VIA327706 VRW327705:VRW327706 WBS327705:WBS327706 WLO327705:WLO327706 WVK327705:WVK327706 IY393241:IY393242 SU393241:SU393242 ACQ393241:ACQ393242 AMM393241:AMM393242 AWI393241:AWI393242 BGE393241:BGE393242 BQA393241:BQA393242 BZW393241:BZW393242 CJS393241:CJS393242 CTO393241:CTO393242 DDK393241:DDK393242 DNG393241:DNG393242 DXC393241:DXC393242 EGY393241:EGY393242 EQU393241:EQU393242 FAQ393241:FAQ393242 FKM393241:FKM393242 FUI393241:FUI393242 GEE393241:GEE393242 GOA393241:GOA393242 GXW393241:GXW393242 HHS393241:HHS393242 HRO393241:HRO393242 IBK393241:IBK393242 ILG393241:ILG393242 IVC393241:IVC393242 JEY393241:JEY393242 JOU393241:JOU393242 JYQ393241:JYQ393242 KIM393241:KIM393242 KSI393241:KSI393242 LCE393241:LCE393242 LMA393241:LMA393242 LVW393241:LVW393242 MFS393241:MFS393242 MPO393241:MPO393242 MZK393241:MZK393242 NJG393241:NJG393242 NTC393241:NTC393242 OCY393241:OCY393242 OMU393241:OMU393242 OWQ393241:OWQ393242 PGM393241:PGM393242 PQI393241:PQI393242 QAE393241:QAE393242 QKA393241:QKA393242 QTW393241:QTW393242 RDS393241:RDS393242 RNO393241:RNO393242 RXK393241:RXK393242 SHG393241:SHG393242 SRC393241:SRC393242 TAY393241:TAY393242 TKU393241:TKU393242 TUQ393241:TUQ393242 UEM393241:UEM393242 UOI393241:UOI393242 UYE393241:UYE393242 VIA393241:VIA393242 VRW393241:VRW393242 WBS393241:WBS393242 WLO393241:WLO393242 WVK393241:WVK393242 IY458777:IY458778 SU458777:SU458778 ACQ458777:ACQ458778 AMM458777:AMM458778 AWI458777:AWI458778 BGE458777:BGE458778 BQA458777:BQA458778 BZW458777:BZW458778 CJS458777:CJS458778 CTO458777:CTO458778 DDK458777:DDK458778 DNG458777:DNG458778 DXC458777:DXC458778 EGY458777:EGY458778 EQU458777:EQU458778 FAQ458777:FAQ458778 FKM458777:FKM458778 FUI458777:FUI458778 GEE458777:GEE458778 GOA458777:GOA458778 GXW458777:GXW458778 HHS458777:HHS458778 HRO458777:HRO458778 IBK458777:IBK458778 ILG458777:ILG458778 IVC458777:IVC458778 JEY458777:JEY458778 JOU458777:JOU458778 JYQ458777:JYQ458778 KIM458777:KIM458778 KSI458777:KSI458778 LCE458777:LCE458778 LMA458777:LMA458778 LVW458777:LVW458778 MFS458777:MFS458778 MPO458777:MPO458778 MZK458777:MZK458778 NJG458777:NJG458778 NTC458777:NTC458778 OCY458777:OCY458778 OMU458777:OMU458778 OWQ458777:OWQ458778 PGM458777:PGM458778 PQI458777:PQI458778 QAE458777:QAE458778 QKA458777:QKA458778 QTW458777:QTW458778 RDS458777:RDS458778 RNO458777:RNO458778 RXK458777:RXK458778 SHG458777:SHG458778 SRC458777:SRC458778 TAY458777:TAY458778 TKU458777:TKU458778 TUQ458777:TUQ458778 UEM458777:UEM458778 UOI458777:UOI458778 UYE458777:UYE458778 VIA458777:VIA458778 VRW458777:VRW458778 WBS458777:WBS458778 WLO458777:WLO458778 WVK458777:WVK458778 IY524313:IY524314 SU524313:SU524314 ACQ524313:ACQ524314 AMM524313:AMM524314 AWI524313:AWI524314 BGE524313:BGE524314 BQA524313:BQA524314 BZW524313:BZW524314 CJS524313:CJS524314 CTO524313:CTO524314 DDK524313:DDK524314 DNG524313:DNG524314 DXC524313:DXC524314 EGY524313:EGY524314 EQU524313:EQU524314 FAQ524313:FAQ524314 FKM524313:FKM524314 FUI524313:FUI524314 GEE524313:GEE524314 GOA524313:GOA524314 GXW524313:GXW524314 HHS524313:HHS524314 HRO524313:HRO524314 IBK524313:IBK524314 ILG524313:ILG524314 IVC524313:IVC524314 JEY524313:JEY524314 JOU524313:JOU524314 JYQ524313:JYQ524314 KIM524313:KIM524314 KSI524313:KSI524314 LCE524313:LCE524314 LMA524313:LMA524314 LVW524313:LVW524314 MFS524313:MFS524314 MPO524313:MPO524314 MZK524313:MZK524314 NJG524313:NJG524314 NTC524313:NTC524314 OCY524313:OCY524314 OMU524313:OMU524314 OWQ524313:OWQ524314 PGM524313:PGM524314 PQI524313:PQI524314 QAE524313:QAE524314 QKA524313:QKA524314 QTW524313:QTW524314 RDS524313:RDS524314 RNO524313:RNO524314 RXK524313:RXK524314 SHG524313:SHG524314 SRC524313:SRC524314 TAY524313:TAY524314 TKU524313:TKU524314 TUQ524313:TUQ524314 UEM524313:UEM524314 UOI524313:UOI524314 UYE524313:UYE524314 VIA524313:VIA524314 VRW524313:VRW524314 WBS524313:WBS524314 WLO524313:WLO524314 WVK524313:WVK524314 IY589849:IY589850 SU589849:SU589850 ACQ589849:ACQ589850 AMM589849:AMM589850 AWI589849:AWI589850 BGE589849:BGE589850 BQA589849:BQA589850 BZW589849:BZW589850 CJS589849:CJS589850 CTO589849:CTO589850 DDK589849:DDK589850 DNG589849:DNG589850 DXC589849:DXC589850 EGY589849:EGY589850 EQU589849:EQU589850 FAQ589849:FAQ589850 FKM589849:FKM589850 FUI589849:FUI589850 GEE589849:GEE589850 GOA589849:GOA589850 GXW589849:GXW589850 HHS589849:HHS589850 HRO589849:HRO589850 IBK589849:IBK589850 ILG589849:ILG589850 IVC589849:IVC589850 JEY589849:JEY589850 JOU589849:JOU589850 JYQ589849:JYQ589850 KIM589849:KIM589850 KSI589849:KSI589850 LCE589849:LCE589850 LMA589849:LMA589850 LVW589849:LVW589850 MFS589849:MFS589850 MPO589849:MPO589850 MZK589849:MZK589850 NJG589849:NJG589850 NTC589849:NTC589850 OCY589849:OCY589850 OMU589849:OMU589850 OWQ589849:OWQ589850 PGM589849:PGM589850 PQI589849:PQI589850 QAE589849:QAE589850 QKA589849:QKA589850 QTW589849:QTW589850 RDS589849:RDS589850 RNO589849:RNO589850 RXK589849:RXK589850 SHG589849:SHG589850 SRC589849:SRC589850 TAY589849:TAY589850 TKU589849:TKU589850 TUQ589849:TUQ589850 UEM589849:UEM589850 UOI589849:UOI589850 UYE589849:UYE589850 VIA589849:VIA589850 VRW589849:VRW589850 WBS589849:WBS589850 WLO589849:WLO589850 WVK589849:WVK589850 IY655385:IY655386 SU655385:SU655386 ACQ655385:ACQ655386 AMM655385:AMM655386 AWI655385:AWI655386 BGE655385:BGE655386 BQA655385:BQA655386 BZW655385:BZW655386 CJS655385:CJS655386 CTO655385:CTO655386 DDK655385:DDK655386 DNG655385:DNG655386 DXC655385:DXC655386 EGY655385:EGY655386 EQU655385:EQU655386 FAQ655385:FAQ655386 FKM655385:FKM655386 FUI655385:FUI655386 GEE655385:GEE655386 GOA655385:GOA655386 GXW655385:GXW655386 HHS655385:HHS655386 HRO655385:HRO655386 IBK655385:IBK655386 ILG655385:ILG655386 IVC655385:IVC655386 JEY655385:JEY655386 JOU655385:JOU655386 JYQ655385:JYQ655386 KIM655385:KIM655386 KSI655385:KSI655386 LCE655385:LCE655386 LMA655385:LMA655386 LVW655385:LVW655386 MFS655385:MFS655386 MPO655385:MPO655386 MZK655385:MZK655386 NJG655385:NJG655386 NTC655385:NTC655386 OCY655385:OCY655386 OMU655385:OMU655386 OWQ655385:OWQ655386 PGM655385:PGM655386 PQI655385:PQI655386 QAE655385:QAE655386 QKA655385:QKA655386 QTW655385:QTW655386 RDS655385:RDS655386 RNO655385:RNO655386 RXK655385:RXK655386 SHG655385:SHG655386 SRC655385:SRC655386 TAY655385:TAY655386 TKU655385:TKU655386 TUQ655385:TUQ655386 UEM655385:UEM655386 UOI655385:UOI655386 UYE655385:UYE655386 VIA655385:VIA655386 VRW655385:VRW655386 WBS655385:WBS655386 WLO655385:WLO655386 WVK655385:WVK655386 IY720921:IY720922 SU720921:SU720922 ACQ720921:ACQ720922 AMM720921:AMM720922 AWI720921:AWI720922 BGE720921:BGE720922 BQA720921:BQA720922 BZW720921:BZW720922 CJS720921:CJS720922 CTO720921:CTO720922 DDK720921:DDK720922 DNG720921:DNG720922 DXC720921:DXC720922 EGY720921:EGY720922 EQU720921:EQU720922 FAQ720921:FAQ720922 FKM720921:FKM720922 FUI720921:FUI720922 GEE720921:GEE720922 GOA720921:GOA720922 GXW720921:GXW720922 HHS720921:HHS720922 HRO720921:HRO720922 IBK720921:IBK720922 ILG720921:ILG720922 IVC720921:IVC720922 JEY720921:JEY720922 JOU720921:JOU720922 JYQ720921:JYQ720922 KIM720921:KIM720922 KSI720921:KSI720922 LCE720921:LCE720922 LMA720921:LMA720922 LVW720921:LVW720922 MFS720921:MFS720922 MPO720921:MPO720922 MZK720921:MZK720922 NJG720921:NJG720922 NTC720921:NTC720922 OCY720921:OCY720922 OMU720921:OMU720922 OWQ720921:OWQ720922 PGM720921:PGM720922 PQI720921:PQI720922 QAE720921:QAE720922 QKA720921:QKA720922 QTW720921:QTW720922 RDS720921:RDS720922 RNO720921:RNO720922 RXK720921:RXK720922 SHG720921:SHG720922 SRC720921:SRC720922 TAY720921:TAY720922 TKU720921:TKU720922 TUQ720921:TUQ720922 UEM720921:UEM720922 UOI720921:UOI720922 UYE720921:UYE720922 VIA720921:VIA720922 VRW720921:VRW720922 WBS720921:WBS720922 WLO720921:WLO720922 WVK720921:WVK720922 IY786457:IY786458 SU786457:SU786458 ACQ786457:ACQ786458 AMM786457:AMM786458 AWI786457:AWI786458 BGE786457:BGE786458 BQA786457:BQA786458 BZW786457:BZW786458 CJS786457:CJS786458 CTO786457:CTO786458 DDK786457:DDK786458 DNG786457:DNG786458 DXC786457:DXC786458 EGY786457:EGY786458 EQU786457:EQU786458 FAQ786457:FAQ786458 FKM786457:FKM786458 FUI786457:FUI786458 GEE786457:GEE786458 GOA786457:GOA786458 GXW786457:GXW786458 HHS786457:HHS786458 HRO786457:HRO786458 IBK786457:IBK786458 ILG786457:ILG786458 IVC786457:IVC786458 JEY786457:JEY786458 JOU786457:JOU786458 JYQ786457:JYQ786458 KIM786457:KIM786458 KSI786457:KSI786458 LCE786457:LCE786458 LMA786457:LMA786458 LVW786457:LVW786458 MFS786457:MFS786458 MPO786457:MPO786458 MZK786457:MZK786458 NJG786457:NJG786458 NTC786457:NTC786458 OCY786457:OCY786458 OMU786457:OMU786458 OWQ786457:OWQ786458 PGM786457:PGM786458 PQI786457:PQI786458 QAE786457:QAE786458 QKA786457:QKA786458 QTW786457:QTW786458 RDS786457:RDS786458 RNO786457:RNO786458 RXK786457:RXK786458 SHG786457:SHG786458 SRC786457:SRC786458 TAY786457:TAY786458 TKU786457:TKU786458 TUQ786457:TUQ786458 UEM786457:UEM786458 UOI786457:UOI786458 UYE786457:UYE786458 VIA786457:VIA786458 VRW786457:VRW786458 WBS786457:WBS786458 WLO786457:WLO786458 WVK786457:WVK786458 IY851993:IY851994 SU851993:SU851994 ACQ851993:ACQ851994 AMM851993:AMM851994 AWI851993:AWI851994 BGE851993:BGE851994 BQA851993:BQA851994 BZW851993:BZW851994 CJS851993:CJS851994 CTO851993:CTO851994 DDK851993:DDK851994 DNG851993:DNG851994 DXC851993:DXC851994 EGY851993:EGY851994 EQU851993:EQU851994 FAQ851993:FAQ851994 FKM851993:FKM851994 FUI851993:FUI851994 GEE851993:GEE851994 GOA851993:GOA851994 GXW851993:GXW851994 HHS851993:HHS851994 HRO851993:HRO851994 IBK851993:IBK851994 ILG851993:ILG851994 IVC851993:IVC851994 JEY851993:JEY851994 JOU851993:JOU851994 JYQ851993:JYQ851994 KIM851993:KIM851994 KSI851993:KSI851994 LCE851993:LCE851994 LMA851993:LMA851994 LVW851993:LVW851994 MFS851993:MFS851994 MPO851993:MPO851994 MZK851993:MZK851994 NJG851993:NJG851994 NTC851993:NTC851994 OCY851993:OCY851994 OMU851993:OMU851994 OWQ851993:OWQ851994 PGM851993:PGM851994 PQI851993:PQI851994 QAE851993:QAE851994 QKA851993:QKA851994 QTW851993:QTW851994 RDS851993:RDS851994 RNO851993:RNO851994 RXK851993:RXK851994 SHG851993:SHG851994 SRC851993:SRC851994 TAY851993:TAY851994 TKU851993:TKU851994 TUQ851993:TUQ851994 UEM851993:UEM851994 UOI851993:UOI851994 UYE851993:UYE851994 VIA851993:VIA851994 VRW851993:VRW851994 WBS851993:WBS851994 WLO851993:WLO851994 WVK851993:WVK851994 IY917529:IY917530 SU917529:SU917530 ACQ917529:ACQ917530 AMM917529:AMM917530 AWI917529:AWI917530 BGE917529:BGE917530 BQA917529:BQA917530 BZW917529:BZW917530 CJS917529:CJS917530 CTO917529:CTO917530 DDK917529:DDK917530 DNG917529:DNG917530 DXC917529:DXC917530 EGY917529:EGY917530 EQU917529:EQU917530 FAQ917529:FAQ917530 FKM917529:FKM917530 FUI917529:FUI917530 GEE917529:GEE917530 GOA917529:GOA917530 GXW917529:GXW917530 HHS917529:HHS917530 HRO917529:HRO917530 IBK917529:IBK917530 ILG917529:ILG917530 IVC917529:IVC917530 JEY917529:JEY917530 JOU917529:JOU917530 JYQ917529:JYQ917530 KIM917529:KIM917530 KSI917529:KSI917530 LCE917529:LCE917530 LMA917529:LMA917530 LVW917529:LVW917530 MFS917529:MFS917530 MPO917529:MPO917530 MZK917529:MZK917530 NJG917529:NJG917530 NTC917529:NTC917530 OCY917529:OCY917530 OMU917529:OMU917530 OWQ917529:OWQ917530 PGM917529:PGM917530 PQI917529:PQI917530 QAE917529:QAE917530 QKA917529:QKA917530 QTW917529:QTW917530 RDS917529:RDS917530 RNO917529:RNO917530 RXK917529:RXK917530 SHG917529:SHG917530 SRC917529:SRC917530 TAY917529:TAY917530 TKU917529:TKU917530 TUQ917529:TUQ917530 UEM917529:UEM917530 UOI917529:UOI917530 UYE917529:UYE917530 VIA917529:VIA917530 VRW917529:VRW917530 WBS917529:WBS917530 WLO917529:WLO917530 WVK917529:WVK917530 IY983065:IY983066 SU983065:SU983066 ACQ983065:ACQ983066 AMM983065:AMM983066 AWI983065:AWI983066 BGE983065:BGE983066 BQA983065:BQA983066 BZW983065:BZW983066 CJS983065:CJS983066 CTO983065:CTO983066 DDK983065:DDK983066 DNG983065:DNG983066 DXC983065:DXC983066 EGY983065:EGY983066 EQU983065:EQU983066 FAQ983065:FAQ983066 FKM983065:FKM983066 FUI983065:FUI983066 GEE983065:GEE983066 GOA983065:GOA983066 GXW983065:GXW983066 HHS983065:HHS983066 HRO983065:HRO983066 IBK983065:IBK983066 ILG983065:ILG983066 IVC983065:IVC983066 JEY983065:JEY983066 JOU983065:JOU983066 JYQ983065:JYQ983066 KIM983065:KIM983066 KSI983065:KSI983066 LCE983065:LCE983066 LMA983065:LMA983066 LVW983065:LVW983066 MFS983065:MFS983066 MPO983065:MPO983066 MZK983065:MZK983066 NJG983065:NJG983066 NTC983065:NTC983066 OCY983065:OCY983066 OMU983065:OMU983066 OWQ983065:OWQ983066 PGM983065:PGM983066 PQI983065:PQI983066 QAE983065:QAE983066 QKA983065:QKA983066 QTW983065:QTW983066 RDS983065:RDS983066 RNO983065:RNO983066 RXK983065:RXK983066 SHG983065:SHG983066 SRC983065:SRC983066 TAY983065:TAY983066 TKU983065:TKU983066 TUQ983065:TUQ983066 UEM983065:UEM983066 UOI983065:UOI983066 UYE983065:UYE983066 VIA983065:VIA983066 VRW983065:VRW983066 WBS983065:WBS983066 WLO983065:WLO983066 WVK983065:WVK983066 JB25:JB26 SX25:SX26 ACT25:ACT26 AMP25:AMP26 AWL25:AWL26 BGH25:BGH26 BQD25:BQD26 BZZ25:BZZ26 CJV25:CJV26 CTR25:CTR26 DDN25:DDN26 DNJ25:DNJ26 DXF25:DXF26 EHB25:EHB26 EQX25:EQX26 FAT25:FAT26 FKP25:FKP26 FUL25:FUL26 GEH25:GEH26 GOD25:GOD26 GXZ25:GXZ26 HHV25:HHV26 HRR25:HRR26 IBN25:IBN26 ILJ25:ILJ26 IVF25:IVF26 JFB25:JFB26 JOX25:JOX26 JYT25:JYT26 KIP25:KIP26 KSL25:KSL26 LCH25:LCH26 LMD25:LMD26 LVZ25:LVZ26 MFV25:MFV26 MPR25:MPR26 MZN25:MZN26 NJJ25:NJJ26 NTF25:NTF26 ODB25:ODB26 OMX25:OMX26 OWT25:OWT26 PGP25:PGP26 PQL25:PQL26 QAH25:QAH26 QKD25:QKD26 QTZ25:QTZ26 RDV25:RDV26 RNR25:RNR26 RXN25:RXN26 SHJ25:SHJ26 SRF25:SRF26 TBB25:TBB26 TKX25:TKX26 TUT25:TUT26 UEP25:UEP26 UOL25:UOL26 UYH25:UYH26 VID25:VID26 VRZ25:VRZ26 WBV25:WBV26 WLR25:WLR26 WVN25:WVN26 JB65561:JB65562 SX65561:SX65562 ACT65561:ACT65562 AMP65561:AMP65562 AWL65561:AWL65562 BGH65561:BGH65562 BQD65561:BQD65562 BZZ65561:BZZ65562 CJV65561:CJV65562 CTR65561:CTR65562 DDN65561:DDN65562 DNJ65561:DNJ65562 DXF65561:DXF65562 EHB65561:EHB65562 EQX65561:EQX65562 FAT65561:FAT65562 FKP65561:FKP65562 FUL65561:FUL65562 GEH65561:GEH65562 GOD65561:GOD65562 GXZ65561:GXZ65562 HHV65561:HHV65562 HRR65561:HRR65562 IBN65561:IBN65562 ILJ65561:ILJ65562 IVF65561:IVF65562 JFB65561:JFB65562 JOX65561:JOX65562 JYT65561:JYT65562 KIP65561:KIP65562 KSL65561:KSL65562 LCH65561:LCH65562 LMD65561:LMD65562 LVZ65561:LVZ65562 MFV65561:MFV65562 MPR65561:MPR65562 MZN65561:MZN65562 NJJ65561:NJJ65562 NTF65561:NTF65562 ODB65561:ODB65562 OMX65561:OMX65562 OWT65561:OWT65562 PGP65561:PGP65562 PQL65561:PQL65562 QAH65561:QAH65562 QKD65561:QKD65562 QTZ65561:QTZ65562 RDV65561:RDV65562 RNR65561:RNR65562 RXN65561:RXN65562 SHJ65561:SHJ65562 SRF65561:SRF65562 TBB65561:TBB65562 TKX65561:TKX65562 TUT65561:TUT65562 UEP65561:UEP65562 UOL65561:UOL65562 UYH65561:UYH65562 VID65561:VID65562 VRZ65561:VRZ65562 WBV65561:WBV65562 WLR65561:WLR65562 WVN65561:WVN65562 JB131097:JB131098 SX131097:SX131098 ACT131097:ACT131098 AMP131097:AMP131098 AWL131097:AWL131098 BGH131097:BGH131098 BQD131097:BQD131098 BZZ131097:BZZ131098 CJV131097:CJV131098 CTR131097:CTR131098 DDN131097:DDN131098 DNJ131097:DNJ131098 DXF131097:DXF131098 EHB131097:EHB131098 EQX131097:EQX131098 FAT131097:FAT131098 FKP131097:FKP131098 FUL131097:FUL131098 GEH131097:GEH131098 GOD131097:GOD131098 GXZ131097:GXZ131098 HHV131097:HHV131098 HRR131097:HRR131098 IBN131097:IBN131098 ILJ131097:ILJ131098 IVF131097:IVF131098 JFB131097:JFB131098 JOX131097:JOX131098 JYT131097:JYT131098 KIP131097:KIP131098 KSL131097:KSL131098 LCH131097:LCH131098 LMD131097:LMD131098 LVZ131097:LVZ131098 MFV131097:MFV131098 MPR131097:MPR131098 MZN131097:MZN131098 NJJ131097:NJJ131098 NTF131097:NTF131098 ODB131097:ODB131098 OMX131097:OMX131098 OWT131097:OWT131098 PGP131097:PGP131098 PQL131097:PQL131098 QAH131097:QAH131098 QKD131097:QKD131098 QTZ131097:QTZ131098 RDV131097:RDV131098 RNR131097:RNR131098 RXN131097:RXN131098 SHJ131097:SHJ131098 SRF131097:SRF131098 TBB131097:TBB131098 TKX131097:TKX131098 TUT131097:TUT131098 UEP131097:UEP131098 UOL131097:UOL131098 UYH131097:UYH131098 VID131097:VID131098 VRZ131097:VRZ131098 WBV131097:WBV131098 WLR131097:WLR131098 WVN131097:WVN131098 JB196633:JB196634 SX196633:SX196634 ACT196633:ACT196634 AMP196633:AMP196634 AWL196633:AWL196634 BGH196633:BGH196634 BQD196633:BQD196634 BZZ196633:BZZ196634 CJV196633:CJV196634 CTR196633:CTR196634 DDN196633:DDN196634 DNJ196633:DNJ196634 DXF196633:DXF196634 EHB196633:EHB196634 EQX196633:EQX196634 FAT196633:FAT196634 FKP196633:FKP196634 FUL196633:FUL196634 GEH196633:GEH196634 GOD196633:GOD196634 GXZ196633:GXZ196634 HHV196633:HHV196634 HRR196633:HRR196634 IBN196633:IBN196634 ILJ196633:ILJ196634 IVF196633:IVF196634 JFB196633:JFB196634 JOX196633:JOX196634 JYT196633:JYT196634 KIP196633:KIP196634 KSL196633:KSL196634 LCH196633:LCH196634 LMD196633:LMD196634 LVZ196633:LVZ196634 MFV196633:MFV196634 MPR196633:MPR196634 MZN196633:MZN196634 NJJ196633:NJJ196634 NTF196633:NTF196634 ODB196633:ODB196634 OMX196633:OMX196634 OWT196633:OWT196634 PGP196633:PGP196634 PQL196633:PQL196634 QAH196633:QAH196634 QKD196633:QKD196634 QTZ196633:QTZ196634 RDV196633:RDV196634 RNR196633:RNR196634 RXN196633:RXN196634 SHJ196633:SHJ196634 SRF196633:SRF196634 TBB196633:TBB196634 TKX196633:TKX196634 TUT196633:TUT196634 UEP196633:UEP196634 UOL196633:UOL196634 UYH196633:UYH196634 VID196633:VID196634 VRZ196633:VRZ196634 WBV196633:WBV196634 WLR196633:WLR196634 WVN196633:WVN196634 JB262169:JB262170 SX262169:SX262170 ACT262169:ACT262170 AMP262169:AMP262170 AWL262169:AWL262170 BGH262169:BGH262170 BQD262169:BQD262170 BZZ262169:BZZ262170 CJV262169:CJV262170 CTR262169:CTR262170 DDN262169:DDN262170 DNJ262169:DNJ262170 DXF262169:DXF262170 EHB262169:EHB262170 EQX262169:EQX262170 FAT262169:FAT262170 FKP262169:FKP262170 FUL262169:FUL262170 GEH262169:GEH262170 GOD262169:GOD262170 GXZ262169:GXZ262170 HHV262169:HHV262170 HRR262169:HRR262170 IBN262169:IBN262170 ILJ262169:ILJ262170 IVF262169:IVF262170 JFB262169:JFB262170 JOX262169:JOX262170 JYT262169:JYT262170 KIP262169:KIP262170 KSL262169:KSL262170 LCH262169:LCH262170 LMD262169:LMD262170 LVZ262169:LVZ262170 MFV262169:MFV262170 MPR262169:MPR262170 MZN262169:MZN262170 NJJ262169:NJJ262170 NTF262169:NTF262170 ODB262169:ODB262170 OMX262169:OMX262170 OWT262169:OWT262170 PGP262169:PGP262170 PQL262169:PQL262170 QAH262169:QAH262170 QKD262169:QKD262170 QTZ262169:QTZ262170 RDV262169:RDV262170 RNR262169:RNR262170 RXN262169:RXN262170 SHJ262169:SHJ262170 SRF262169:SRF262170 TBB262169:TBB262170 TKX262169:TKX262170 TUT262169:TUT262170 UEP262169:UEP262170 UOL262169:UOL262170 UYH262169:UYH262170 VID262169:VID262170 VRZ262169:VRZ262170 WBV262169:WBV262170 WLR262169:WLR262170 WVN262169:WVN262170 JB327705:JB327706 SX327705:SX327706 ACT327705:ACT327706 AMP327705:AMP327706 AWL327705:AWL327706 BGH327705:BGH327706 BQD327705:BQD327706 BZZ327705:BZZ327706 CJV327705:CJV327706 CTR327705:CTR327706 DDN327705:DDN327706 DNJ327705:DNJ327706 DXF327705:DXF327706 EHB327705:EHB327706 EQX327705:EQX327706 FAT327705:FAT327706 FKP327705:FKP327706 FUL327705:FUL327706 GEH327705:GEH327706 GOD327705:GOD327706 GXZ327705:GXZ327706 HHV327705:HHV327706 HRR327705:HRR327706 IBN327705:IBN327706 ILJ327705:ILJ327706 IVF327705:IVF327706 JFB327705:JFB327706 JOX327705:JOX327706 JYT327705:JYT327706 KIP327705:KIP327706 KSL327705:KSL327706 LCH327705:LCH327706 LMD327705:LMD327706 LVZ327705:LVZ327706 MFV327705:MFV327706 MPR327705:MPR327706 MZN327705:MZN327706 NJJ327705:NJJ327706 NTF327705:NTF327706 ODB327705:ODB327706 OMX327705:OMX327706 OWT327705:OWT327706 PGP327705:PGP327706 PQL327705:PQL327706 QAH327705:QAH327706 QKD327705:QKD327706 QTZ327705:QTZ327706 RDV327705:RDV327706 RNR327705:RNR327706 RXN327705:RXN327706 SHJ327705:SHJ327706 SRF327705:SRF327706 TBB327705:TBB327706 TKX327705:TKX327706 TUT327705:TUT327706 UEP327705:UEP327706 UOL327705:UOL327706 UYH327705:UYH327706 VID327705:VID327706 VRZ327705:VRZ327706 WBV327705:WBV327706 WLR327705:WLR327706 WVN327705:WVN327706 JB393241:JB393242 SX393241:SX393242 ACT393241:ACT393242 AMP393241:AMP393242 AWL393241:AWL393242 BGH393241:BGH393242 BQD393241:BQD393242 BZZ393241:BZZ393242 CJV393241:CJV393242 CTR393241:CTR393242 DDN393241:DDN393242 DNJ393241:DNJ393242 DXF393241:DXF393242 EHB393241:EHB393242 EQX393241:EQX393242 FAT393241:FAT393242 FKP393241:FKP393242 FUL393241:FUL393242 GEH393241:GEH393242 GOD393241:GOD393242 GXZ393241:GXZ393242 HHV393241:HHV393242 HRR393241:HRR393242 IBN393241:IBN393242 ILJ393241:ILJ393242 IVF393241:IVF393242 JFB393241:JFB393242 JOX393241:JOX393242 JYT393241:JYT393242 KIP393241:KIP393242 KSL393241:KSL393242 LCH393241:LCH393242 LMD393241:LMD393242 LVZ393241:LVZ393242 MFV393241:MFV393242 MPR393241:MPR393242 MZN393241:MZN393242 NJJ393241:NJJ393242 NTF393241:NTF393242 ODB393241:ODB393242 OMX393241:OMX393242 OWT393241:OWT393242 PGP393241:PGP393242 PQL393241:PQL393242 QAH393241:QAH393242 QKD393241:QKD393242 QTZ393241:QTZ393242 RDV393241:RDV393242 RNR393241:RNR393242 RXN393241:RXN393242 SHJ393241:SHJ393242 SRF393241:SRF393242 TBB393241:TBB393242 TKX393241:TKX393242 TUT393241:TUT393242 UEP393241:UEP393242 UOL393241:UOL393242 UYH393241:UYH393242 VID393241:VID393242 VRZ393241:VRZ393242 WBV393241:WBV393242 WLR393241:WLR393242 WVN393241:WVN393242 JB458777:JB458778 SX458777:SX458778 ACT458777:ACT458778 AMP458777:AMP458778 AWL458777:AWL458778 BGH458777:BGH458778 BQD458777:BQD458778 BZZ458777:BZZ458778 CJV458777:CJV458778 CTR458777:CTR458778 DDN458777:DDN458778 DNJ458777:DNJ458778 DXF458777:DXF458778 EHB458777:EHB458778 EQX458777:EQX458778 FAT458777:FAT458778 FKP458777:FKP458778 FUL458777:FUL458778 GEH458777:GEH458778 GOD458777:GOD458778 GXZ458777:GXZ458778 HHV458777:HHV458778 HRR458777:HRR458778 IBN458777:IBN458778 ILJ458777:ILJ458778 IVF458777:IVF458778 JFB458777:JFB458778 JOX458777:JOX458778 JYT458777:JYT458778 KIP458777:KIP458778 KSL458777:KSL458778 LCH458777:LCH458778 LMD458777:LMD458778 LVZ458777:LVZ458778 MFV458777:MFV458778 MPR458777:MPR458778 MZN458777:MZN458778 NJJ458777:NJJ458778 NTF458777:NTF458778 ODB458777:ODB458778 OMX458777:OMX458778 OWT458777:OWT458778 PGP458777:PGP458778 PQL458777:PQL458778 QAH458777:QAH458778 QKD458777:QKD458778 QTZ458777:QTZ458778 RDV458777:RDV458778 RNR458777:RNR458778 RXN458777:RXN458778 SHJ458777:SHJ458778 SRF458777:SRF458778 TBB458777:TBB458778 TKX458777:TKX458778 TUT458777:TUT458778 UEP458777:UEP458778 UOL458777:UOL458778 UYH458777:UYH458778 VID458777:VID458778 VRZ458777:VRZ458778 WBV458777:WBV458778 WLR458777:WLR458778 WVN458777:WVN458778 JB524313:JB524314 SX524313:SX524314 ACT524313:ACT524314 AMP524313:AMP524314 AWL524313:AWL524314 BGH524313:BGH524314 BQD524313:BQD524314 BZZ524313:BZZ524314 CJV524313:CJV524314 CTR524313:CTR524314 DDN524313:DDN524314 DNJ524313:DNJ524314 DXF524313:DXF524314 EHB524313:EHB524314 EQX524313:EQX524314 FAT524313:FAT524314 FKP524313:FKP524314 FUL524313:FUL524314 GEH524313:GEH524314 GOD524313:GOD524314 GXZ524313:GXZ524314 HHV524313:HHV524314 HRR524313:HRR524314 IBN524313:IBN524314 ILJ524313:ILJ524314 IVF524313:IVF524314 JFB524313:JFB524314 JOX524313:JOX524314 JYT524313:JYT524314 KIP524313:KIP524314 KSL524313:KSL524314 LCH524313:LCH524314 LMD524313:LMD524314 LVZ524313:LVZ524314 MFV524313:MFV524314 MPR524313:MPR524314 MZN524313:MZN524314 NJJ524313:NJJ524314 NTF524313:NTF524314 ODB524313:ODB524314 OMX524313:OMX524314 OWT524313:OWT524314 PGP524313:PGP524314 PQL524313:PQL524314 QAH524313:QAH524314 QKD524313:QKD524314 QTZ524313:QTZ524314 RDV524313:RDV524314 RNR524313:RNR524314 RXN524313:RXN524314 SHJ524313:SHJ524314 SRF524313:SRF524314 TBB524313:TBB524314 TKX524313:TKX524314 TUT524313:TUT524314 UEP524313:UEP524314 UOL524313:UOL524314 UYH524313:UYH524314 VID524313:VID524314 VRZ524313:VRZ524314 WBV524313:WBV524314 WLR524313:WLR524314 WVN524313:WVN524314 JB589849:JB589850 SX589849:SX589850 ACT589849:ACT589850 AMP589849:AMP589850 AWL589849:AWL589850 BGH589849:BGH589850 BQD589849:BQD589850 BZZ589849:BZZ589850 CJV589849:CJV589850 CTR589849:CTR589850 DDN589849:DDN589850 DNJ589849:DNJ589850 DXF589849:DXF589850 EHB589849:EHB589850 EQX589849:EQX589850 FAT589849:FAT589850 FKP589849:FKP589850 FUL589849:FUL589850 GEH589849:GEH589850 GOD589849:GOD589850 GXZ589849:GXZ589850 HHV589849:HHV589850 HRR589849:HRR589850 IBN589849:IBN589850 ILJ589849:ILJ589850 IVF589849:IVF589850 JFB589849:JFB589850 JOX589849:JOX589850 JYT589849:JYT589850 KIP589849:KIP589850 KSL589849:KSL589850 LCH589849:LCH589850 LMD589849:LMD589850 LVZ589849:LVZ589850 MFV589849:MFV589850 MPR589849:MPR589850 MZN589849:MZN589850 NJJ589849:NJJ589850 NTF589849:NTF589850 ODB589849:ODB589850 OMX589849:OMX589850 OWT589849:OWT589850 PGP589849:PGP589850 PQL589849:PQL589850 QAH589849:QAH589850 QKD589849:QKD589850 QTZ589849:QTZ589850 RDV589849:RDV589850 RNR589849:RNR589850 RXN589849:RXN589850 SHJ589849:SHJ589850 SRF589849:SRF589850 TBB589849:TBB589850 TKX589849:TKX589850 TUT589849:TUT589850 UEP589849:UEP589850 UOL589849:UOL589850 UYH589849:UYH589850 VID589849:VID589850 VRZ589849:VRZ589850 WBV589849:WBV589850 WLR589849:WLR589850 WVN589849:WVN589850 JB655385:JB655386 SX655385:SX655386 ACT655385:ACT655386 AMP655385:AMP655386 AWL655385:AWL655386 BGH655385:BGH655386 BQD655385:BQD655386 BZZ655385:BZZ655386 CJV655385:CJV655386 CTR655385:CTR655386 DDN655385:DDN655386 DNJ655385:DNJ655386 DXF655385:DXF655386 EHB655385:EHB655386 EQX655385:EQX655386 FAT655385:FAT655386 FKP655385:FKP655386 FUL655385:FUL655386 GEH655385:GEH655386 GOD655385:GOD655386 GXZ655385:GXZ655386 HHV655385:HHV655386 HRR655385:HRR655386 IBN655385:IBN655386 ILJ655385:ILJ655386 IVF655385:IVF655386 JFB655385:JFB655386 JOX655385:JOX655386 JYT655385:JYT655386 KIP655385:KIP655386 KSL655385:KSL655386 LCH655385:LCH655386 LMD655385:LMD655386 LVZ655385:LVZ655386 MFV655385:MFV655386 MPR655385:MPR655386 MZN655385:MZN655386 NJJ655385:NJJ655386 NTF655385:NTF655386 ODB655385:ODB655386 OMX655385:OMX655386 OWT655385:OWT655386 PGP655385:PGP655386 PQL655385:PQL655386 QAH655385:QAH655386 QKD655385:QKD655386 QTZ655385:QTZ655386 RDV655385:RDV655386 RNR655385:RNR655386 RXN655385:RXN655386 SHJ655385:SHJ655386 SRF655385:SRF655386 TBB655385:TBB655386 TKX655385:TKX655386 TUT655385:TUT655386 UEP655385:UEP655386 UOL655385:UOL655386 UYH655385:UYH655386 VID655385:VID655386 VRZ655385:VRZ655386 WBV655385:WBV655386 WLR655385:WLR655386 WVN655385:WVN655386 JB720921:JB720922 SX720921:SX720922 ACT720921:ACT720922 AMP720921:AMP720922 AWL720921:AWL720922 BGH720921:BGH720922 BQD720921:BQD720922 BZZ720921:BZZ720922 CJV720921:CJV720922 CTR720921:CTR720922 DDN720921:DDN720922 DNJ720921:DNJ720922 DXF720921:DXF720922 EHB720921:EHB720922 EQX720921:EQX720922 FAT720921:FAT720922 FKP720921:FKP720922 FUL720921:FUL720922 GEH720921:GEH720922 GOD720921:GOD720922 GXZ720921:GXZ720922 HHV720921:HHV720922 HRR720921:HRR720922 IBN720921:IBN720922 ILJ720921:ILJ720922 IVF720921:IVF720922 JFB720921:JFB720922 JOX720921:JOX720922 JYT720921:JYT720922 KIP720921:KIP720922 KSL720921:KSL720922 LCH720921:LCH720922 LMD720921:LMD720922 LVZ720921:LVZ720922 MFV720921:MFV720922 MPR720921:MPR720922 MZN720921:MZN720922 NJJ720921:NJJ720922 NTF720921:NTF720922 ODB720921:ODB720922 OMX720921:OMX720922 OWT720921:OWT720922 PGP720921:PGP720922 PQL720921:PQL720922 QAH720921:QAH720922 QKD720921:QKD720922 QTZ720921:QTZ720922 RDV720921:RDV720922 RNR720921:RNR720922 RXN720921:RXN720922 SHJ720921:SHJ720922 SRF720921:SRF720922 TBB720921:TBB720922 TKX720921:TKX720922 TUT720921:TUT720922 UEP720921:UEP720922 UOL720921:UOL720922 UYH720921:UYH720922 VID720921:VID720922 VRZ720921:VRZ720922 WBV720921:WBV720922 WLR720921:WLR720922 WVN720921:WVN720922 JB786457:JB786458 SX786457:SX786458 ACT786457:ACT786458 AMP786457:AMP786458 AWL786457:AWL786458 BGH786457:BGH786458 BQD786457:BQD786458 BZZ786457:BZZ786458 CJV786457:CJV786458 CTR786457:CTR786458 DDN786457:DDN786458 DNJ786457:DNJ786458 DXF786457:DXF786458 EHB786457:EHB786458 EQX786457:EQX786458 FAT786457:FAT786458 FKP786457:FKP786458 FUL786457:FUL786458 GEH786457:GEH786458 GOD786457:GOD786458 GXZ786457:GXZ786458 HHV786457:HHV786458 HRR786457:HRR786458 IBN786457:IBN786458 ILJ786457:ILJ786458 IVF786457:IVF786458 JFB786457:JFB786458 JOX786457:JOX786458 JYT786457:JYT786458 KIP786457:KIP786458 KSL786457:KSL786458 LCH786457:LCH786458 LMD786457:LMD786458 LVZ786457:LVZ786458 MFV786457:MFV786458 MPR786457:MPR786458 MZN786457:MZN786458 NJJ786457:NJJ786458 NTF786457:NTF786458 ODB786457:ODB786458 OMX786457:OMX786458 OWT786457:OWT786458 PGP786457:PGP786458 PQL786457:PQL786458 QAH786457:QAH786458 QKD786457:QKD786458 QTZ786457:QTZ786458 RDV786457:RDV786458 RNR786457:RNR786458 RXN786457:RXN786458 SHJ786457:SHJ786458 SRF786457:SRF786458 TBB786457:TBB786458 TKX786457:TKX786458 TUT786457:TUT786458 UEP786457:UEP786458 UOL786457:UOL786458 UYH786457:UYH786458 VID786457:VID786458 VRZ786457:VRZ786458 WBV786457:WBV786458 WLR786457:WLR786458 WVN786457:WVN786458 JB851993:JB851994 SX851993:SX851994 ACT851993:ACT851994 AMP851993:AMP851994 AWL851993:AWL851994 BGH851993:BGH851994 BQD851993:BQD851994 BZZ851993:BZZ851994 CJV851993:CJV851994 CTR851993:CTR851994 DDN851993:DDN851994 DNJ851993:DNJ851994 DXF851993:DXF851994 EHB851993:EHB851994 EQX851993:EQX851994 FAT851993:FAT851994 FKP851993:FKP851994 FUL851993:FUL851994 GEH851993:GEH851994 GOD851993:GOD851994 GXZ851993:GXZ851994 HHV851993:HHV851994 HRR851993:HRR851994 IBN851993:IBN851994 ILJ851993:ILJ851994 IVF851993:IVF851994 JFB851993:JFB851994 JOX851993:JOX851994 JYT851993:JYT851994 KIP851993:KIP851994 KSL851993:KSL851994 LCH851993:LCH851994 LMD851993:LMD851994 LVZ851993:LVZ851994 MFV851993:MFV851994 MPR851993:MPR851994 MZN851993:MZN851994 NJJ851993:NJJ851994 NTF851993:NTF851994 ODB851993:ODB851994 OMX851993:OMX851994 OWT851993:OWT851994 PGP851993:PGP851994 PQL851993:PQL851994 QAH851993:QAH851994 QKD851993:QKD851994 QTZ851993:QTZ851994 RDV851993:RDV851994 RNR851993:RNR851994 RXN851993:RXN851994 SHJ851993:SHJ851994 SRF851993:SRF851994 TBB851993:TBB851994 TKX851993:TKX851994 TUT851993:TUT851994 UEP851993:UEP851994 UOL851993:UOL851994 UYH851993:UYH851994 VID851993:VID851994 VRZ851993:VRZ851994 WBV851993:WBV851994 WLR851993:WLR851994 WVN851993:WVN851994 JB917529:JB917530 SX917529:SX917530 ACT917529:ACT917530 AMP917529:AMP917530 AWL917529:AWL917530 BGH917529:BGH917530 BQD917529:BQD917530 BZZ917529:BZZ917530 CJV917529:CJV917530 CTR917529:CTR917530 DDN917529:DDN917530 DNJ917529:DNJ917530 DXF917529:DXF917530 EHB917529:EHB917530 EQX917529:EQX917530 FAT917529:FAT917530 FKP917529:FKP917530 FUL917529:FUL917530 GEH917529:GEH917530 GOD917529:GOD917530 GXZ917529:GXZ917530 HHV917529:HHV917530 HRR917529:HRR917530 IBN917529:IBN917530 ILJ917529:ILJ917530 IVF917529:IVF917530 JFB917529:JFB917530 JOX917529:JOX917530 JYT917529:JYT917530 KIP917529:KIP917530 KSL917529:KSL917530 LCH917529:LCH917530 LMD917529:LMD917530 LVZ917529:LVZ917530 MFV917529:MFV917530 MPR917529:MPR917530 MZN917529:MZN917530 NJJ917529:NJJ917530 NTF917529:NTF917530 ODB917529:ODB917530 OMX917529:OMX917530 OWT917529:OWT917530 PGP917529:PGP917530 PQL917529:PQL917530 QAH917529:QAH917530 QKD917529:QKD917530 QTZ917529:QTZ917530 RDV917529:RDV917530 RNR917529:RNR917530 RXN917529:RXN917530 SHJ917529:SHJ917530 SRF917529:SRF917530 TBB917529:TBB917530 TKX917529:TKX917530 TUT917529:TUT917530 UEP917529:UEP917530 UOL917529:UOL917530 UYH917529:UYH917530 VID917529:VID917530 VRZ917529:VRZ917530 WBV917529:WBV917530 WLR917529:WLR917530 WVN917529:WVN917530 JB983065:JB983066 SX983065:SX983066 ACT983065:ACT983066 AMP983065:AMP983066 AWL983065:AWL983066 BGH983065:BGH983066 BQD983065:BQD983066 BZZ983065:BZZ983066 CJV983065:CJV983066 CTR983065:CTR983066 DDN983065:DDN983066 DNJ983065:DNJ983066 DXF983065:DXF983066 EHB983065:EHB983066 EQX983065:EQX983066 FAT983065:FAT983066 FKP983065:FKP983066 FUL983065:FUL983066 GEH983065:GEH983066 GOD983065:GOD983066 GXZ983065:GXZ983066 HHV983065:HHV983066 HRR983065:HRR983066 IBN983065:IBN983066 ILJ983065:ILJ983066 IVF983065:IVF983066 JFB983065:JFB983066 JOX983065:JOX983066 JYT983065:JYT983066 KIP983065:KIP983066 KSL983065:KSL983066 LCH983065:LCH983066 LMD983065:LMD983066 LVZ983065:LVZ983066 MFV983065:MFV983066 MPR983065:MPR983066 MZN983065:MZN983066 NJJ983065:NJJ983066 NTF983065:NTF983066 ODB983065:ODB983066 OMX983065:OMX983066 OWT983065:OWT983066 PGP983065:PGP983066 PQL983065:PQL983066 QAH983065:QAH983066 QKD983065:QKD983066 QTZ983065:QTZ983066 RDV983065:RDV983066 RNR983065:RNR983066 RXN983065:RXN983066 SHJ983065:SHJ983066 SRF983065:SRF983066 TBB983065:TBB983066 TKX983065:TKX983066 TUT983065:TUT983066 UEP983065:UEP983066 UOL983065:UOL983066 UYH983065:UYH983066 VID983065:VID983066 VRZ983065:VRZ983066 WBV983065:WBV983066 WLR983065:WLR983066 WVN983065:WVN983066 F983062:F983063 F917526:F917527 F851990:F851991 F786454:F786455 F720918:F720919 F655382:F655383 F589846:F589847 F524310:F524311 F458774:F458775 F393238:F393239 F327702:F327703 F262166:F262167 F196630:F196631 F131094:F131095 F65558:F65559 C983062:C983063 C917526:C917527 C851990:C851991 C786454:C786455 C720918:C720919 C655382:C655383 C589846:C589847 C524310:C524311 C458774:C458775 C393238:C393239 C327702:C327703 C262166:C262167 C196630:C196631 C131094:C131095 C65558:C65559">
@@ -1396,7 +1480,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" location="'Cutting Table'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
